--- a/nba_mvp_winners.xlsx
+++ b/nba_mvp_winners.xlsx
@@ -8093,6 +8093,9 @@
       <c r="AB47">
         <v>0.54</v>
       </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
       <c r="AF47">
         <v>8.699999999999999</v>
       </c>
@@ -8230,6 +8233,9 @@
       <c r="AB48">
         <v>0.522</v>
       </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
       <c r="AF48">
         <v>7.9</v>
       </c>
@@ -8367,6 +8373,9 @@
       <c r="AB49">
         <v>0.579</v>
       </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
       <c r="AF49">
         <v>10.8</v>
       </c>
@@ -8501,6 +8510,9 @@
       <c r="AB50">
         <v>0.529</v>
       </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
       <c r="AF50">
         <v>11.1</v>
       </c>
@@ -8635,6 +8647,9 @@
       <c r="AB51">
         <v>0.512</v>
       </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
       <c r="AF51">
         <v>13.4</v>
       </c>
@@ -8769,6 +8784,9 @@
       <c r="AB52">
         <v>0.539</v>
       </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
       <c r="AF52">
         <v>11.7</v>
       </c>
@@ -8903,6 +8921,9 @@
       <c r="AB53">
         <v>0.452</v>
       </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
       <c r="AF53">
         <v>9</v>
       </c>
@@ -9025,6 +9046,9 @@
       <c r="AB54">
         <v>0.574</v>
       </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
       <c r="AF54">
         <v>14.3</v>
       </c>
@@ -9147,6 +9171,9 @@
       <c r="AB55">
         <v>0.577</v>
       </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
       <c r="AF55">
         <v>13</v>
       </c>
@@ -9269,6 +9296,9 @@
       <c r="AB56">
         <v>0.507</v>
       </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
       <c r="AF56">
         <v>8.699999999999999</v>
       </c>
@@ -9391,6 +9421,9 @@
       <c r="AB57">
         <v>0.476</v>
       </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
       <c r="AF57">
         <v>5.2</v>
       </c>
@@ -9513,6 +9546,9 @@
       <c r="AB58">
         <v>0.595</v>
       </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
       <c r="AF58">
         <v>10</v>
       </c>
@@ -9635,6 +9671,9 @@
       <c r="AB59">
         <v>0.6830000000000001</v>
       </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
       <c r="AF59">
         <v>9.699999999999999</v>
       </c>
@@ -9757,6 +9796,9 @@
       <c r="AB60">
         <v>0.54</v>
       </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
       <c r="AF60">
         <v>13.6</v>
       </c>
@@ -9879,6 +9921,9 @@
       <c r="AB61">
         <v>0.438</v>
       </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
       <c r="AF61">
         <v>5.5</v>
       </c>
@@ -10001,6 +10046,9 @@
       <c r="AB62">
         <v>0.483</v>
       </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
       <c r="AF62">
         <v>10.6</v>
       </c>
@@ -10123,6 +10171,9 @@
       <c r="AB63">
         <v>0.432</v>
       </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
       <c r="AF63">
         <v>6.6</v>
       </c>
@@ -10245,6 +10296,9 @@
       <c r="AB64">
         <v>0.457</v>
       </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
       <c r="AF64">
         <v>7.6</v>
       </c>
@@ -10367,6 +10421,9 @@
       <c r="AB65">
         <v>0.426</v>
       </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
       <c r="AF65">
         <v>6.8</v>
       </c>
@@ -10489,6 +10546,9 @@
       <c r="AB66">
         <v>0.461</v>
       </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
       <c r="AF66">
         <v>14.8</v>
       </c>
@@ -10611,6 +10671,9 @@
       <c r="AB67">
         <v>0.438</v>
       </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
       <c r="AF67">
         <v>10</v>
       </c>
@@ -10733,6 +10796,9 @@
       <c r="AB68">
         <v>0.442</v>
       </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
       <c r="AF68">
         <v>6.6</v>
       </c>
@@ -10855,6 +10921,9 @@
       <c r="AB69">
         <v>0.378</v>
       </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
       <c r="AF69">
         <v>7.5</v>
       </c>
@@ -10976,6 +11045,9 @@
       </c>
       <c r="AB70">
         <v>0.429</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>9</v>

--- a/nba_mvp_winners.xlsx
+++ b/nba_mvp_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="258">
   <si>
     <t>year_x</t>
   </si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>NBA</t>
+  </si>
+  <si>
+    <t>N/A - Stat tracked as of the 1973-74 NBA Season</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1443,10 +1446,10 @@
         <v>180</v>
       </c>
       <c r="AW2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -1592,10 +1595,10 @@
         <v>181</v>
       </c>
       <c r="AW3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -1741,10 +1744,10 @@
         <v>182</v>
       </c>
       <c r="AW4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -1890,10 +1893,10 @@
         <v>183</v>
       </c>
       <c r="AW5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:50">
@@ -2039,10 +2042,10 @@
         <v>184</v>
       </c>
       <c r="AW6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -2188,10 +2191,10 @@
         <v>185</v>
       </c>
       <c r="AW7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -2337,10 +2340,10 @@
         <v>186</v>
       </c>
       <c r="AW8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -2486,10 +2489,10 @@
         <v>187</v>
       </c>
       <c r="AW9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -2635,10 +2638,10 @@
         <v>188</v>
       </c>
       <c r="AW10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -2784,10 +2787,10 @@
         <v>189</v>
       </c>
       <c r="AW11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -2933,10 +2936,10 @@
         <v>190</v>
       </c>
       <c r="AW12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -3082,10 +3085,10 @@
         <v>191</v>
       </c>
       <c r="AW13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -3231,10 +3234,10 @@
         <v>192</v>
       </c>
       <c r="AW14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -3380,10 +3383,10 @@
         <v>193</v>
       </c>
       <c r="AW15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -3529,10 +3532,10 @@
         <v>194</v>
       </c>
       <c r="AW16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:50">
@@ -3678,10 +3681,10 @@
         <v>195</v>
       </c>
       <c r="AW17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:50">
@@ -3827,10 +3830,10 @@
         <v>196</v>
       </c>
       <c r="AW18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:50">
@@ -3976,10 +3979,10 @@
         <v>197</v>
       </c>
       <c r="AW19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:50">
@@ -4125,10 +4128,10 @@
         <v>198</v>
       </c>
       <c r="AW20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:50">
@@ -4274,10 +4277,10 @@
         <v>199</v>
       </c>
       <c r="AW21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:50">
@@ -4423,10 +4426,10 @@
         <v>200</v>
       </c>
       <c r="AW22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:50">
@@ -4572,10 +4575,10 @@
         <v>201</v>
       </c>
       <c r="AW23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:50">
@@ -4721,10 +4724,10 @@
         <v>202</v>
       </c>
       <c r="AW24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:50">
@@ -4870,10 +4873,10 @@
         <v>203</v>
       </c>
       <c r="AW25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:50">
@@ -5019,10 +5022,10 @@
         <v>204</v>
       </c>
       <c r="AW26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:50">
@@ -5168,10 +5171,10 @@
         <v>205</v>
       </c>
       <c r="AW27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:50">
@@ -5317,10 +5320,10 @@
         <v>206</v>
       </c>
       <c r="AW28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:50">
@@ -5466,10 +5469,10 @@
         <v>207</v>
       </c>
       <c r="AW29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:50">
@@ -5615,10 +5618,10 @@
         <v>208</v>
       </c>
       <c r="AW30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:50">
@@ -5764,10 +5767,10 @@
         <v>209</v>
       </c>
       <c r="AW31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:50">
@@ -5913,10 +5916,10 @@
         <v>210</v>
       </c>
       <c r="AW32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:50">
@@ -6062,10 +6065,10 @@
         <v>211</v>
       </c>
       <c r="AW33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:50">
@@ -6211,10 +6214,10 @@
         <v>212</v>
       </c>
       <c r="AW34" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX34" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:50">
@@ -6360,10 +6363,10 @@
         <v>213</v>
       </c>
       <c r="AW35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:50">
@@ -6509,10 +6512,10 @@
         <v>214</v>
       </c>
       <c r="AW36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:50">
@@ -6658,10 +6661,10 @@
         <v>215</v>
       </c>
       <c r="AW37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:50">
@@ -6807,10 +6810,10 @@
         <v>216</v>
       </c>
       <c r="AW38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:50">
@@ -6956,10 +6959,10 @@
         <v>217</v>
       </c>
       <c r="AW39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:50">
@@ -7105,10 +7108,10 @@
         <v>218</v>
       </c>
       <c r="AW40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:50">
@@ -7254,10 +7257,10 @@
         <v>219</v>
       </c>
       <c r="AW41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:50">
@@ -7403,10 +7406,10 @@
         <v>220</v>
       </c>
       <c r="AW42" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:50">
@@ -7555,10 +7558,10 @@
         <v>221</v>
       </c>
       <c r="AW43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:50">
@@ -7707,10 +7710,10 @@
         <v>222</v>
       </c>
       <c r="AW44" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX44" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:50">
@@ -7859,10 +7862,10 @@
         <v>223</v>
       </c>
       <c r="AW45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:50">
@@ -8005,10 +8008,10 @@
         <v>224</v>
       </c>
       <c r="AW46" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX46" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:50">
@@ -8148,10 +8151,10 @@
         <v>225</v>
       </c>
       <c r="AW47" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX47" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:50">
@@ -8288,10 +8291,10 @@
         <v>226</v>
       </c>
       <c r="AW48" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:50">
@@ -8425,10 +8428,10 @@
         <v>227</v>
       </c>
       <c r="AW49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:50">
@@ -8562,10 +8565,10 @@
         <v>228</v>
       </c>
       <c r="AW50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:50">
@@ -8699,10 +8702,10 @@
         <v>229</v>
       </c>
       <c r="AW51" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:50">
@@ -8836,10 +8839,10 @@
         <v>230</v>
       </c>
       <c r="AW52" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:50">
@@ -8951,6 +8954,12 @@
       <c r="AP53">
         <v>4.1</v>
       </c>
+      <c r="AQ53" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>255</v>
+      </c>
       <c r="AT53">
         <v>3.8</v>
       </c>
@@ -8961,10 +8970,10 @@
         <v>231</v>
       </c>
       <c r="AW53" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX53" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:50">
@@ -9076,6 +9085,12 @@
       <c r="AP54">
         <v>4.6</v>
       </c>
+      <c r="AQ54" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>255</v>
+      </c>
       <c r="AT54">
         <v>2.9</v>
       </c>
@@ -9086,10 +9101,10 @@
         <v>232</v>
       </c>
       <c r="AW54" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX54" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:50">
@@ -9201,6 +9216,12 @@
       <c r="AP55">
         <v>3.3</v>
       </c>
+      <c r="AQ55" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>255</v>
+      </c>
       <c r="AT55">
         <v>3.2</v>
       </c>
@@ -9211,10 +9232,10 @@
         <v>233</v>
       </c>
       <c r="AW55" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX55" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:50">
@@ -9326,6 +9347,12 @@
       <c r="AP56">
         <v>2</v>
       </c>
+      <c r="AQ56" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>255</v>
+      </c>
       <c r="AT56">
         <v>3.5</v>
       </c>
@@ -9336,10 +9363,10 @@
         <v>234</v>
       </c>
       <c r="AW56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:50">
@@ -9451,6 +9478,12 @@
       <c r="AP57">
         <v>2.6</v>
       </c>
+      <c r="AQ57" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>255</v>
+      </c>
       <c r="AT57">
         <v>3.4</v>
       </c>
@@ -9461,10 +9494,10 @@
         <v>235</v>
       </c>
       <c r="AW57" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:50">
@@ -9576,6 +9609,12 @@
       <c r="AP58">
         <v>8.6</v>
       </c>
+      <c r="AQ58" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>255</v>
+      </c>
       <c r="AT58">
         <v>2</v>
       </c>
@@ -9586,10 +9625,10 @@
         <v>236</v>
       </c>
       <c r="AW58" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX58" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:50">
@@ -9701,6 +9740,12 @@
       <c r="AP59">
         <v>7.8</v>
       </c>
+      <c r="AQ59" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>255</v>
+      </c>
       <c r="AT59">
         <v>1.8</v>
       </c>
@@ -9711,10 +9756,10 @@
         <v>237</v>
       </c>
       <c r="AW59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX59" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:50">
@@ -9826,6 +9871,12 @@
       <c r="AP60">
         <v>5.2</v>
       </c>
+      <c r="AQ60" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>255</v>
+      </c>
       <c r="AT60">
         <v>2.2</v>
       </c>
@@ -9836,10 +9887,10 @@
         <v>238</v>
       </c>
       <c r="AW60" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX60" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:50">
@@ -9951,6 +10002,12 @@
       <c r="AP61">
         <v>5.3</v>
       </c>
+      <c r="AQ61" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>255</v>
+      </c>
       <c r="AT61">
         <v>2.6</v>
       </c>
@@ -9961,10 +10018,10 @@
         <v>239</v>
       </c>
       <c r="AW61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX61" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:50">
@@ -10076,6 +10133,12 @@
       <c r="AP62">
         <v>11</v>
       </c>
+      <c r="AQ62" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>255</v>
+      </c>
       <c r="AT62">
         <v>3.5</v>
       </c>
@@ -10086,10 +10149,10 @@
         <v>240</v>
       </c>
       <c r="AW62" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX62" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:50">
@@ -10201,6 +10264,12 @@
       <c r="AP63">
         <v>4.5</v>
       </c>
+      <c r="AQ63" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>255</v>
+      </c>
       <c r="AT63">
         <v>2.4</v>
       </c>
@@ -10211,10 +10280,10 @@
         <v>241</v>
       </c>
       <c r="AW63" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX63" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:50">
@@ -10326,6 +10395,12 @@
       <c r="AP64">
         <v>4.5</v>
       </c>
+      <c r="AQ64" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR64" t="s">
+        <v>255</v>
+      </c>
       <c r="AT64">
         <v>2.7</v>
       </c>
@@ -10336,10 +10411,10 @@
         <v>242</v>
       </c>
       <c r="AW64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:50">
@@ -10451,6 +10526,12 @@
       <c r="AP65">
         <v>3.4</v>
       </c>
+      <c r="AQ65" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>255</v>
+      </c>
       <c r="AT65">
         <v>2</v>
       </c>
@@ -10461,10 +10542,10 @@
         <v>243</v>
       </c>
       <c r="AW65" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX65" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:50">
@@ -10576,6 +10657,12 @@
       <c r="AP66">
         <v>2.3</v>
       </c>
+      <c r="AQ66" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>255</v>
+      </c>
       <c r="AT66">
         <v>2.1</v>
       </c>
@@ -10586,10 +10673,10 @@
         <v>244</v>
       </c>
       <c r="AW66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:50">
@@ -10701,6 +10788,12 @@
       <c r="AP67">
         <v>3.1</v>
       </c>
+      <c r="AQ67" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR67" t="s">
+        <v>255</v>
+      </c>
       <c r="AT67">
         <v>2.8</v>
       </c>
@@ -10711,10 +10804,10 @@
         <v>245</v>
       </c>
       <c r="AW67" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX67" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:50">
@@ -10826,6 +10919,12 @@
       <c r="AP68">
         <v>2.9</v>
       </c>
+      <c r="AQ68" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>255</v>
+      </c>
       <c r="AT68">
         <v>2.6</v>
       </c>
@@ -10836,10 +10935,10 @@
         <v>246</v>
       </c>
       <c r="AW68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:50">
@@ -10951,6 +11050,12 @@
       <c r="AP69">
         <v>7.5</v>
       </c>
+      <c r="AQ69" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>255</v>
+      </c>
       <c r="AT69">
         <v>2.1</v>
       </c>
@@ -10961,10 +11066,10 @@
         <v>247</v>
       </c>
       <c r="AW69" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX69" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:50">
@@ -11076,6 +11181,12 @@
       <c r="AP70">
         <v>2.6</v>
       </c>
+      <c r="AQ70" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>255</v>
+      </c>
       <c r="AT70">
         <v>2.8</v>
       </c>
@@ -11086,10 +11197,10 @@
         <v>248</v>
       </c>
       <c r="AW70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AX70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/nba_mvp_winners.xlsx
+++ b/nba_mvp_winners.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="258">
-  <si>
-    <t>year_x</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="259">
+  <si>
+    <t>season_ending_year_x</t>
   </si>
   <si>
     <t>award</t>
@@ -58,7 +58,7 @@
     <t>seas_id_y</t>
   </si>
   <si>
-    <t>year_y</t>
+    <t>season_ending_year_y</t>
   </si>
   <si>
     <t>player_y</t>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>triple_double_avg</t>
+  </si>
+  <si>
+    <t>calendar_year</t>
   </si>
   <si>
     <t>2024</t>
@@ -1145,13 +1148,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX70"/>
+  <dimension ref="A1:AY70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,22 +1305,25 @@
       <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D2">
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F2">
         <v>79</v>
@@ -1332,7 +1338,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K2">
         <v>31672</v>
@@ -1341,19 +1347,22 @@
         <v>4352</v>
       </c>
       <c r="M2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N2">
         <v>31672</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Q2">
+        <v>1996</v>
       </c>
       <c r="R2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S2">
         <v>28</v>
@@ -1362,10 +1371,10 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="W2">
         <v>79</v>
@@ -1443,30 +1452,33 @@
         <v>26.4</v>
       </c>
       <c r="AV2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AW2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX2" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY2">
+        <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F3">
         <v>73</v>
@@ -1481,7 +1493,7 @@
         <v>0.915</v>
       </c>
       <c r="J3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K3">
         <v>30764</v>
@@ -1490,19 +1502,22 @@
         <v>4417</v>
       </c>
       <c r="M3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N3">
         <v>30764</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Q3">
+        <v>1995</v>
       </c>
       <c r="R3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S3">
         <v>28</v>
@@ -1511,10 +1526,10 @@
         <v>7</v>
       </c>
       <c r="U3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W3">
         <v>66</v>
@@ -1592,30 +1607,33 @@
         <v>33.1</v>
       </c>
       <c r="AV3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AW3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX3" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY3">
+        <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D4">
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F4">
         <v>65</v>
@@ -1630,7 +1648,7 @@
         <v>0.875</v>
       </c>
       <c r="J4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K4">
         <v>30247</v>
@@ -1639,19 +1657,22 @@
         <v>4352</v>
       </c>
       <c r="M4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N4">
         <v>30247</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Q4">
+        <v>1996</v>
       </c>
       <c r="R4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S4">
         <v>26</v>
@@ -1660,10 +1681,10 @@
         <v>7</v>
       </c>
       <c r="U4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="W4">
         <v>74</v>
@@ -1741,30 +1762,33 @@
         <v>27.1</v>
       </c>
       <c r="AV4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX4" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY4">
+        <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F5">
         <v>91</v>
@@ -1779,7 +1803,7 @@
         <v>0.961</v>
       </c>
       <c r="J5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K5">
         <v>29456</v>
@@ -1788,19 +1812,22 @@
         <v>4352</v>
       </c>
       <c r="M5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N5">
         <v>29456</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Q5">
+        <v>1996</v>
       </c>
       <c r="R5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S5">
         <v>25</v>
@@ -1809,10 +1836,10 @@
         <v>6</v>
       </c>
       <c r="U5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="W5">
         <v>72</v>
@@ -1890,30 +1917,33 @@
         <v>26.4</v>
       </c>
       <c r="AV5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AW5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX5" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY5">
+        <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D6">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F6">
         <v>85</v>
@@ -1928,7 +1958,7 @@
         <v>0.952</v>
       </c>
       <c r="J6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K6">
         <v>28507</v>
@@ -1937,19 +1967,22 @@
         <v>4164</v>
       </c>
       <c r="M6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N6">
         <v>28507</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Q6">
+        <v>1995</v>
       </c>
       <c r="R6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S6">
         <v>25</v>
@@ -1958,10 +1991,10 @@
         <v>7</v>
       </c>
       <c r="U6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W6">
         <v>63</v>
@@ -2039,30 +2072,33 @@
         <v>29.5</v>
       </c>
       <c r="AV6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AW6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX6" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY6">
+        <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D7">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F7">
         <v>78</v>
@@ -2077,7 +2113,7 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="J7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K7">
         <v>27809</v>
@@ -2086,19 +2122,22 @@
         <v>4164</v>
       </c>
       <c r="M7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N7">
         <v>27809</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Q7">
+        <v>1995</v>
       </c>
       <c r="R7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S7">
         <v>24</v>
@@ -2107,10 +2146,10 @@
         <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W7">
         <v>72</v>
@@ -2188,30 +2227,33 @@
         <v>27.7</v>
       </c>
       <c r="AV7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AW7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX7" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY7">
+        <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:51">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D8">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F8">
         <v>86</v>
@@ -2226,7 +2268,7 @@
         <v>0.955</v>
       </c>
       <c r="J8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K8">
         <v>27201</v>
@@ -2235,19 +2277,22 @@
         <v>3880</v>
       </c>
       <c r="M8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N8">
         <v>27201</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Q8">
+        <v>1990</v>
       </c>
       <c r="R8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S8">
         <v>28</v>
@@ -2256,10 +2301,10 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="W8">
         <v>72</v>
@@ -2337,30 +2382,33 @@
         <v>30.4</v>
       </c>
       <c r="AV8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AW8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX8" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY8">
+        <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:51">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D9">
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F9">
         <v>69</v>
@@ -2375,7 +2423,7 @@
         <v>0.879</v>
       </c>
       <c r="J9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K9">
         <v>26815</v>
@@ -2384,19 +2432,22 @@
         <v>3849</v>
       </c>
       <c r="M9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N9">
         <v>26815</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Q9">
+        <v>1989</v>
       </c>
       <c r="R9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S9">
         <v>28</v>
@@ -2405,10 +2456,10 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="W9">
         <v>81</v>
@@ -2486,30 +2537,33 @@
         <v>31.6</v>
       </c>
       <c r="AV9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AW9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX9" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="AY9">
+        <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:51">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D10">
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F10">
         <v>131</v>
@@ -2524,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K10">
         <v>26260</v>
@@ -2533,19 +2587,22 @@
         <v>3903</v>
       </c>
       <c r="M10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N10">
         <v>26260</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Q10">
+        <v>1989</v>
       </c>
       <c r="R10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S10">
         <v>27</v>
@@ -2554,10 +2611,10 @@
         <v>7</v>
       </c>
       <c r="U10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="W10">
         <v>79</v>
@@ -2635,30 +2692,33 @@
         <v>30.1</v>
       </c>
       <c r="AV10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AW10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX10" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY10">
+        <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:51">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D11">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -2673,7 +2733,7 @@
         <v>0.922</v>
       </c>
       <c r="J11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K11">
         <v>25662</v>
@@ -2682,19 +2742,22 @@
         <v>3903</v>
       </c>
       <c r="M11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N11">
         <v>25662</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Q11">
+        <v>1989</v>
       </c>
       <c r="R11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S11">
         <v>26</v>
@@ -2703,10 +2766,10 @@
         <v>6</v>
       </c>
       <c r="U11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="W11">
         <v>80</v>
@@ -2784,30 +2847,33 @@
         <v>23.8</v>
       </c>
       <c r="AV11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AW11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX11" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY11">
+        <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:51">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D12">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F12">
         <v>119</v>
@@ -2822,7 +2888,7 @@
         <v>0.986</v>
       </c>
       <c r="J12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K12">
         <v>24828</v>
@@ -2831,19 +2897,22 @@
         <v>3770</v>
       </c>
       <c r="M12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N12">
         <v>24828</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Q12">
+        <v>1989</v>
       </c>
       <c r="R12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S12">
         <v>25</v>
@@ -2852,10 +2921,10 @@
         <v>7</v>
       </c>
       <c r="U12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="W12">
         <v>81</v>
@@ -2933,30 +3002,33 @@
         <v>32</v>
       </c>
       <c r="AV12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AW12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX12" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY12">
+        <v>2014</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:51">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F13">
         <v>120</v>
@@ -2971,7 +3043,7 @@
         <v>0.998</v>
       </c>
       <c r="J13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K13">
         <v>24275</v>
@@ -2980,19 +3052,22 @@
         <v>3463</v>
       </c>
       <c r="M13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N13">
         <v>24275</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Q13">
+        <v>1985</v>
       </c>
       <c r="R13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S13">
         <v>28</v>
@@ -3001,10 +3076,10 @@
         <v>10</v>
       </c>
       <c r="U13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W13">
         <v>76</v>
@@ -3082,30 +3157,33 @@
         <v>26.8</v>
       </c>
       <c r="AV13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AW13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX13" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY13">
+        <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:51">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14">
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F14">
         <v>85</v>
@@ -3120,7 +3198,7 @@
         <v>0.888</v>
       </c>
       <c r="J14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K14">
         <v>23706</v>
@@ -3129,19 +3207,22 @@
         <v>3463</v>
       </c>
       <c r="M14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N14">
         <v>23706</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Q14">
+        <v>1985</v>
       </c>
       <c r="R14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S14">
         <v>27</v>
@@ -3150,10 +3231,10 @@
         <v>9</v>
       </c>
       <c r="U14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W14">
         <v>62</v>
@@ -3231,30 +3312,33 @@
         <v>27.1</v>
       </c>
       <c r="AV14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AW14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX14" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY14">
+        <v>2012</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:51">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D15">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F15">
         <v>113</v>
@@ -3269,7 +3353,7 @@
         <v>0.977</v>
       </c>
       <c r="J15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K15">
         <v>22905</v>
@@ -3278,19 +3362,22 @@
         <v>3812</v>
       </c>
       <c r="M15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N15">
         <v>22905</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Q15">
+        <v>1989</v>
       </c>
       <c r="R15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S15">
         <v>22</v>
@@ -3299,10 +3386,10 @@
         <v>3</v>
       </c>
       <c r="U15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="W15">
         <v>81</v>
@@ -3380,30 +3467,33 @@
         <v>25</v>
       </c>
       <c r="AV15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AW15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX15" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY15">
+        <v>2011</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:51">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D16">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F16">
         <v>116</v>
@@ -3418,7 +3508,7 @@
         <v>0.98</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K16">
         <v>22500</v>
@@ -3427,19 +3517,22 @@
         <v>3463</v>
       </c>
       <c r="M16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N16">
         <v>22500</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Q16">
+        <v>1985</v>
       </c>
       <c r="R16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S16">
         <v>25</v>
@@ -3448,10 +3541,10 @@
         <v>7</v>
       </c>
       <c r="U16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="W16">
         <v>76</v>
@@ -3529,30 +3622,33 @@
         <v>29.7</v>
       </c>
       <c r="AV16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AW16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX16" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY16">
+        <v>2010</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:51">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D17">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F17">
         <v>109</v>
@@ -3567,7 +3663,7 @@
         <v>0.969</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K17">
         <v>21909</v>
@@ -3576,19 +3672,22 @@
         <v>3463</v>
       </c>
       <c r="M17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17">
         <v>21909</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Q17">
+        <v>1985</v>
       </c>
       <c r="R17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S17">
         <v>24</v>
@@ -3597,10 +3696,10 @@
         <v>6</v>
       </c>
       <c r="U17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="W17">
         <v>81</v>
@@ -3678,30 +3777,33 @@
         <v>28.4</v>
       </c>
       <c r="AV17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AW17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX17" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY17">
+        <v>2009</v>
       </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:51">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D18">
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F18">
         <v>82</v>
@@ -3716,7 +3818,7 @@
         <v>0.873</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K18">
         <v>21299</v>
@@ -3725,19 +3827,22 @@
         <v>3000</v>
       </c>
       <c r="M18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18">
         <v>21299</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Q18">
+        <v>1979</v>
       </c>
       <c r="R18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S18">
         <v>29</v>
@@ -3746,10 +3851,10 @@
         <v>12</v>
       </c>
       <c r="U18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W18">
         <v>82</v>
@@ -3827,30 +3932,33 @@
         <v>28.3</v>
       </c>
       <c r="AV18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AW18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX18" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY18">
+        <v>2008</v>
       </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:51">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D19">
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F19">
         <v>83</v>
@@ -3865,7 +3973,7 @@
         <v>0.882</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K19">
         <v>20603</v>
@@ -3874,19 +3982,22 @@
         <v>3116</v>
       </c>
       <c r="M19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19">
         <v>20603</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Q19">
+        <v>1979</v>
       </c>
       <c r="R19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S19">
         <v>28</v>
@@ -3895,10 +4006,10 @@
         <v>9</v>
       </c>
       <c r="U19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W19">
         <v>78</v>
@@ -3976,30 +4087,33 @@
         <v>24.6</v>
       </c>
       <c r="AV19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AW19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX19" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY19">
+        <v>2007</v>
       </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:51">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D20">
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F20">
         <v>57</v>
@@ -4014,7 +4128,7 @@
         <v>0.739</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K20">
         <v>20402</v>
@@ -4023,19 +4137,22 @@
         <v>3028</v>
       </c>
       <c r="M20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N20">
         <v>20402</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Q20">
+        <v>1975</v>
       </c>
       <c r="R20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S20">
         <v>31</v>
@@ -4044,10 +4161,10 @@
         <v>10</v>
       </c>
       <c r="U20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W20">
         <v>79</v>
@@ -4125,30 +4242,33 @@
         <v>18.8</v>
       </c>
       <c r="AV20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AW20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX20" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY20">
+        <v>2006</v>
       </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:51">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D21">
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F21">
         <v>65</v>
@@ -4163,7 +4283,7 @@
         <v>0.839</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K21">
         <v>19832</v>
@@ -4172,19 +4292,22 @@
         <v>3028</v>
       </c>
       <c r="M21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N21">
         <v>19832</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Q21">
+        <v>1975</v>
       </c>
       <c r="R21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S21">
         <v>30</v>
@@ -4193,10 +4316,10 @@
         <v>9</v>
       </c>
       <c r="U21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W21">
         <v>75</v>
@@ -4274,30 +4397,33 @@
         <v>15.5</v>
       </c>
       <c r="AV21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX21" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY21">
+        <v>2005</v>
       </c>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:51">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D22">
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F22">
         <v>120</v>
@@ -4312,7 +4438,7 @@
         <v>0.991</v>
       </c>
       <c r="J22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K22">
         <v>19036</v>
@@ -4321,19 +4447,22 @@
         <v>2936</v>
       </c>
       <c r="M22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N22">
         <v>19036</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Q22">
+        <v>1977</v>
       </c>
       <c r="R22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S22">
         <v>27</v>
@@ -4342,10 +4471,10 @@
         <v>9</v>
       </c>
       <c r="U22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W22">
         <v>82</v>
@@ -4423,30 +4552,33 @@
         <v>24.2</v>
       </c>
       <c r="AV22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AW22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX22" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY22">
+        <v>2004</v>
       </c>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:51">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D23">
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F23">
         <v>60</v>
@@ -4461,7 +4593,7 @@
         <v>0.8080000000000001</v>
       </c>
       <c r="J23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K23">
         <v>18688</v>
@@ -4470,19 +4602,22 @@
         <v>3092</v>
       </c>
       <c r="M23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N23">
         <v>18688</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Q23">
+        <v>1977</v>
       </c>
       <c r="R23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S23">
         <v>26</v>
@@ -4491,10 +4626,10 @@
         <v>6</v>
       </c>
       <c r="U23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W23">
         <v>81</v>
@@ -4572,30 +4707,33 @@
         <v>23.3</v>
       </c>
       <c r="AV23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AW23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX23" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY23">
+        <v>2003</v>
       </c>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:51">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D24">
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F24">
         <v>57</v>
@@ -4610,7 +4748,7 @@
         <v>0.757</v>
       </c>
       <c r="J24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K24">
         <v>18196</v>
@@ -4619,19 +4757,22 @@
         <v>3092</v>
       </c>
       <c r="M24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N24">
         <v>18196</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Q24">
+        <v>1977</v>
       </c>
       <c r="R24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S24">
         <v>25</v>
@@ -4640,10 +4781,10 @@
         <v>5</v>
       </c>
       <c r="U24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W24">
         <v>82</v>
@@ -4721,30 +4862,33 @@
         <v>25.5</v>
       </c>
       <c r="AV24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AW24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX24" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY24">
+        <v>2002</v>
       </c>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:51">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D25">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F25">
         <v>93</v>
@@ -4759,7 +4903,7 @@
         <v>0.904</v>
       </c>
       <c r="J25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K25">
         <v>17220</v>
@@ -4768,19 +4912,22 @@
         <v>2967</v>
       </c>
       <c r="M25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N25">
         <v>17220</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="Q25">
+        <v>1976</v>
       </c>
       <c r="R25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S25">
         <v>25</v>
@@ -4789,10 +4936,10 @@
         <v>5</v>
       </c>
       <c r="U25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W25">
         <v>71</v>
@@ -4870,30 +5017,33 @@
         <v>31.1</v>
       </c>
       <c r="AV25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AW25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX25" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY25">
+        <v>2001</v>
       </c>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:51">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D26">
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F26">
         <v>120</v>
@@ -4908,7 +5058,7 @@
         <v>0.998</v>
       </c>
       <c r="J26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K26">
         <v>17142</v>
@@ -4917,19 +5067,22 @@
         <v>2751</v>
       </c>
       <c r="M26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N26">
         <v>17142</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Q26">
+        <v>1973</v>
       </c>
       <c r="R26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S26">
         <v>27</v>
@@ -4938,10 +5091,10 @@
         <v>8</v>
       </c>
       <c r="U26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W26">
         <v>79</v>
@@ -5019,30 +5172,33 @@
         <v>29.7</v>
       </c>
       <c r="AV26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AW26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX26" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY26">
+        <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:51">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D27">
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F27">
         <v>44</v>
@@ -5057,7 +5213,7 @@
         <v>0.701</v>
       </c>
       <c r="J27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K27">
         <v>16488</v>
@@ -5066,19 +5222,22 @@
         <v>2252</v>
       </c>
       <c r="M27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N27">
         <v>16488</v>
       </c>
       <c r="O27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Q27">
+        <v>1964</v>
       </c>
       <c r="R27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S27">
         <v>35</v>
@@ -5087,10 +5246,10 @@
         <v>14</v>
       </c>
       <c r="U27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="W27">
         <v>49</v>
@@ -5168,30 +5327,33 @@
         <v>23.8</v>
       </c>
       <c r="AV27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AW27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX27" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY27">
+        <v>1999</v>
       </c>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:51">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D28">
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F28">
         <v>92</v>
@@ -5206,7 +5368,7 @@
         <v>0.9340000000000001</v>
       </c>
       <c r="J28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K28">
         <v>16041</v>
@@ -5215,19 +5377,22 @@
         <v>2193</v>
       </c>
       <c r="M28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N28">
         <v>16041</v>
       </c>
       <c r="O28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Q28">
+        <v>1964</v>
       </c>
       <c r="R28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S28">
         <v>34</v>
@@ -5236,10 +5401,10 @@
         <v>13</v>
       </c>
       <c r="U28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="W28">
         <v>82</v>
@@ -5317,30 +5482,33 @@
         <v>28.7</v>
       </c>
       <c r="AV28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AW28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX28" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY28">
+        <v>1998</v>
       </c>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:51">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D29">
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F29">
         <v>63</v>
@@ -5355,7 +5523,7 @@
         <v>0.857</v>
       </c>
       <c r="J29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K29">
         <v>15398</v>
@@ -5364,19 +5532,22 @@
         <v>2252</v>
       </c>
       <c r="M29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N29">
         <v>15398</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Q29">
+        <v>1964</v>
       </c>
       <c r="R29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S29">
         <v>33</v>
@@ -5385,10 +5556,10 @@
         <v>12</v>
       </c>
       <c r="U29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="W29">
         <v>82</v>
@@ -5466,30 +5637,33 @@
         <v>27.4</v>
       </c>
       <c r="AV29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AW29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX29" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY29">
+        <v>1997</v>
       </c>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:51">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D30">
         <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F30">
         <v>109</v>
@@ -5504,7 +5678,7 @@
         <v>0.986</v>
       </c>
       <c r="J30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K30">
         <v>14913</v>
@@ -5513,19 +5687,22 @@
         <v>2193</v>
       </c>
       <c r="M30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N30">
         <v>14913</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Q30">
+        <v>1964</v>
       </c>
       <c r="R30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S30">
         <v>32</v>
@@ -5534,10 +5711,10 @@
         <v>11</v>
       </c>
       <c r="U30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="W30">
         <v>82</v>
@@ -5615,30 +5792,33 @@
         <v>30.4</v>
       </c>
       <c r="AV30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AW30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX30" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY30">
+        <v>1996</v>
       </c>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:51">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F31">
         <v>73</v>
@@ -5653,7 +5833,7 @@
         <v>0.858</v>
       </c>
       <c r="J31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K31">
         <v>14193</v>
@@ -5662,19 +5842,22 @@
         <v>2494</v>
       </c>
       <c r="M31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N31">
         <v>14193</v>
       </c>
       <c r="O31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Q31">
+        <v>1966</v>
       </c>
       <c r="R31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S31">
         <v>29</v>
@@ -5683,10 +5866,10 @@
         <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W31">
         <v>81</v>
@@ -5764,30 +5947,33 @@
         <v>27.6</v>
       </c>
       <c r="AV31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AW31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX31" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY31">
+        <v>1995</v>
       </c>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:51">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F32">
         <v>66</v>
@@ -5802,7 +5988,7 @@
         <v>0.88</v>
       </c>
       <c r="J32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K32">
         <v>13792</v>
@@ -5811,19 +5997,22 @@
         <v>2176</v>
       </c>
       <c r="M32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N32">
         <v>13792</v>
       </c>
       <c r="O32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Q32">
+        <v>1963</v>
       </c>
       <c r="R32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S32">
         <v>31</v>
@@ -5832,10 +6021,10 @@
         <v>10</v>
       </c>
       <c r="U32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="W32">
         <v>80</v>
@@ -5913,30 +6102,33 @@
         <v>27.3</v>
       </c>
       <c r="AV32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AW32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX32" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY32">
+        <v>1994</v>
       </c>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:51">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D33">
         <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F33">
         <v>59</v>
@@ -5951,7 +6143,7 @@
         <v>0.852</v>
       </c>
       <c r="J33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K33">
         <v>13223</v>
@@ -5960,19 +6152,22 @@
         <v>2162</v>
       </c>
       <c r="M33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N33">
         <v>13223</v>
       </c>
       <c r="O33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Q33">
+        <v>1964</v>
       </c>
       <c r="R33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S33">
         <v>29</v>
@@ -5981,10 +6176,10 @@
         <v>9</v>
       </c>
       <c r="U33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W33">
         <v>76</v>
@@ -6062,30 +6257,33 @@
         <v>25.6</v>
       </c>
       <c r="AV33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AW33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX33" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY33">
+        <v>1993</v>
       </c>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:51">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D34">
         <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F34">
         <v>80</v>
@@ -6100,7 +6298,7 @@
         <v>0.9379999999999999</v>
       </c>
       <c r="J34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K34">
         <v>12990</v>
@@ -6109,19 +6307,22 @@
         <v>2193</v>
       </c>
       <c r="M34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N34">
         <v>12990</v>
       </c>
       <c r="O34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Q34">
+        <v>1964</v>
       </c>
       <c r="R34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S34">
         <v>28</v>
@@ -6130,10 +6331,10 @@
         <v>8</v>
       </c>
       <c r="U34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="W34">
         <v>80</v>
@@ -6211,30 +6412,33 @@
         <v>30.1</v>
       </c>
       <c r="AV34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AW34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX34" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY34">
+        <v>1992</v>
       </c>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:51">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D35">
         <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F35">
         <v>77</v>
@@ -6249,7 +6453,7 @@
         <v>0.928</v>
       </c>
       <c r="J35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K35">
         <v>12543</v>
@@ -6258,19 +6462,22 @@
         <v>2193</v>
       </c>
       <c r="M35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N35">
         <v>12543</v>
       </c>
       <c r="O35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Q35">
+        <v>1964</v>
       </c>
       <c r="R35" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S35">
         <v>27</v>
@@ -6279,10 +6486,10 @@
         <v>7</v>
       </c>
       <c r="U35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="W35">
         <v>82</v>
@@ -6360,30 +6567,33 @@
         <v>31.5</v>
       </c>
       <c r="AV35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AW35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX35" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY35">
+        <v>1991</v>
       </c>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:51">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D36">
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F36">
         <v>27</v>
@@ -6398,7 +6608,7 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="J36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K36">
         <v>12055</v>
@@ -6407,19 +6617,22 @@
         <v>1878</v>
       </c>
       <c r="M36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N36">
         <v>12055</v>
       </c>
       <c r="O36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Q36">
+        <v>1960</v>
       </c>
       <c r="R36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S36">
         <v>30</v>
@@ -6428,10 +6641,10 @@
         <v>11</v>
       </c>
       <c r="U36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W36">
         <v>79</v>
@@ -6509,30 +6722,33 @@
         <v>22.3</v>
       </c>
       <c r="AV36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AW36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX36" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY36">
+        <v>1990</v>
       </c>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:51">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D37">
         <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F37">
         <v>42.5</v>
@@ -6547,7 +6763,7 @@
         <v>0.782</v>
       </c>
       <c r="J37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K37">
         <v>11623</v>
@@ -6556,19 +6772,22 @@
         <v>1878</v>
       </c>
       <c r="M37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N37">
         <v>11623</v>
       </c>
       <c r="O37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Q37">
+        <v>1960</v>
       </c>
       <c r="R37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S37">
         <v>29</v>
@@ -6577,10 +6796,10 @@
         <v>10</v>
       </c>
       <c r="U37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W37">
         <v>77</v>
@@ -6658,30 +6877,33 @@
         <v>22.5</v>
       </c>
       <c r="AV37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AW37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX37" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY37">
+        <v>1989</v>
       </c>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:51">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D38">
         <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F38">
         <v>47</v>
@@ -6696,7 +6918,7 @@
         <v>0.831</v>
       </c>
       <c r="J38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K38">
         <v>11208</v>
@@ -6705,19 +6927,22 @@
         <v>2193</v>
       </c>
       <c r="M38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N38">
         <v>11208</v>
       </c>
       <c r="O38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Q38">
+        <v>1964</v>
       </c>
       <c r="R38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S38">
         <v>24</v>
@@ -6726,10 +6951,10 @@
         <v>4</v>
       </c>
       <c r="U38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="W38">
         <v>82</v>
@@ -6807,30 +7032,33 @@
         <v>35</v>
       </c>
       <c r="AV38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AW38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX38" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY38">
+        <v>1988</v>
       </c>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:51">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D39">
         <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F39">
         <v>65</v>
@@ -6845,7 +7073,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="J39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K39">
         <v>10791</v>
@@ -6854,19 +7082,22 @@
         <v>1878</v>
       </c>
       <c r="M39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N39">
         <v>10791</v>
       </c>
       <c r="O39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Q39">
+        <v>1960</v>
       </c>
       <c r="R39" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S39">
         <v>27</v>
@@ -6875,10 +7106,10 @@
         <v>8</v>
       </c>
       <c r="U39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W39">
         <v>80</v>
@@ -6956,30 +7187,33 @@
         <v>23.9</v>
       </c>
       <c r="AV39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AW39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX39" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY39">
+        <v>1987</v>
       </c>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:51">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D40">
         <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F40">
         <v>73</v>
@@ -6994,7 +7228,7 @@
         <v>0.981</v>
       </c>
       <c r="J40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K40">
         <v>10392</v>
@@ -7003,19 +7237,22 @@
         <v>1875</v>
       </c>
       <c r="M40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N40">
         <v>10392</v>
       </c>
       <c r="O40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="Q40">
+        <v>1957</v>
       </c>
       <c r="R40" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S40">
         <v>29</v>
@@ -7024,10 +7261,10 @@
         <v>7</v>
       </c>
       <c r="U40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W40">
         <v>82</v>
@@ -7105,30 +7342,33 @@
         <v>25.8</v>
       </c>
       <c r="AV40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AW40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX40" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY40">
+        <v>1986</v>
       </c>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:51">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D41">
         <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F41">
         <v>73</v>
@@ -7143,7 +7383,7 @@
         <v>0.978</v>
       </c>
       <c r="J41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K41">
         <v>10015</v>
@@ -7152,19 +7392,22 @@
         <v>1875</v>
       </c>
       <c r="M41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N41">
         <v>10015</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="Q41">
+        <v>1957</v>
       </c>
       <c r="R41" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S41">
         <v>28</v>
@@ -7173,10 +7416,10 @@
         <v>6</v>
       </c>
       <c r="U41" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W41">
         <v>80</v>
@@ -7254,30 +7497,33 @@
         <v>28.7</v>
       </c>
       <c r="AV41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AW41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX41" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY41">
+        <v>1985</v>
       </c>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:51">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D42">
         <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F42">
         <v>52</v>
@@ -7292,7 +7538,7 @@
         <v>0.858</v>
       </c>
       <c r="J42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K42">
         <v>9662</v>
@@ -7301,19 +7547,22 @@
         <v>1875</v>
       </c>
       <c r="M42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N42">
         <v>9662</v>
       </c>
       <c r="O42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="Q42">
+        <v>1957</v>
       </c>
       <c r="R42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S42">
         <v>27</v>
@@ -7322,10 +7571,10 @@
         <v>5</v>
       </c>
       <c r="U42" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W42">
         <v>79</v>
@@ -7403,30 +7652,33 @@
         <v>24.2</v>
       </c>
       <c r="AV42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AW42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX42" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY42">
+        <v>1984</v>
       </c>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:51">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D43">
         <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F43">
         <v>69</v>
@@ -7441,7 +7693,7 @@
         <v>0.96</v>
       </c>
       <c r="J43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K43">
         <v>9355</v>
@@ -7450,22 +7702,22 @@
         <v>1605</v>
       </c>
       <c r="M43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N43">
         <v>9355</v>
       </c>
       <c r="O43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q43">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="R43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S43">
         <v>27</v>
@@ -7474,10 +7726,10 @@
         <v>9</v>
       </c>
       <c r="U43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W43">
         <v>78</v>
@@ -7555,30 +7807,33 @@
         <v>24.5</v>
       </c>
       <c r="AV43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AW43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX43" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY43">
+        <v>1983</v>
       </c>
     </row>
-    <row r="44" spans="1:50">
+    <row r="44" spans="1:51">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D44">
         <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F44">
         <v>40</v>
@@ -7593,7 +7848,7 @@
         <v>0.735</v>
       </c>
       <c r="J44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K44">
         <v>8978</v>
@@ -7602,22 +7857,22 @@
         <v>1605</v>
       </c>
       <c r="M44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N44">
         <v>8978</v>
       </c>
       <c r="O44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q44">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="R44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S44">
         <v>26</v>
@@ -7626,10 +7881,10 @@
         <v>8</v>
       </c>
       <c r="U44" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="W44">
         <v>81</v>
@@ -7707,30 +7962,33 @@
         <v>31.1</v>
       </c>
       <c r="AV44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AW44" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX44" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY44">
+        <v>1982</v>
       </c>
     </row>
-    <row r="45" spans="1:50">
+    <row r="45" spans="1:51">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45">
         <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F45">
         <v>28</v>
@@ -7745,7 +8003,7 @@
         <v>0.658</v>
       </c>
       <c r="J45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K45">
         <v>8533</v>
@@ -7754,22 +8012,22 @@
         <v>1381</v>
       </c>
       <c r="M45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N45">
         <v>8533</v>
       </c>
       <c r="O45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q45">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="R45" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S45">
         <v>30</v>
@@ -7778,10 +8036,10 @@
         <v>10</v>
       </c>
       <c r="U45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W45">
         <v>82</v>
@@ -7859,30 +8117,33 @@
         <v>24.6</v>
       </c>
       <c r="AV45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AW45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX45" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY45">
+        <v>1981</v>
       </c>
     </row>
-    <row r="46" spans="1:50">
+    <row r="46" spans="1:51">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46">
         <v>32</v>
       </c>
       <c r="E46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F46">
         <v>147</v>
@@ -7897,7 +8158,7 @@
         <v>0.665</v>
       </c>
       <c r="J46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K46">
         <v>8178</v>
@@ -7906,19 +8167,22 @@
         <v>1204</v>
       </c>
       <c r="M46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N46">
         <v>8178</v>
       </c>
       <c r="O46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Q46">
+        <v>1948</v>
       </c>
       <c r="R46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S46">
         <v>32</v>
@@ -7927,10 +8191,10 @@
         <v>11</v>
       </c>
       <c r="U46" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W46">
         <v>82</v>
@@ -8005,30 +8269,33 @@
         <v>24.8</v>
       </c>
       <c r="AV46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AW46" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX46" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY46">
+        <v>1980</v>
       </c>
     </row>
-    <row r="47" spans="1:50">
+    <row r="47" spans="1:51">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47">
         <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F47">
         <v>112</v>
@@ -8043,7 +8310,7 @@
         <v>0.502</v>
       </c>
       <c r="J47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K47">
         <v>7877</v>
@@ -8052,22 +8319,22 @@
         <v>1605</v>
       </c>
       <c r="M47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N47">
         <v>7877</v>
       </c>
       <c r="O47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q47">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="R47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S47">
         <v>23</v>
@@ -8076,10 +8343,10 @@
         <v>5</v>
       </c>
       <c r="U47" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="W47">
         <v>82</v>
@@ -8148,30 +8415,33 @@
         <v>24.8</v>
       </c>
       <c r="AV47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AW47" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX47" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY47">
+        <v>1979</v>
       </c>
     </row>
-    <row r="48" spans="1:50">
+    <row r="48" spans="1:51">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48">
         <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F48">
         <v>96</v>
@@ -8186,7 +8456,7 @@
         <v>0.403</v>
       </c>
       <c r="J48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K48">
         <v>7296</v>
@@ -8195,19 +8465,22 @@
         <v>1556</v>
       </c>
       <c r="M48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N48">
         <v>7296</v>
       </c>
       <c r="O48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P48" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Q48">
+        <v>1953</v>
       </c>
       <c r="R48" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S48">
         <v>25</v>
@@ -8216,10 +8489,10 @@
         <v>4</v>
       </c>
       <c r="U48" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="W48">
         <v>58</v>
@@ -8288,30 +8561,33 @@
         <v>18.9</v>
       </c>
       <c r="AV48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AW48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX48" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY48">
+        <v>1978</v>
       </c>
     </row>
-    <row r="49" spans="1:50">
+    <row r="49" spans="1:51">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49">
         <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F49">
         <v>159</v>
@@ -8326,7 +8602,7 @@
         <v>0.644</v>
       </c>
       <c r="J49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K49">
         <v>7112</v>
@@ -8335,19 +8611,22 @@
         <v>1204</v>
       </c>
       <c r="M49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N49">
         <v>7112</v>
       </c>
       <c r="O49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P49" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Q49">
+        <v>1948</v>
       </c>
       <c r="R49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S49">
         <v>29</v>
@@ -8356,10 +8635,10 @@
         <v>8</v>
       </c>
       <c r="U49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W49">
         <v>82</v>
@@ -8425,30 +8704,33 @@
         <v>26.2</v>
       </c>
       <c r="AV49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AW49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX49" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY49">
+        <v>1977</v>
       </c>
     </row>
-    <row r="50" spans="1:50">
+    <row r="50" spans="1:51">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50">
         <v>28</v>
       </c>
       <c r="E50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F50">
         <v>52</v>
@@ -8463,7 +8745,7 @@
         <v>0.442</v>
       </c>
       <c r="J50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K50">
         <v>6729</v>
@@ -8472,19 +8754,22 @@
         <v>1204</v>
       </c>
       <c r="M50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N50">
         <v>6729</v>
       </c>
       <c r="O50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P50" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Q50">
+        <v>1948</v>
       </c>
       <c r="R50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S50">
         <v>28</v>
@@ -8493,10 +8778,10 @@
         <v>7</v>
       </c>
       <c r="U50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W50">
         <v>82</v>
@@ -8562,30 +8847,33 @@
         <v>27.7</v>
       </c>
       <c r="AV50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AW50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX50" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY50">
+        <v>1976</v>
       </c>
     </row>
-    <row r="51" spans="1:50">
+    <row r="51" spans="1:51">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51">
         <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F51">
         <v>81</v>
@@ -8600,7 +8888,7 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="J51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K51">
         <v>6104</v>
@@ -8609,19 +8897,22 @@
         <v>1424</v>
       </c>
       <c r="M51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N51">
         <v>6104</v>
       </c>
       <c r="O51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P51" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Q51">
+        <v>1952</v>
       </c>
       <c r="R51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S51">
         <v>23</v>
@@ -8630,10 +8921,10 @@
         <v>3</v>
       </c>
       <c r="U51" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="W51">
         <v>82</v>
@@ -8699,30 +8990,33 @@
         <v>34.5</v>
       </c>
       <c r="AV51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AW51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX51" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY51">
+        <v>1975</v>
       </c>
     </row>
-    <row r="52" spans="1:50">
+    <row r="52" spans="1:51">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D52">
         <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F52">
         <v>74</v>
@@ -8737,7 +9031,7 @@
         <v>0.583</v>
       </c>
       <c r="J52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K52">
         <v>5882</v>
@@ -8746,19 +9040,22 @@
         <v>1204</v>
       </c>
       <c r="M52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N52">
         <v>5882</v>
       </c>
       <c r="O52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P52" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Q52">
+        <v>1948</v>
       </c>
       <c r="R52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S52">
         <v>26</v>
@@ -8767,10 +9064,10 @@
         <v>5</v>
       </c>
       <c r="U52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W52">
         <v>81</v>
@@ -8836,30 +9133,33 @@
         <v>27</v>
       </c>
       <c r="AV52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AW52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX52" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY52">
+        <v>1974</v>
       </c>
     </row>
-    <row r="53" spans="1:50">
+    <row r="53" spans="1:51">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D53">
         <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F53">
         <v>67</v>
@@ -8874,7 +9174,7 @@
         <v>0.507</v>
       </c>
       <c r="J53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K53">
         <v>5316</v>
@@ -8883,19 +9183,22 @@
         <v>1260</v>
       </c>
       <c r="M53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N53">
         <v>5316</v>
       </c>
       <c r="O53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P53" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Q53">
+        <v>1949</v>
       </c>
       <c r="R53" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S53">
         <v>24</v>
@@ -8904,10 +9207,10 @@
         <v>3</v>
       </c>
       <c r="U53" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W53">
         <v>82</v>
@@ -8955,10 +9258,10 @@
         <v>4.1</v>
       </c>
       <c r="AQ53" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR53" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT53">
         <v>3.8</v>
@@ -8967,30 +9270,33 @@
         <v>20.5</v>
       </c>
       <c r="AV53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AW53" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX53" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY53">
+        <v>1973</v>
       </c>
     </row>
-    <row r="54" spans="1:50">
+    <row r="54" spans="1:51">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D54">
         <v>24</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F54">
         <v>81</v>
@@ -9005,7 +9311,7 @@
         <v>0.646</v>
       </c>
       <c r="J54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K54">
         <v>5043</v>
@@ -9014,19 +9320,22 @@
         <v>1204</v>
       </c>
       <c r="M54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N54">
         <v>5043</v>
       </c>
       <c r="O54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P54" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Q54">
+        <v>1948</v>
       </c>
       <c r="R54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S54">
         <v>24</v>
@@ -9035,10 +9344,10 @@
         <v>3</v>
       </c>
       <c r="U54" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W54">
         <v>81</v>
@@ -9086,10 +9395,10 @@
         <v>4.6</v>
       </c>
       <c r="AQ54" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR54" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT54">
         <v>2.9</v>
@@ -9098,30 +9407,33 @@
         <v>34.8</v>
       </c>
       <c r="AV54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AW54" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX54" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY54">
+        <v>1972</v>
       </c>
     </row>
-    <row r="55" spans="1:50">
+    <row r="55" spans="1:51">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D55">
         <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F55">
         <v>133</v>
@@ -9136,7 +9448,7 @@
         <v>0.895</v>
       </c>
       <c r="J55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K55">
         <v>4581</v>
@@ -9145,19 +9457,22 @@
         <v>1204</v>
       </c>
       <c r="M55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N55">
         <v>4581</v>
       </c>
       <c r="O55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Q55">
+        <v>1948</v>
       </c>
       <c r="R55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S55">
         <v>23</v>
@@ -9166,10 +9481,10 @@
         <v>2</v>
       </c>
       <c r="U55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W55">
         <v>82</v>
@@ -9217,10 +9532,10 @@
         <v>3.3</v>
       </c>
       <c r="AQ55" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR55" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT55">
         <v>3.2</v>
@@ -9229,30 +9544,33 @@
         <v>31.7</v>
       </c>
       <c r="AV55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AW55" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX55" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY55">
+        <v>1971</v>
       </c>
     </row>
-    <row r="56" spans="1:50">
+    <row r="56" spans="1:51">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D56">
         <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F56">
         <v>61</v>
@@ -9267,7 +9585,7 @@
         <v>0.643</v>
       </c>
       <c r="J56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K56">
         <v>4311</v>
@@ -9276,19 +9594,22 @@
         <v>839</v>
       </c>
       <c r="M56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N56">
         <v>4311</v>
       </c>
       <c r="O56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P56" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Q56">
+        <v>1943</v>
       </c>
       <c r="R56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S56">
         <v>27</v>
@@ -9297,10 +9618,10 @@
         <v>6</v>
       </c>
       <c r="U56" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="W56">
         <v>81</v>
@@ -9348,10 +9669,10 @@
         <v>2</v>
       </c>
       <c r="AQ56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT56">
         <v>3.5</v>
@@ -9360,30 +9681,33 @@
         <v>21.7</v>
       </c>
       <c r="AV56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AW56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX56" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY56">
+        <v>1970</v>
       </c>
     </row>
-    <row r="57" spans="1:50">
+    <row r="57" spans="1:51">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D57">
         <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F57">
         <v>53</v>
@@ -9398,7 +9722,7 @@
         <v>0.602</v>
       </c>
       <c r="J57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K57">
         <v>3888</v>
@@ -9407,19 +9731,22 @@
         <v>1155</v>
       </c>
       <c r="M57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N57">
         <v>3888</v>
       </c>
       <c r="O57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P57" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Q57">
+        <v>1947</v>
       </c>
       <c r="R57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S57">
         <v>22</v>
@@ -9428,10 +9755,10 @@
         <v>1</v>
       </c>
       <c r="U57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="W57">
         <v>82</v>
@@ -9479,10 +9806,10 @@
         <v>2.6</v>
       </c>
       <c r="AQ57" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR57" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT57">
         <v>3.4</v>
@@ -9491,30 +9818,33 @@
         <v>13.8</v>
       </c>
       <c r="AV57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AW57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX57" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY57">
+        <v>1969</v>
       </c>
     </row>
-    <row r="58" spans="1:50">
+    <row r="58" spans="1:51">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D58">
         <v>31</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F58">
         <v>88</v>
@@ -9529,7 +9859,7 @@
         <v>0.725</v>
       </c>
       <c r="J58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K58">
         <v>3485</v>
@@ -9538,19 +9868,22 @@
         <v>699</v>
       </c>
       <c r="M58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N58">
         <v>3485</v>
       </c>
       <c r="O58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P58" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Q58">
+        <v>1937</v>
       </c>
       <c r="R58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S58">
         <v>31</v>
@@ -9559,10 +9892,10 @@
         <v>9</v>
       </c>
       <c r="U58" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W58">
         <v>82</v>
@@ -9610,10 +9943,10 @@
         <v>8.6</v>
       </c>
       <c r="AQ58" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR58" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT58">
         <v>2</v>
@@ -9622,30 +9955,33 @@
         <v>24.3</v>
       </c>
       <c r="AV58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AW58" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX58" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY58">
+        <v>1968</v>
       </c>
     </row>
-    <row r="59" spans="1:50">
+    <row r="59" spans="1:51">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D59">
         <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F59">
         <v>80</v>
@@ -9660,7 +9996,7 @@
         <v>0.822</v>
       </c>
       <c r="J59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K59">
         <v>3118</v>
@@ -9669,19 +10005,22 @@
         <v>699</v>
       </c>
       <c r="M59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N59">
         <v>3118</v>
       </c>
       <c r="O59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P59" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Q59">
+        <v>1937</v>
       </c>
       <c r="R59" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S59">
         <v>30</v>
@@ -9690,10 +10029,10 @@
         <v>8</v>
       </c>
       <c r="U59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W59">
         <v>81</v>
@@ -9741,10 +10080,10 @@
         <v>7.8</v>
       </c>
       <c r="AQ59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT59">
         <v>1.8</v>
@@ -9753,30 +10092,33 @@
         <v>24.1</v>
       </c>
       <c r="AV59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AW59" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX59" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY59">
+        <v>1967</v>
       </c>
     </row>
-    <row r="60" spans="1:50">
+    <row r="60" spans="1:51">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D60">
         <v>29</v>
       </c>
       <c r="E60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F60">
         <v>48</v>
@@ -9791,7 +10133,7 @@
         <v>0.407</v>
       </c>
       <c r="J60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K60">
         <v>2984</v>
@@ -9800,19 +10142,22 @@
         <v>699</v>
       </c>
       <c r="M60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N60">
         <v>2984</v>
       </c>
       <c r="O60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P60" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Q60">
+        <v>1937</v>
       </c>
       <c r="R60" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S60">
         <v>29</v>
@@ -9821,10 +10166,10 @@
         <v>7</v>
       </c>
       <c r="U60" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W60">
         <v>79</v>
@@ -9872,10 +10217,10 @@
         <v>5.2</v>
       </c>
       <c r="AQ60" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR60" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT60">
         <v>2.2</v>
@@ -9884,30 +10229,33 @@
         <v>33.5</v>
       </c>
       <c r="AV60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AW60" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX60" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY60">
+        <v>1966</v>
       </c>
     </row>
-    <row r="61" spans="1:50">
+    <row r="61" spans="1:51">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D61">
         <v>30</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F61">
         <v>53</v>
@@ -9922,7 +10270,7 @@
         <v>0.535</v>
       </c>
       <c r="J61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K61">
         <v>2735</v>
@@ -9931,19 +10279,22 @@
         <v>610</v>
       </c>
       <c r="M61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N61">
         <v>2735</v>
       </c>
       <c r="O61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P61" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Q61">
+        <v>1935</v>
       </c>
       <c r="R61" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S61">
         <v>30</v>
@@ -9952,10 +10303,10 @@
         <v>9</v>
       </c>
       <c r="U61" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W61">
         <v>78</v>
@@ -10003,10 +10354,10 @@
         <v>5.3</v>
       </c>
       <c r="AQ61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT61">
         <v>2.6</v>
@@ -10015,30 +10366,33 @@
         <v>14.1</v>
       </c>
       <c r="AV61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AW61" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX61" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY61">
+        <v>1965</v>
       </c>
     </row>
-    <row r="62" spans="1:50">
+    <row r="62" spans="1:51">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D62">
         <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F62">
         <v>60</v>
@@ -10053,7 +10407,7 @@
         <v>0.754</v>
       </c>
       <c r="J62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K62">
         <v>2689</v>
@@ -10062,19 +10416,22 @@
         <v>713</v>
       </c>
       <c r="M62" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N62">
         <v>2689</v>
       </c>
       <c r="O62" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P62" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="Q62">
+        <v>1939</v>
       </c>
       <c r="R62" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S62">
         <v>25</v>
@@ -10083,10 +10440,10 @@
         <v>4</v>
       </c>
       <c r="U62" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="W62">
         <v>79</v>
@@ -10134,10 +10491,10 @@
         <v>11</v>
       </c>
       <c r="AQ62" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR62" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT62">
         <v>3.5</v>
@@ -10146,30 +10503,33 @@
         <v>31.4</v>
       </c>
       <c r="AV62" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AW62" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX62" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY62">
+        <v>1964</v>
       </c>
     </row>
-    <row r="63" spans="1:50">
+    <row r="63" spans="1:51">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D63">
         <v>28</v>
       </c>
       <c r="E63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F63">
         <v>56</v>
@@ -10184,7 +10544,7 @@
         <v>0.675</v>
       </c>
       <c r="J63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K63">
         <v>2467</v>
@@ -10193,19 +10553,22 @@
         <v>610</v>
       </c>
       <c r="M63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N63">
         <v>2467</v>
       </c>
       <c r="O63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P63" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Q63">
+        <v>1935</v>
       </c>
       <c r="R63" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S63">
         <v>28</v>
@@ -10214,10 +10577,10 @@
         <v>7</v>
       </c>
       <c r="U63" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W63">
         <v>78</v>
@@ -10265,10 +10628,10 @@
         <v>4.5</v>
       </c>
       <c r="AQ63" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR63" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT63">
         <v>2.4</v>
@@ -10277,30 +10640,33 @@
         <v>16.8</v>
       </c>
       <c r="AV63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AW63" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX63" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY63">
+        <v>1963</v>
       </c>
     </row>
-    <row r="64" spans="1:50">
+    <row r="64" spans="1:51">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D64">
         <v>27</v>
       </c>
       <c r="E64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F64">
         <v>51</v>
@@ -10315,7 +10681,7 @@
         <v>0.699</v>
       </c>
       <c r="J64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K64">
         <v>2332</v>
@@ -10324,19 +10690,22 @@
         <v>610</v>
       </c>
       <c r="M64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N64">
         <v>2332</v>
       </c>
       <c r="O64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P64" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Q64">
+        <v>1935</v>
       </c>
       <c r="R64" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S64">
         <v>27</v>
@@ -10345,10 +10714,10 @@
         <v>6</v>
       </c>
       <c r="U64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W64">
         <v>76</v>
@@ -10396,10 +10765,10 @@
         <v>4.5</v>
       </c>
       <c r="AQ64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT64">
         <v>2.7</v>
@@ -10408,30 +10777,33 @@
         <v>18.9</v>
       </c>
       <c r="AV64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AW64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX64" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY64">
+        <v>1962</v>
       </c>
     </row>
-    <row r="65" spans="1:50">
+    <row r="65" spans="1:51">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D65">
         <v>26</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F65">
         <v>35</v>
@@ -10446,7 +10818,7 @@
         <v>0.5610000000000001</v>
       </c>
       <c r="J65" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K65">
         <v>2219</v>
@@ -10455,19 +10827,22 @@
         <v>610</v>
       </c>
       <c r="M65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N65">
         <v>2219</v>
       </c>
       <c r="O65" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P65" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Q65">
+        <v>1935</v>
       </c>
       <c r="R65" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S65">
         <v>26</v>
@@ -10476,10 +10851,10 @@
         <v>5</v>
       </c>
       <c r="U65" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W65">
         <v>78</v>
@@ -10527,10 +10902,10 @@
         <v>3.4</v>
       </c>
       <c r="AQ65" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR65" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT65">
         <v>2</v>
@@ -10539,30 +10914,33 @@
         <v>16.9</v>
       </c>
       <c r="AV65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AW65" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX65" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY65">
+        <v>1961</v>
       </c>
     </row>
-    <row r="66" spans="1:50">
+    <row r="66" spans="1:51">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D66">
         <v>23</v>
       </c>
       <c r="E66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F66">
         <v>49</v>
@@ -10577,7 +10955,7 @@
         <v>0.6840000000000001</v>
       </c>
       <c r="J66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K66">
         <v>2209</v>
@@ -10586,19 +10964,22 @@
         <v>699</v>
       </c>
       <c r="M66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N66">
         <v>2209</v>
       </c>
       <c r="O66" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P66" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Q66">
+        <v>1937</v>
       </c>
       <c r="R66" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S66">
         <v>23</v>
@@ -10607,10 +10988,10 @@
         <v>1</v>
       </c>
       <c r="U66" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="W66">
         <v>72</v>
@@ -10658,10 +11039,10 @@
         <v>2.3</v>
       </c>
       <c r="AQ66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT66">
         <v>2.1</v>
@@ -10670,30 +11051,33 @@
         <v>37.6</v>
       </c>
       <c r="AV66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AW66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX66" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY66">
+        <v>1960</v>
       </c>
     </row>
-    <row r="67" spans="1:50">
+    <row r="67" spans="1:51">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D67">
         <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F67">
         <v>59</v>
@@ -10708,7 +11092,7 @@
         <v>0.773</v>
       </c>
       <c r="J67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K67">
         <v>1989</v>
@@ -10717,19 +11101,22 @@
         <v>549</v>
       </c>
       <c r="M67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N67">
         <v>1989</v>
       </c>
       <c r="O67" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Q67">
+        <v>1933</v>
       </c>
       <c r="R67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S67">
         <v>26</v>
@@ -10738,10 +11125,10 @@
         <v>5</v>
       </c>
       <c r="U67" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="W67">
         <v>72</v>
@@ -10789,10 +11176,10 @@
         <v>3.1</v>
       </c>
       <c r="AQ67" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR67" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT67">
         <v>2.8</v>
@@ -10801,30 +11188,33 @@
         <v>29.2</v>
       </c>
       <c r="AV67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AW67" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX67" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY67">
+        <v>1959</v>
       </c>
     </row>
-    <row r="68" spans="1:50">
+    <row r="68" spans="1:51">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D68">
         <v>23</v>
       </c>
       <c r="E68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F68">
         <v>33</v>
@@ -10839,7 +11229,7 @@
         <v>0.57</v>
       </c>
       <c r="J68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K68">
         <v>1875</v>
@@ -10848,19 +11238,22 @@
         <v>610</v>
       </c>
       <c r="M68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N68">
         <v>1875</v>
       </c>
       <c r="O68" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P68" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Q68">
+        <v>1935</v>
       </c>
       <c r="R68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S68">
         <v>23</v>
@@ -10869,10 +11262,10 @@
         <v>2</v>
       </c>
       <c r="U68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W68">
         <v>69</v>
@@ -10920,10 +11313,10 @@
         <v>2.9</v>
       </c>
       <c r="AQ68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT68">
         <v>2.6</v>
@@ -10932,30 +11325,33 @@
         <v>16.6</v>
       </c>
       <c r="AV68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AW68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX68" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY68">
+        <v>1958</v>
       </c>
     </row>
-    <row r="69" spans="1:50">
+    <row r="69" spans="1:51">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D69">
         <v>28</v>
       </c>
       <c r="E69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F69">
         <v>23</v>
@@ -10970,7 +11366,7 @@
         <v>0.288</v>
       </c>
       <c r="J69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K69">
         <v>1766</v>
@@ -10979,19 +11375,22 @@
         <v>420</v>
       </c>
       <c r="M69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N69">
         <v>1766</v>
       </c>
       <c r="O69" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P69" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Q69">
+        <v>1929</v>
       </c>
       <c r="R69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S69">
         <v>28</v>
@@ -11000,10 +11399,10 @@
         <v>7</v>
       </c>
       <c r="U69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W69">
         <v>64</v>
@@ -11051,10 +11450,10 @@
         <v>7.5</v>
       </c>
       <c r="AQ69" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR69" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT69">
         <v>2.1</v>
@@ -11063,30 +11462,33 @@
         <v>20.6</v>
       </c>
       <c r="AV69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AW69" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX69" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY69">
+        <v>1957</v>
       </c>
     </row>
-    <row r="70" spans="1:50">
+    <row r="70" spans="1:51">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D70">
         <v>23</v>
       </c>
       <c r="E70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F70">
         <v>33</v>
@@ -11101,7 +11503,7 @@
         <v>0.413</v>
       </c>
       <c r="J70" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K70">
         <v>1658</v>
@@ -11110,19 +11512,22 @@
         <v>549</v>
       </c>
       <c r="M70" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N70">
         <v>1658</v>
       </c>
       <c r="O70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P70" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Q70">
+        <v>1933</v>
       </c>
       <c r="R70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S70">
         <v>23</v>
@@ -11131,10 +11536,10 @@
         <v>2</v>
       </c>
       <c r="U70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="W70">
         <v>72</v>
@@ -11182,10 +11587,10 @@
         <v>2.6</v>
       </c>
       <c r="AQ70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT70">
         <v>2.8</v>
@@ -11194,13 +11599,16 @@
         <v>25.7</v>
       </c>
       <c r="AV70" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AW70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AX70" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="AY70">
+        <v>1956</v>
       </c>
     </row>
   </sheetData>

--- a/nba_mvp_winners.xlsx
+++ b/nba_mvp_winners.xlsx
@@ -1359,13 +1359,13 @@
         <v>121</v>
       </c>
       <c r="Q2">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="R2" t="s">
         <v>250</v>
       </c>
       <c r="S2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T2">
         <v>9</v>
@@ -1514,13 +1514,13 @@
         <v>122</v>
       </c>
       <c r="Q3">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="R3" t="s">
         <v>250</v>
       </c>
       <c r="S3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T3">
         <v>7</v>
@@ -1669,13 +1669,13 @@
         <v>121</v>
       </c>
       <c r="Q4">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="R4" t="s">
         <v>250</v>
       </c>
       <c r="S4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T4">
         <v>7</v>
@@ -1824,13 +1824,13 @@
         <v>121</v>
       </c>
       <c r="Q5">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="R5" t="s">
         <v>250</v>
       </c>
       <c r="S5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -1979,13 +1979,13 @@
         <v>123</v>
       </c>
       <c r="Q6">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="R6" t="s">
         <v>251</v>
       </c>
       <c r="S6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T6">
         <v>7</v>
@@ -2134,13 +2134,13 @@
         <v>123</v>
       </c>
       <c r="Q7">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="R7" t="s">
         <v>251</v>
       </c>
       <c r="S7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T7">
         <v>6</v>
@@ -2289,13 +2289,13 @@
         <v>124</v>
       </c>
       <c r="Q8">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="R8" t="s">
         <v>252</v>
       </c>
       <c r="S8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T8">
         <v>9</v>
@@ -2444,13 +2444,13 @@
         <v>125</v>
       </c>
       <c r="Q9">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="R9" t="s">
         <v>253</v>
       </c>
       <c r="S9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T9">
         <v>9</v>
@@ -2599,13 +2599,13 @@
         <v>126</v>
       </c>
       <c r="Q10">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="R10" t="s">
         <v>253</v>
       </c>
       <c r="S10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T10">
         <v>7</v>
@@ -2754,13 +2754,13 @@
         <v>126</v>
       </c>
       <c r="Q11">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="R11" t="s">
         <v>253</v>
       </c>
       <c r="S11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T11">
         <v>6</v>
@@ -2909,13 +2909,13 @@
         <v>127</v>
       </c>
       <c r="Q12">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="R12" t="s">
         <v>254</v>
       </c>
       <c r="S12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T12">
         <v>7</v>
@@ -3064,13 +3064,13 @@
         <v>128</v>
       </c>
       <c r="Q13">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="R13" t="s">
         <v>251</v>
       </c>
       <c r="S13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T13">
         <v>10</v>
@@ -3219,13 +3219,13 @@
         <v>128</v>
       </c>
       <c r="Q14">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="R14" t="s">
         <v>254</v>
       </c>
       <c r="S14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T14">
         <v>9</v>
@@ -3374,13 +3374,13 @@
         <v>129</v>
       </c>
       <c r="Q15">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="R15" t="s">
         <v>253</v>
       </c>
       <c r="S15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T15">
         <v>3</v>
@@ -3529,13 +3529,13 @@
         <v>128</v>
       </c>
       <c r="Q16">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="R16" t="s">
         <v>254</v>
       </c>
       <c r="S16">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T16">
         <v>7</v>
@@ -3684,13 +3684,13 @@
         <v>128</v>
       </c>
       <c r="Q17">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="R17" t="s">
         <v>254</v>
       </c>
       <c r="S17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T17">
         <v>6</v>
@@ -3839,13 +3839,13 @@
         <v>130</v>
       </c>
       <c r="Q18">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="R18" t="s">
         <v>252</v>
       </c>
       <c r="S18">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T18">
         <v>12</v>
@@ -3994,13 +3994,13 @@
         <v>131</v>
       </c>
       <c r="Q19">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="R19" t="s">
         <v>251</v>
       </c>
       <c r="S19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T19">
         <v>9</v>
@@ -4149,13 +4149,13 @@
         <v>132</v>
       </c>
       <c r="Q20">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="R20" t="s">
         <v>253</v>
       </c>
       <c r="S20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T20">
         <v>10</v>
@@ -4304,13 +4304,13 @@
         <v>132</v>
       </c>
       <c r="Q21">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="R21" t="s">
         <v>253</v>
       </c>
       <c r="S21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T21">
         <v>9</v>
@@ -4459,13 +4459,13 @@
         <v>133</v>
       </c>
       <c r="Q22">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="R22" t="s">
         <v>251</v>
       </c>
       <c r="S22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T22">
         <v>9</v>
@@ -4614,13 +4614,13 @@
         <v>134</v>
       </c>
       <c r="Q23">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="R23" t="s">
         <v>251</v>
       </c>
       <c r="S23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T23">
         <v>6</v>
@@ -4769,13 +4769,13 @@
         <v>134</v>
       </c>
       <c r="Q24">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="R24" t="s">
         <v>251</v>
       </c>
       <c r="S24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T24">
         <v>5</v>
@@ -4924,13 +4924,13 @@
         <v>135</v>
       </c>
       <c r="Q25">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="R25" t="s">
         <v>252</v>
       </c>
       <c r="S25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T25">
         <v>5</v>
@@ -5079,13 +5079,13 @@
         <v>136</v>
       </c>
       <c r="Q26">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="R26" t="s">
         <v>250</v>
       </c>
       <c r="S26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T26">
         <v>8</v>
@@ -5234,13 +5234,13 @@
         <v>137</v>
       </c>
       <c r="Q27">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="R27" t="s">
         <v>251</v>
       </c>
       <c r="S27">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T27">
         <v>14</v>
@@ -5389,13 +5389,13 @@
         <v>138</v>
       </c>
       <c r="Q28">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="R28" t="s">
         <v>252</v>
       </c>
       <c r="S28">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T28">
         <v>13</v>
@@ -5544,13 +5544,13 @@
         <v>137</v>
       </c>
       <c r="Q29">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="R29" t="s">
         <v>251</v>
       </c>
       <c r="S29">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T29">
         <v>12</v>
@@ -5699,13 +5699,13 @@
         <v>138</v>
       </c>
       <c r="Q30">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="R30" t="s">
         <v>252</v>
       </c>
       <c r="S30">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T30">
         <v>11</v>
@@ -5854,13 +5854,13 @@
         <v>139</v>
       </c>
       <c r="Q31">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="R31" t="s">
         <v>250</v>
       </c>
       <c r="S31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T31">
         <v>6</v>
@@ -6009,13 +6009,13 @@
         <v>140</v>
       </c>
       <c r="Q32">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="R32" t="s">
         <v>250</v>
       </c>
       <c r="S32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T32">
         <v>10</v>
@@ -6164,13 +6164,13 @@
         <v>141</v>
       </c>
       <c r="Q33">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="R33" t="s">
         <v>251</v>
       </c>
       <c r="S33">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T33">
         <v>9</v>
@@ -6319,13 +6319,13 @@
         <v>138</v>
       </c>
       <c r="Q34">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="R34" t="s">
         <v>252</v>
       </c>
       <c r="S34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T34">
         <v>8</v>
@@ -6474,13 +6474,13 @@
         <v>138</v>
       </c>
       <c r="Q35">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="R35" t="s">
         <v>252</v>
       </c>
       <c r="S35">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T35">
         <v>7</v>
@@ -6629,13 +6629,13 @@
         <v>142</v>
       </c>
       <c r="Q36">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="R36" t="s">
         <v>253</v>
       </c>
       <c r="S36">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T36">
         <v>11</v>
@@ -6784,13 +6784,13 @@
         <v>142</v>
       </c>
       <c r="Q37">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="R37" t="s">
         <v>253</v>
       </c>
       <c r="S37">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T37">
         <v>10</v>
@@ -6939,13 +6939,13 @@
         <v>138</v>
       </c>
       <c r="Q38">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="R38" t="s">
         <v>252</v>
       </c>
       <c r="S38">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T38">
         <v>4</v>
@@ -7094,13 +7094,13 @@
         <v>142</v>
       </c>
       <c r="Q39">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="R39" t="s">
         <v>253</v>
       </c>
       <c r="S39">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T39">
         <v>8</v>
@@ -7249,13 +7249,13 @@
         <v>143</v>
       </c>
       <c r="Q40">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="R40" t="s">
         <v>254</v>
       </c>
       <c r="S40">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T40">
         <v>7</v>
@@ -7404,13 +7404,13 @@
         <v>143</v>
       </c>
       <c r="Q41">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="R41" t="s">
         <v>254</v>
       </c>
       <c r="S41">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T41">
         <v>6</v>
@@ -7559,13 +7559,13 @@
         <v>143</v>
       </c>
       <c r="Q42">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="R42" t="s">
         <v>251</v>
       </c>
       <c r="S42">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T42">
         <v>5</v>
@@ -7714,13 +7714,13 @@
         <v>144</v>
       </c>
       <c r="Q43">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="R43" t="s">
         <v>250</v>
       </c>
       <c r="S43">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T43">
         <v>9</v>
@@ -7869,13 +7869,13 @@
         <v>144</v>
       </c>
       <c r="Q44">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="R44" t="s">
         <v>250</v>
       </c>
       <c r="S44">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T44">
         <v>8</v>
@@ -8024,13 +8024,13 @@
         <v>145</v>
       </c>
       <c r="Q45">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="R45" t="s">
         <v>254</v>
       </c>
       <c r="S45">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T45">
         <v>10</v>
@@ -8179,13 +8179,13 @@
         <v>146</v>
       </c>
       <c r="Q46">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="R46" t="s">
         <v>250</v>
       </c>
       <c r="S46">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T46">
         <v>11</v>
@@ -8331,13 +8331,13 @@
         <v>144</v>
       </c>
       <c r="Q47">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="R47" t="s">
         <v>250</v>
       </c>
       <c r="S47">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T47">
         <v>5</v>
@@ -8477,13 +8477,13 @@
         <v>147</v>
       </c>
       <c r="Q48">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="R48" t="s">
         <v>250</v>
       </c>
       <c r="S48">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T48">
         <v>4</v>
@@ -8623,13 +8623,13 @@
         <v>146</v>
       </c>
       <c r="Q49">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="R49" t="s">
         <v>250</v>
       </c>
       <c r="S49">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T49">
         <v>8</v>
@@ -8766,13 +8766,13 @@
         <v>146</v>
       </c>
       <c r="Q50">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="R50" t="s">
         <v>250</v>
       </c>
       <c r="S50">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T50">
         <v>7</v>
@@ -8909,13 +8909,13 @@
         <v>148</v>
       </c>
       <c r="Q51">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="R51" t="s">
         <v>250</v>
       </c>
       <c r="S51">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T51">
         <v>3</v>
@@ -9052,13 +9052,13 @@
         <v>146</v>
       </c>
       <c r="Q52">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="R52" t="s">
         <v>250</v>
       </c>
       <c r="S52">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T52">
         <v>5</v>
@@ -9195,13 +9195,13 @@
         <v>149</v>
       </c>
       <c r="Q53">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="R53" t="s">
         <v>250</v>
       </c>
       <c r="S53">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T53">
         <v>3</v>
@@ -9332,13 +9332,13 @@
         <v>146</v>
       </c>
       <c r="Q54">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="R54" t="s">
         <v>250</v>
       </c>
       <c r="S54">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T54">
         <v>3</v>
@@ -9469,13 +9469,13 @@
         <v>146</v>
       </c>
       <c r="Q55">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="R55" t="s">
         <v>250</v>
       </c>
       <c r="S55">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T55">
         <v>2</v>
@@ -9606,13 +9606,13 @@
         <v>150</v>
       </c>
       <c r="Q56">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="R56" t="s">
         <v>250</v>
       </c>
       <c r="S56">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T56">
         <v>6</v>
@@ -9743,13 +9743,13 @@
         <v>151</v>
       </c>
       <c r="Q57">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="R57" t="s">
         <v>250</v>
       </c>
       <c r="S57">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T57">
         <v>1</v>
@@ -9880,13 +9880,13 @@
         <v>152</v>
       </c>
       <c r="Q58">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="R58" t="s">
         <v>250</v>
       </c>
       <c r="S58">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T58">
         <v>9</v>
@@ -10017,13 +10017,13 @@
         <v>152</v>
       </c>
       <c r="Q59">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="R59" t="s">
         <v>250</v>
       </c>
       <c r="S59">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T59">
         <v>8</v>
@@ -10154,13 +10154,13 @@
         <v>152</v>
       </c>
       <c r="Q60">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="R60" t="s">
         <v>250</v>
       </c>
       <c r="S60">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T60">
         <v>7</v>
@@ -10291,13 +10291,13 @@
         <v>153</v>
       </c>
       <c r="Q61">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="R61" t="s">
         <v>250</v>
       </c>
       <c r="S61">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T61">
         <v>9</v>
@@ -10428,13 +10428,13 @@
         <v>154</v>
       </c>
       <c r="Q62">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="R62" t="s">
         <v>253</v>
       </c>
       <c r="S62">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T62">
         <v>4</v>
@@ -10565,13 +10565,13 @@
         <v>153</v>
       </c>
       <c r="Q63">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="R63" t="s">
         <v>250</v>
       </c>
       <c r="S63">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T63">
         <v>7</v>
@@ -10702,13 +10702,13 @@
         <v>153</v>
       </c>
       <c r="Q64">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="R64" t="s">
         <v>250</v>
       </c>
       <c r="S64">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T64">
         <v>6</v>
@@ -10839,13 +10839,13 @@
         <v>153</v>
       </c>
       <c r="Q65">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="R65" t="s">
         <v>250</v>
       </c>
       <c r="S65">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T65">
         <v>5</v>
@@ -10976,13 +10976,13 @@
         <v>152</v>
       </c>
       <c r="Q66">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="R66" t="s">
         <v>250</v>
       </c>
       <c r="S66">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T66">
         <v>1</v>
@@ -11113,13 +11113,13 @@
         <v>155</v>
       </c>
       <c r="Q67">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="R67" t="s">
         <v>251</v>
       </c>
       <c r="S67">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T67">
         <v>5</v>
@@ -11250,13 +11250,13 @@
         <v>153</v>
       </c>
       <c r="Q68">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="R68" t="s">
         <v>250</v>
       </c>
       <c r="S68">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T68">
         <v>2</v>
@@ -11387,13 +11387,13 @@
         <v>156</v>
       </c>
       <c r="Q69">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="R69" t="s">
         <v>253</v>
       </c>
       <c r="S69">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T69">
         <v>7</v>
@@ -11524,13 +11524,13 @@
         <v>155</v>
       </c>
       <c r="Q70">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="R70" t="s">
         <v>250</v>
       </c>
       <c r="S70">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T70">
         <v>2</v>

--- a/nba_mvp_winners.xlsx
+++ b/nba_mvp_winners.xlsx
@@ -46,19 +46,19 @@
     <t>winner</t>
   </si>
   <si>
-    <t>seas_id_x</t>
-  </si>
-  <si>
-    <t>player_id</t>
+    <t>seas_id</t>
+  </si>
+  <si>
+    <t>player_id_x</t>
   </si>
   <si>
     <t>season_x</t>
   </si>
   <si>
-    <t>seas_id_y</t>
-  </si>
-  <si>
     <t>season_ending_year_y</t>
+  </si>
+  <si>
+    <t>player_id_y</t>
   </si>
   <si>
     <t>player_y</t>
@@ -1349,11 +1349,11 @@
       <c r="M2" t="s">
         <v>181</v>
       </c>
-      <c r="N2">
-        <v>31672</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>51</v>
+      </c>
+      <c r="O2">
+        <v>3872</v>
       </c>
       <c r="P2" t="s">
         <v>121</v>
@@ -1504,11 +1504,11 @@
       <c r="M3" t="s">
         <v>182</v>
       </c>
-      <c r="N3">
-        <v>30764</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>52</v>
+      </c>
+      <c r="O3">
+        <v>2711</v>
       </c>
       <c r="P3" t="s">
         <v>122</v>
@@ -1659,11 +1659,11 @@
       <c r="M4" t="s">
         <v>183</v>
       </c>
-      <c r="N4">
-        <v>30247</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="N4" t="s">
         <v>53</v>
+      </c>
+      <c r="O4">
+        <v>3872</v>
       </c>
       <c r="P4" t="s">
         <v>121</v>
@@ -1814,11 +1814,11 @@
       <c r="M5" t="s">
         <v>184</v>
       </c>
-      <c r="N5">
-        <v>29456</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="N5" t="s">
         <v>54</v>
+      </c>
+      <c r="O5">
+        <v>3872</v>
       </c>
       <c r="P5" t="s">
         <v>121</v>
@@ -1969,11 +1969,11 @@
       <c r="M6" t="s">
         <v>185</v>
       </c>
-      <c r="N6">
-        <v>28507</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="N6" t="s">
         <v>55</v>
+      </c>
+      <c r="O6">
+        <v>1947</v>
       </c>
       <c r="P6" t="s">
         <v>123</v>
@@ -2124,11 +2124,11 @@
       <c r="M7" t="s">
         <v>186</v>
       </c>
-      <c r="N7">
-        <v>27809</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="N7" t="s">
         <v>56</v>
+      </c>
+      <c r="O7">
+        <v>1947</v>
       </c>
       <c r="P7" t="s">
         <v>123</v>
@@ -2279,11 +2279,11 @@
       <c r="M8" t="s">
         <v>187</v>
       </c>
-      <c r="N8">
-        <v>27201</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N8" t="s">
         <v>57</v>
+      </c>
+      <c r="O8">
+        <v>2354</v>
       </c>
       <c r="P8" t="s">
         <v>124</v>
@@ -2434,11 +2434,11 @@
       <c r="M9" t="s">
         <v>188</v>
       </c>
-      <c r="N9">
-        <v>26815</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="N9" t="s">
         <v>58</v>
+      </c>
+      <c r="O9">
+        <v>4450</v>
       </c>
       <c r="P9" t="s">
         <v>125</v>
@@ -2589,11 +2589,11 @@
       <c r="M10" t="s">
         <v>189</v>
       </c>
-      <c r="N10">
-        <v>26260</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="N10" t="s">
         <v>59</v>
+      </c>
+      <c r="O10">
+        <v>4666</v>
       </c>
       <c r="P10" t="s">
         <v>126</v>
@@ -2744,11 +2744,11 @@
       <c r="M11" t="s">
         <v>190</v>
       </c>
-      <c r="N11">
-        <v>25662</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="N11" t="s">
         <v>60</v>
+      </c>
+      <c r="O11">
+        <v>4666</v>
       </c>
       <c r="P11" t="s">
         <v>126</v>
@@ -2899,11 +2899,11 @@
       <c r="M12" t="s">
         <v>191</v>
       </c>
-      <c r="N12">
-        <v>24828</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="N12" t="s">
         <v>61</v>
+      </c>
+      <c r="O12">
+        <v>3089</v>
       </c>
       <c r="P12" t="s">
         <v>127</v>
@@ -3054,11 +3054,11 @@
       <c r="M13" t="s">
         <v>192</v>
       </c>
-      <c r="N13">
-        <v>24275</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="N13" t="s">
         <v>62</v>
+      </c>
+      <c r="O13">
+        <v>3260</v>
       </c>
       <c r="P13" t="s">
         <v>128</v>
@@ -3209,11 +3209,11 @@
       <c r="M14" t="s">
         <v>193</v>
       </c>
-      <c r="N14">
-        <v>23706</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="N14" t="s">
         <v>63</v>
+      </c>
+      <c r="O14">
+        <v>3260</v>
       </c>
       <c r="P14" t="s">
         <v>128</v>
@@ -3364,11 +3364,11 @@
       <c r="M15" t="s">
         <v>194</v>
       </c>
-      <c r="N15">
-        <v>22905</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="N15" t="s">
         <v>64</v>
+      </c>
+      <c r="O15">
+        <v>1344</v>
       </c>
       <c r="P15" t="s">
         <v>129</v>
@@ -3519,11 +3519,11 @@
       <c r="M16" t="s">
         <v>195</v>
       </c>
-      <c r="N16">
-        <v>22500</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="N16" t="s">
         <v>65</v>
+      </c>
+      <c r="O16">
+        <v>3260</v>
       </c>
       <c r="P16" t="s">
         <v>128</v>
@@ -3674,11 +3674,11 @@
       <c r="M17" t="s">
         <v>196</v>
       </c>
-      <c r="N17">
-        <v>21909</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="N17" t="s">
         <v>66</v>
+      </c>
+      <c r="O17">
+        <v>3260</v>
       </c>
       <c r="P17" t="s">
         <v>128</v>
@@ -3829,11 +3829,11 @@
       <c r="M18" t="s">
         <v>197</v>
       </c>
-      <c r="N18">
-        <v>21299</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="N18" t="s">
         <v>67</v>
+      </c>
+      <c r="O18">
+        <v>3149</v>
       </c>
       <c r="P18" t="s">
         <v>130</v>
@@ -3984,11 +3984,11 @@
       <c r="M19" t="s">
         <v>198</v>
       </c>
-      <c r="N19">
-        <v>20603</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="N19" t="s">
         <v>68</v>
+      </c>
+      <c r="O19">
+        <v>1431</v>
       </c>
       <c r="P19" t="s">
         <v>131</v>
@@ -4139,11 +4139,11 @@
       <c r="M20" t="s">
         <v>199</v>
       </c>
-      <c r="N20">
-        <v>20402</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="N20" t="s">
         <v>69</v>
+      </c>
+      <c r="O20">
+        <v>4703</v>
       </c>
       <c r="P20" t="s">
         <v>132</v>
@@ -4294,11 +4294,11 @@
       <c r="M21" t="s">
         <v>200</v>
       </c>
-      <c r="N21">
-        <v>19832</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="N21" t="s">
         <v>70</v>
+      </c>
+      <c r="O21">
+        <v>4703</v>
       </c>
       <c r="P21" t="s">
         <v>132</v>
@@ -4449,11 +4449,11 @@
       <c r="M22" t="s">
         <v>201</v>
       </c>
-      <c r="N22">
-        <v>19036</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="N22" t="s">
         <v>71</v>
+      </c>
+      <c r="O22">
+        <v>3092</v>
       </c>
       <c r="P22" t="s">
         <v>133</v>
@@ -4604,11 +4604,11 @@
       <c r="M23" t="s">
         <v>202</v>
       </c>
-      <c r="N23">
-        <v>18688</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="N23" t="s">
         <v>72</v>
+      </c>
+      <c r="O23">
+        <v>4816</v>
       </c>
       <c r="P23" t="s">
         <v>134</v>
@@ -4759,11 +4759,11 @@
       <c r="M24" t="s">
         <v>203</v>
       </c>
-      <c r="N24">
-        <v>18196</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="N24" t="s">
         <v>73</v>
+      </c>
+      <c r="O24">
+        <v>4816</v>
       </c>
       <c r="P24" t="s">
         <v>134</v>
@@ -4914,11 +4914,11 @@
       <c r="M25" t="s">
         <v>204</v>
       </c>
-      <c r="N25">
-        <v>17220</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="N25" t="s">
         <v>74</v>
+      </c>
+      <c r="O25">
+        <v>132</v>
       </c>
       <c r="P25" t="s">
         <v>135</v>
@@ -5069,11 +5069,11 @@
       <c r="M26" t="s">
         <v>205</v>
       </c>
-      <c r="N26">
-        <v>17142</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="N26" t="s">
         <v>75</v>
+      </c>
+      <c r="O26">
+        <v>4575</v>
       </c>
       <c r="P26" t="s">
         <v>136</v>
@@ -5224,11 +5224,11 @@
       <c r="M27" t="s">
         <v>206</v>
       </c>
-      <c r="N27">
-        <v>16488</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="N27" t="s">
         <v>76</v>
+      </c>
+      <c r="O27">
+        <v>2977</v>
       </c>
       <c r="P27" t="s">
         <v>137</v>
@@ -5379,11 +5379,11 @@
       <c r="M28" t="s">
         <v>207</v>
       </c>
-      <c r="N28">
-        <v>16041</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="N28" t="s">
         <v>77</v>
+      </c>
+      <c r="O28">
+        <v>3643</v>
       </c>
       <c r="P28" t="s">
         <v>138</v>
@@ -5534,11 +5534,11 @@
       <c r="M29" t="s">
         <v>208</v>
       </c>
-      <c r="N29">
-        <v>15398</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="N29" t="s">
         <v>78</v>
+      </c>
+      <c r="O29">
+        <v>2977</v>
       </c>
       <c r="P29" t="s">
         <v>137</v>
@@ -5689,11 +5689,11 @@
       <c r="M30" t="s">
         <v>209</v>
       </c>
-      <c r="N30">
-        <v>14913</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="N30" t="s">
         <v>79</v>
+      </c>
+      <c r="O30">
+        <v>3643</v>
       </c>
       <c r="P30" t="s">
         <v>138</v>
@@ -5844,11 +5844,11 @@
       <c r="M31" t="s">
         <v>210</v>
       </c>
-      <c r="N31">
-        <v>14193</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="N31" t="s">
         <v>80</v>
+      </c>
+      <c r="O31">
+        <v>1239</v>
       </c>
       <c r="P31" t="s">
         <v>139</v>
@@ -5999,11 +5999,11 @@
       <c r="M32" t="s">
         <v>211</v>
       </c>
-      <c r="N32">
-        <v>13792</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="N32" t="s">
         <v>81</v>
+      </c>
+      <c r="O32">
+        <v>2035</v>
       </c>
       <c r="P32" t="s">
         <v>140</v>
@@ -6154,11 +6154,11 @@
       <c r="M33" t="s">
         <v>212</v>
       </c>
-      <c r="N33">
-        <v>13223</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="N33" t="s">
         <v>82</v>
+      </c>
+      <c r="O33">
+        <v>803</v>
       </c>
       <c r="P33" t="s">
         <v>141</v>
@@ -6309,11 +6309,11 @@
       <c r="M34" t="s">
         <v>213</v>
       </c>
-      <c r="N34">
-        <v>12990</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="N34" t="s">
         <v>83</v>
+      </c>
+      <c r="O34">
+        <v>3643</v>
       </c>
       <c r="P34" t="s">
         <v>138</v>
@@ -6464,11 +6464,11 @@
       <c r="M35" t="s">
         <v>214</v>
       </c>
-      <c r="N35">
-        <v>12543</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="N35" t="s">
         <v>84</v>
+      </c>
+      <c r="O35">
+        <v>3643</v>
       </c>
       <c r="P35" t="s">
         <v>138</v>
@@ -6619,11 +6619,11 @@
       <c r="M36" t="s">
         <v>215</v>
       </c>
-      <c r="N36">
-        <v>12055</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="N36" t="s">
         <v>85</v>
+      </c>
+      <c r="O36">
+        <v>3403</v>
       </c>
       <c r="P36" t="s">
         <v>142</v>
@@ -6774,11 +6774,11 @@
       <c r="M37" t="s">
         <v>216</v>
       </c>
-      <c r="N37">
-        <v>11623</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="N37" t="s">
         <v>86</v>
+      </c>
+      <c r="O37">
+        <v>3403</v>
       </c>
       <c r="P37" t="s">
         <v>142</v>
@@ -6929,11 +6929,11 @@
       <c r="M38" t="s">
         <v>217</v>
       </c>
-      <c r="N38">
-        <v>11208</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="N38" t="s">
         <v>87</v>
+      </c>
+      <c r="O38">
+        <v>3643</v>
       </c>
       <c r="P38" t="s">
         <v>138</v>
@@ -7084,11 +7084,11 @@
       <c r="M39" t="s">
         <v>218</v>
       </c>
-      <c r="N39">
-        <v>10791</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="N39" t="s">
         <v>88</v>
+      </c>
+      <c r="O39">
+        <v>3403</v>
       </c>
       <c r="P39" t="s">
         <v>142</v>
@@ -7239,11 +7239,11 @@
       <c r="M40" t="s">
         <v>219</v>
       </c>
-      <c r="N40">
-        <v>10392</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="N40" t="s">
         <v>89</v>
+      </c>
+      <c r="O40">
+        <v>3209</v>
       </c>
       <c r="P40" t="s">
         <v>143</v>
@@ -7394,11 +7394,11 @@
       <c r="M41" t="s">
         <v>220</v>
       </c>
-      <c r="N41">
-        <v>10015</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="N41" t="s">
         <v>90</v>
+      </c>
+      <c r="O41">
+        <v>3209</v>
       </c>
       <c r="P41" t="s">
         <v>143</v>
@@ -7549,11 +7549,11 @@
       <c r="M42" t="s">
         <v>221</v>
       </c>
-      <c r="N42">
-        <v>9662</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="N42" t="s">
         <v>91</v>
+      </c>
+      <c r="O42">
+        <v>3209</v>
       </c>
       <c r="P42" t="s">
         <v>143</v>
@@ -7704,11 +7704,11 @@
       <c r="M43" t="s">
         <v>222</v>
       </c>
-      <c r="N43">
-        <v>9355</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="N43" t="s">
         <v>92</v>
+      </c>
+      <c r="O43">
+        <v>3785</v>
       </c>
       <c r="P43" t="s">
         <v>144</v>
@@ -7859,11 +7859,11 @@
       <c r="M44" t="s">
         <v>223</v>
       </c>
-      <c r="N44">
-        <v>8978</v>
-      </c>
-      <c r="O44" t="s">
+      <c r="N44" t="s">
         <v>93</v>
+      </c>
+      <c r="O44">
+        <v>3785</v>
       </c>
       <c r="P44" t="s">
         <v>144</v>
@@ -8014,11 +8014,11 @@
       <c r="M45" t="s">
         <v>224</v>
       </c>
-      <c r="N45">
-        <v>8533</v>
-      </c>
-      <c r="O45" t="s">
+      <c r="N45" t="s">
         <v>94</v>
+      </c>
+      <c r="O45">
+        <v>2932</v>
       </c>
       <c r="P45" t="s">
         <v>145</v>
@@ -8169,11 +8169,11 @@
       <c r="M46" t="s">
         <v>225</v>
       </c>
-      <c r="N46">
-        <v>8178</v>
-      </c>
-      <c r="O46" t="s">
+      <c r="N46" t="s">
         <v>95</v>
+      </c>
+      <c r="O46">
+        <v>2974</v>
       </c>
       <c r="P46" t="s">
         <v>146</v>
@@ -8321,11 +8321,11 @@
       <c r="M47" t="s">
         <v>226</v>
       </c>
-      <c r="N47">
-        <v>7877</v>
-      </c>
-      <c r="O47" t="s">
+      <c r="N47" t="s">
         <v>96</v>
+      </c>
+      <c r="O47">
+        <v>3785</v>
       </c>
       <c r="P47" t="s">
         <v>144</v>
@@ -8467,11 +8467,11 @@
       <c r="M48" t="s">
         <v>227</v>
       </c>
-      <c r="N48">
-        <v>7296</v>
-      </c>
-      <c r="O48" t="s">
+      <c r="N48" t="s">
         <v>97</v>
+      </c>
+      <c r="O48">
+        <v>422</v>
       </c>
       <c r="P48" t="s">
         <v>147</v>
@@ -8613,11 +8613,11 @@
       <c r="M49" t="s">
         <v>228</v>
       </c>
-      <c r="N49">
-        <v>7112</v>
-      </c>
-      <c r="O49" t="s">
+      <c r="N49" t="s">
         <v>98</v>
+      </c>
+      <c r="O49">
+        <v>2974</v>
       </c>
       <c r="P49" t="s">
         <v>146</v>
@@ -8756,11 +8756,11 @@
       <c r="M50" t="s">
         <v>229</v>
       </c>
-      <c r="N50">
-        <v>6729</v>
-      </c>
-      <c r="O50" t="s">
+      <c r="N50" t="s">
         <v>99</v>
+      </c>
+      <c r="O50">
+        <v>2974</v>
       </c>
       <c r="P50" t="s">
         <v>146</v>
@@ -8899,11 +8899,11 @@
       <c r="M51" t="s">
         <v>230</v>
       </c>
-      <c r="N51">
-        <v>6104</v>
-      </c>
-      <c r="O51" t="s">
+      <c r="N51" t="s">
         <v>100</v>
+      </c>
+      <c r="O51">
+        <v>512</v>
       </c>
       <c r="P51" t="s">
         <v>148</v>
@@ -9042,11 +9042,11 @@
       <c r="M52" t="s">
         <v>231</v>
       </c>
-      <c r="N52">
-        <v>5882</v>
-      </c>
-      <c r="O52" t="s">
+      <c r="N52" t="s">
         <v>101</v>
+      </c>
+      <c r="O52">
+        <v>2974</v>
       </c>
       <c r="P52" t="s">
         <v>146</v>
@@ -9185,11 +9185,11 @@
       <c r="M53" t="s">
         <v>232</v>
       </c>
-      <c r="N53">
-        <v>5316</v>
-      </c>
-      <c r="O53" t="s">
+      <c r="N53" t="s">
         <v>102</v>
+      </c>
+      <c r="O53">
+        <v>1198</v>
       </c>
       <c r="P53" t="s">
         <v>149</v>
@@ -9322,11 +9322,11 @@
       <c r="M54" t="s">
         <v>233</v>
       </c>
-      <c r="N54">
-        <v>5043</v>
-      </c>
-      <c r="O54" t="s">
+      <c r="N54" t="s">
         <v>103</v>
+      </c>
+      <c r="O54">
+        <v>2974</v>
       </c>
       <c r="P54" t="s">
         <v>146</v>
@@ -9459,11 +9459,11 @@
       <c r="M55" t="s">
         <v>234</v>
       </c>
-      <c r="N55">
-        <v>4581</v>
-      </c>
-      <c r="O55" t="s">
+      <c r="N55" t="s">
         <v>104</v>
+      </c>
+      <c r="O55">
+        <v>2974</v>
       </c>
       <c r="P55" t="s">
         <v>146</v>
@@ -9596,11 +9596,11 @@
       <c r="M56" t="s">
         <v>235</v>
       </c>
-      <c r="N56">
-        <v>4311</v>
-      </c>
-      <c r="O56" t="s">
+      <c r="N56" t="s">
         <v>105</v>
+      </c>
+      <c r="O56">
+        <v>5219</v>
       </c>
       <c r="P56" t="s">
         <v>150</v>
@@ -9733,11 +9733,11 @@
       <c r="M57" t="s">
         <v>236</v>
       </c>
-      <c r="N57">
-        <v>3888</v>
-      </c>
-      <c r="O57" t="s">
+      <c r="N57" t="s">
         <v>106</v>
+      </c>
+      <c r="O57">
+        <v>5162</v>
       </c>
       <c r="P57" t="s">
         <v>151</v>
@@ -9870,11 +9870,11 @@
       <c r="M58" t="s">
         <v>237</v>
       </c>
-      <c r="N58">
-        <v>3485</v>
-      </c>
-      <c r="O58" t="s">
+      <c r="N58" t="s">
         <v>107</v>
+      </c>
+      <c r="O58">
+        <v>5224</v>
       </c>
       <c r="P58" t="s">
         <v>152</v>
@@ -10007,11 +10007,11 @@
       <c r="M59" t="s">
         <v>238</v>
       </c>
-      <c r="N59">
-        <v>3118</v>
-      </c>
-      <c r="O59" t="s">
+      <c r="N59" t="s">
         <v>108</v>
+      </c>
+      <c r="O59">
+        <v>5224</v>
       </c>
       <c r="P59" t="s">
         <v>152</v>
@@ -10144,11 +10144,11 @@
       <c r="M60" t="s">
         <v>239</v>
       </c>
-      <c r="N60">
-        <v>2984</v>
-      </c>
-      <c r="O60" t="s">
+      <c r="N60" t="s">
         <v>109</v>
+      </c>
+      <c r="O60">
+        <v>5224</v>
       </c>
       <c r="P60" t="s">
         <v>152</v>
@@ -10281,11 +10281,11 @@
       <c r="M61" t="s">
         <v>240</v>
       </c>
-      <c r="N61">
-        <v>2735</v>
-      </c>
-      <c r="O61" t="s">
+      <c r="N61" t="s">
         <v>110</v>
+      </c>
+      <c r="O61">
+        <v>415</v>
       </c>
       <c r="P61" t="s">
         <v>153</v>
@@ -10418,11 +10418,11 @@
       <c r="M62" t="s">
         <v>241</v>
       </c>
-      <c r="N62">
-        <v>2689</v>
-      </c>
-      <c r="O62" t="s">
+      <c r="N62" t="s">
         <v>111</v>
+      </c>
+      <c r="O62">
+        <v>3934</v>
       </c>
       <c r="P62" t="s">
         <v>154</v>
@@ -10555,11 +10555,11 @@
       <c r="M63" t="s">
         <v>242</v>
       </c>
-      <c r="N63">
-        <v>2467</v>
-      </c>
-      <c r="O63" t="s">
+      <c r="N63" t="s">
         <v>112</v>
+      </c>
+      <c r="O63">
+        <v>415</v>
       </c>
       <c r="P63" t="s">
         <v>153</v>
@@ -10692,11 +10692,11 @@
       <c r="M64" t="s">
         <v>243</v>
       </c>
-      <c r="N64">
-        <v>2332</v>
-      </c>
-      <c r="O64" t="s">
+      <c r="N64" t="s">
         <v>113</v>
+      </c>
+      <c r="O64">
+        <v>415</v>
       </c>
       <c r="P64" t="s">
         <v>153</v>
@@ -10829,11 +10829,11 @@
       <c r="M65" t="s">
         <v>244</v>
       </c>
-      <c r="N65">
-        <v>2219</v>
-      </c>
-      <c r="O65" t="s">
+      <c r="N65" t="s">
         <v>114</v>
+      </c>
+      <c r="O65">
+        <v>415</v>
       </c>
       <c r="P65" t="s">
         <v>153</v>
@@ -10966,11 +10966,11 @@
       <c r="M66" t="s">
         <v>245</v>
       </c>
-      <c r="N66">
-        <v>2209</v>
-      </c>
-      <c r="O66" t="s">
+      <c r="N66" t="s">
         <v>115</v>
+      </c>
+      <c r="O66">
+        <v>5224</v>
       </c>
       <c r="P66" t="s">
         <v>152</v>
@@ -11103,11 +11103,11 @@
       <c r="M67" t="s">
         <v>246</v>
       </c>
-      <c r="N67">
-        <v>1989</v>
-      </c>
-      <c r="O67" t="s">
+      <c r="N67" t="s">
         <v>116</v>
+      </c>
+      <c r="O67">
+        <v>523</v>
       </c>
       <c r="P67" t="s">
         <v>155</v>
@@ -11240,11 +11240,11 @@
       <c r="M68" t="s">
         <v>247</v>
       </c>
-      <c r="N68">
-        <v>1875</v>
-      </c>
-      <c r="O68" t="s">
+      <c r="N68" t="s">
         <v>117</v>
+      </c>
+      <c r="O68">
+        <v>415</v>
       </c>
       <c r="P68" t="s">
         <v>153</v>
@@ -11377,11 +11377,11 @@
       <c r="M69" t="s">
         <v>248</v>
       </c>
-      <c r="N69">
-        <v>1766</v>
-      </c>
-      <c r="O69" t="s">
+      <c r="N69" t="s">
         <v>118</v>
+      </c>
+      <c r="O69">
+        <v>477</v>
       </c>
       <c r="P69" t="s">
         <v>156</v>
@@ -11514,11 +11514,11 @@
       <c r="M70" t="s">
         <v>249</v>
       </c>
-      <c r="N70">
-        <v>1658</v>
-      </c>
-      <c r="O70" t="s">
+      <c r="N70" t="s">
         <v>119</v>
+      </c>
+      <c r="O70">
+        <v>523</v>
       </c>
       <c r="P70" t="s">
         <v>155</v>

--- a/nba_mvp_winners.xlsx
+++ b/nba_mvp_winners.xlsx
@@ -1353,7 +1353,7 @@
         <v>51</v>
       </c>
       <c r="O2">
-        <v>3872</v>
+        <v>3878</v>
       </c>
       <c r="P2" t="s">
         <v>121</v>
@@ -1508,7 +1508,7 @@
         <v>52</v>
       </c>
       <c r="O3">
-        <v>2711</v>
+        <v>2716</v>
       </c>
       <c r="P3" t="s">
         <v>122</v>
@@ -1663,7 +1663,7 @@
         <v>53</v>
       </c>
       <c r="O4">
-        <v>3872</v>
+        <v>3878</v>
       </c>
       <c r="P4" t="s">
         <v>121</v>
@@ -1818,7 +1818,7 @@
         <v>54</v>
       </c>
       <c r="O5">
-        <v>3872</v>
+        <v>3878</v>
       </c>
       <c r="P5" t="s">
         <v>121</v>
@@ -1973,7 +1973,7 @@
         <v>55</v>
       </c>
       <c r="O6">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="P6" t="s">
         <v>123</v>
@@ -2128,7 +2128,7 @@
         <v>56</v>
       </c>
       <c r="O7">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="P7" t="s">
         <v>123</v>
@@ -2283,7 +2283,7 @@
         <v>57</v>
       </c>
       <c r="O8">
-        <v>2354</v>
+        <v>2358</v>
       </c>
       <c r="P8" t="s">
         <v>124</v>
@@ -2438,7 +2438,7 @@
         <v>58</v>
       </c>
       <c r="O9">
-        <v>4450</v>
+        <v>4457</v>
       </c>
       <c r="P9" t="s">
         <v>125</v>
@@ -2593,7 +2593,7 @@
         <v>59</v>
       </c>
       <c r="O10">
-        <v>4666</v>
+        <v>4673</v>
       </c>
       <c r="P10" t="s">
         <v>126</v>
@@ -2748,7 +2748,7 @@
         <v>60</v>
       </c>
       <c r="O11">
-        <v>4666</v>
+        <v>4673</v>
       </c>
       <c r="P11" t="s">
         <v>126</v>
@@ -2903,7 +2903,7 @@
         <v>61</v>
       </c>
       <c r="O12">
-        <v>3089</v>
+        <v>3094</v>
       </c>
       <c r="P12" t="s">
         <v>127</v>
@@ -3058,7 +3058,7 @@
         <v>62</v>
       </c>
       <c r="O13">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="P13" t="s">
         <v>128</v>
@@ -3213,7 +3213,7 @@
         <v>63</v>
       </c>
       <c r="O14">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="P14" t="s">
         <v>128</v>
@@ -3368,7 +3368,7 @@
         <v>64</v>
       </c>
       <c r="O15">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="P15" t="s">
         <v>129</v>
@@ -3523,7 +3523,7 @@
         <v>65</v>
       </c>
       <c r="O16">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="P16" t="s">
         <v>128</v>
@@ -3678,7 +3678,7 @@
         <v>66</v>
       </c>
       <c r="O17">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="P17" t="s">
         <v>128</v>
@@ -3833,7 +3833,7 @@
         <v>67</v>
       </c>
       <c r="O18">
-        <v>3149</v>
+        <v>3154</v>
       </c>
       <c r="P18" t="s">
         <v>130</v>
@@ -3988,7 +3988,7 @@
         <v>68</v>
       </c>
       <c r="O19">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="P19" t="s">
         <v>131</v>
@@ -4143,7 +4143,7 @@
         <v>69</v>
       </c>
       <c r="O20">
-        <v>4703</v>
+        <v>4710</v>
       </c>
       <c r="P20" t="s">
         <v>132</v>
@@ -4298,7 +4298,7 @@
         <v>70</v>
       </c>
       <c r="O21">
-        <v>4703</v>
+        <v>4710</v>
       </c>
       <c r="P21" t="s">
         <v>132</v>
@@ -4453,7 +4453,7 @@
         <v>71</v>
       </c>
       <c r="O22">
-        <v>3092</v>
+        <v>3097</v>
       </c>
       <c r="P22" t="s">
         <v>133</v>
@@ -4608,7 +4608,7 @@
         <v>72</v>
       </c>
       <c r="O23">
-        <v>4816</v>
+        <v>4823</v>
       </c>
       <c r="P23" t="s">
         <v>134</v>
@@ -4763,7 +4763,7 @@
         <v>73</v>
       </c>
       <c r="O24">
-        <v>4816</v>
+        <v>4823</v>
       </c>
       <c r="P24" t="s">
         <v>134</v>
@@ -5073,7 +5073,7 @@
         <v>75</v>
       </c>
       <c r="O26">
-        <v>4575</v>
+        <v>4582</v>
       </c>
       <c r="P26" t="s">
         <v>136</v>
@@ -5228,7 +5228,7 @@
         <v>76</v>
       </c>
       <c r="O27">
-        <v>2977</v>
+        <v>2982</v>
       </c>
       <c r="P27" t="s">
         <v>137</v>
@@ -5383,7 +5383,7 @@
         <v>77</v>
       </c>
       <c r="O28">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="P28" t="s">
         <v>138</v>
@@ -5538,7 +5538,7 @@
         <v>78</v>
       </c>
       <c r="O29">
-        <v>2977</v>
+        <v>2982</v>
       </c>
       <c r="P29" t="s">
         <v>137</v>
@@ -5693,7 +5693,7 @@
         <v>79</v>
       </c>
       <c r="O30">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="P30" t="s">
         <v>138</v>
@@ -5848,7 +5848,7 @@
         <v>80</v>
       </c>
       <c r="O31">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="P31" t="s">
         <v>139</v>
@@ -6003,7 +6003,7 @@
         <v>81</v>
       </c>
       <c r="O32">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="P32" t="s">
         <v>140</v>
@@ -6158,7 +6158,7 @@
         <v>82</v>
       </c>
       <c r="O33">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="P33" t="s">
         <v>141</v>
@@ -6313,7 +6313,7 @@
         <v>83</v>
       </c>
       <c r="O34">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="P34" t="s">
         <v>138</v>
@@ -6468,7 +6468,7 @@
         <v>84</v>
       </c>
       <c r="O35">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="P35" t="s">
         <v>138</v>
@@ -6623,7 +6623,7 @@
         <v>85</v>
       </c>
       <c r="O36">
-        <v>3403</v>
+        <v>3409</v>
       </c>
       <c r="P36" t="s">
         <v>142</v>
@@ -6778,7 +6778,7 @@
         <v>86</v>
       </c>
       <c r="O37">
-        <v>3403</v>
+        <v>3409</v>
       </c>
       <c r="P37" t="s">
         <v>142</v>
@@ -6933,7 +6933,7 @@
         <v>87</v>
       </c>
       <c r="O38">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="P38" t="s">
         <v>138</v>
@@ -7088,7 +7088,7 @@
         <v>88</v>
       </c>
       <c r="O39">
-        <v>3403</v>
+        <v>3409</v>
       </c>
       <c r="P39" t="s">
         <v>142</v>
@@ -7243,7 +7243,7 @@
         <v>89</v>
       </c>
       <c r="O40">
-        <v>3209</v>
+        <v>3215</v>
       </c>
       <c r="P40" t="s">
         <v>143</v>
@@ -7398,7 +7398,7 @@
         <v>90</v>
       </c>
       <c r="O41">
-        <v>3209</v>
+        <v>3215</v>
       </c>
       <c r="P41" t="s">
         <v>143</v>
@@ -7553,7 +7553,7 @@
         <v>91</v>
       </c>
       <c r="O42">
-        <v>3209</v>
+        <v>3215</v>
       </c>
       <c r="P42" t="s">
         <v>143</v>
@@ -7708,7 +7708,7 @@
         <v>92</v>
       </c>
       <c r="O43">
-        <v>3785</v>
+        <v>3791</v>
       </c>
       <c r="P43" t="s">
         <v>144</v>
@@ -7863,7 +7863,7 @@
         <v>93</v>
       </c>
       <c r="O44">
-        <v>3785</v>
+        <v>3791</v>
       </c>
       <c r="P44" t="s">
         <v>144</v>
@@ -8018,7 +8018,7 @@
         <v>94</v>
       </c>
       <c r="O45">
-        <v>2932</v>
+        <v>2937</v>
       </c>
       <c r="P45" t="s">
         <v>145</v>
@@ -8173,7 +8173,7 @@
         <v>95</v>
       </c>
       <c r="O46">
-        <v>2974</v>
+        <v>2979</v>
       </c>
       <c r="P46" t="s">
         <v>146</v>
@@ -8325,7 +8325,7 @@
         <v>96</v>
       </c>
       <c r="O47">
-        <v>3785</v>
+        <v>3791</v>
       </c>
       <c r="P47" t="s">
         <v>144</v>
@@ -8617,7 +8617,7 @@
         <v>98</v>
       </c>
       <c r="O49">
-        <v>2974</v>
+        <v>2979</v>
       </c>
       <c r="P49" t="s">
         <v>146</v>
@@ -8760,7 +8760,7 @@
         <v>99</v>
       </c>
       <c r="O50">
-        <v>2974</v>
+        <v>2979</v>
       </c>
       <c r="P50" t="s">
         <v>146</v>
@@ -9046,7 +9046,7 @@
         <v>101</v>
       </c>
       <c r="O52">
-        <v>2974</v>
+        <v>2979</v>
       </c>
       <c r="P52" t="s">
         <v>146</v>
@@ -9189,7 +9189,7 @@
         <v>102</v>
       </c>
       <c r="O53">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="P53" t="s">
         <v>149</v>
@@ -9326,7 +9326,7 @@
         <v>103</v>
       </c>
       <c r="O54">
-        <v>2974</v>
+        <v>2979</v>
       </c>
       <c r="P54" t="s">
         <v>146</v>
@@ -9463,7 +9463,7 @@
         <v>104</v>
       </c>
       <c r="O55">
-        <v>2974</v>
+        <v>2979</v>
       </c>
       <c r="P55" t="s">
         <v>146</v>
@@ -9600,7 +9600,7 @@
         <v>105</v>
       </c>
       <c r="O56">
-        <v>5219</v>
+        <v>5226</v>
       </c>
       <c r="P56" t="s">
         <v>150</v>
@@ -9737,7 +9737,7 @@
         <v>106</v>
       </c>
       <c r="O57">
-        <v>5162</v>
+        <v>5169</v>
       </c>
       <c r="P57" t="s">
         <v>151</v>
@@ -9874,7 +9874,7 @@
         <v>107</v>
       </c>
       <c r="O58">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="P58" t="s">
         <v>152</v>
@@ -10011,7 +10011,7 @@
         <v>108</v>
       </c>
       <c r="O59">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="P59" t="s">
         <v>152</v>
@@ -10148,7 +10148,7 @@
         <v>109</v>
       </c>
       <c r="O60">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="P60" t="s">
         <v>152</v>
@@ -10422,7 +10422,7 @@
         <v>111</v>
       </c>
       <c r="O62">
-        <v>3934</v>
+        <v>3940</v>
       </c>
       <c r="P62" t="s">
         <v>154</v>
@@ -10970,7 +10970,7 @@
         <v>115</v>
       </c>
       <c r="O66">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="P66" t="s">
         <v>152</v>

--- a/nba_mvp_winners.xlsx
+++ b/nba_mvp_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="258">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -782,9 +782,6 @@
   </si>
   <si>
     <t>NBA</t>
-  </si>
-  <si>
-    <t>N/A - Stat tracked as of the 1973-74 NBA Season</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1455,10 +1452,10 @@
         <v>181</v>
       </c>
       <c r="AW2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX2" t="s">
         <v>257</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>258</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1610,10 +1607,10 @@
         <v>182</v>
       </c>
       <c r="AW3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX3" t="s">
         <v>257</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>258</v>
       </c>
       <c r="AY3">
         <v>2023</v>
@@ -1765,10 +1762,10 @@
         <v>183</v>
       </c>
       <c r="AW4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX4" t="s">
         <v>257</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>258</v>
       </c>
       <c r="AY4">
         <v>2022</v>
@@ -1920,10 +1917,10 @@
         <v>184</v>
       </c>
       <c r="AW5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX5" t="s">
         <v>257</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>258</v>
       </c>
       <c r="AY5">
         <v>2021</v>
@@ -2075,10 +2072,10 @@
         <v>185</v>
       </c>
       <c r="AW6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX6" t="s">
         <v>257</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>258</v>
       </c>
       <c r="AY6">
         <v>2020</v>
@@ -2230,10 +2227,10 @@
         <v>186</v>
       </c>
       <c r="AW7" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX7" t="s">
         <v>257</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>258</v>
       </c>
       <c r="AY7">
         <v>2019</v>
@@ -2385,10 +2382,10 @@
         <v>187</v>
       </c>
       <c r="AW8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY8">
         <v>2018</v>
@@ -2540,10 +2537,10 @@
         <v>188</v>
       </c>
       <c r="AW9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AX9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AY9">
         <v>2017</v>
@@ -2695,10 +2692,10 @@
         <v>189</v>
       </c>
       <c r="AW10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY10">
         <v>2016</v>
@@ -2850,10 +2847,10 @@
         <v>190</v>
       </c>
       <c r="AW11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY11">
         <v>2015</v>
@@ -3005,10 +3002,10 @@
         <v>191</v>
       </c>
       <c r="AW12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY12">
         <v>2014</v>
@@ -3160,10 +3157,10 @@
         <v>192</v>
       </c>
       <c r="AW13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY13">
         <v>2013</v>
@@ -3315,10 +3312,10 @@
         <v>193</v>
       </c>
       <c r="AW14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY14">
         <v>2012</v>
@@ -3470,10 +3467,10 @@
         <v>194</v>
       </c>
       <c r="AW15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY15">
         <v>2011</v>
@@ -3625,10 +3622,10 @@
         <v>195</v>
       </c>
       <c r="AW16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY16">
         <v>2010</v>
@@ -3780,10 +3777,10 @@
         <v>196</v>
       </c>
       <c r="AW17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY17">
         <v>2009</v>
@@ -3935,10 +3932,10 @@
         <v>197</v>
       </c>
       <c r="AW18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY18">
         <v>2008</v>
@@ -4090,10 +4087,10 @@
         <v>198</v>
       </c>
       <c r="AW19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY19">
         <v>2007</v>
@@ -4245,10 +4242,10 @@
         <v>199</v>
       </c>
       <c r="AW20" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX20" t="s">
         <v>257</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>258</v>
       </c>
       <c r="AY20">
         <v>2006</v>
@@ -4400,10 +4397,10 @@
         <v>200</v>
       </c>
       <c r="AW21" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX21" t="s">
         <v>257</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>258</v>
       </c>
       <c r="AY21">
         <v>2005</v>
@@ -4555,10 +4552,10 @@
         <v>201</v>
       </c>
       <c r="AW22" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX22" t="s">
         <v>257</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>258</v>
       </c>
       <c r="AY22">
         <v>2004</v>
@@ -4710,10 +4707,10 @@
         <v>202</v>
       </c>
       <c r="AW23" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX23" t="s">
         <v>257</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>258</v>
       </c>
       <c r="AY23">
         <v>2003</v>
@@ -4865,10 +4862,10 @@
         <v>203</v>
       </c>
       <c r="AW24" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX24" t="s">
         <v>257</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>258</v>
       </c>
       <c r="AY24">
         <v>2002</v>
@@ -5020,10 +5017,10 @@
         <v>204</v>
       </c>
       <c r="AW25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY25">
         <v>2001</v>
@@ -5175,10 +5172,10 @@
         <v>205</v>
       </c>
       <c r="AW26" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX26" t="s">
         <v>257</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>258</v>
       </c>
       <c r="AY26">
         <v>2000</v>
@@ -5330,10 +5327,10 @@
         <v>206</v>
       </c>
       <c r="AW27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY27">
         <v>1999</v>
@@ -5485,10 +5482,10 @@
         <v>207</v>
       </c>
       <c r="AW28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY28">
         <v>1998</v>
@@ -5640,10 +5637,10 @@
         <v>208</v>
       </c>
       <c r="AW29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY29">
         <v>1997</v>
@@ -5795,10 +5792,10 @@
         <v>209</v>
       </c>
       <c r="AW30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY30">
         <v>1996</v>
@@ -5950,10 +5947,10 @@
         <v>210</v>
       </c>
       <c r="AW31" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX31" t="s">
         <v>257</v>
-      </c>
-      <c r="AX31" t="s">
-        <v>258</v>
       </c>
       <c r="AY31">
         <v>1995</v>
@@ -6105,10 +6102,10 @@
         <v>211</v>
       </c>
       <c r="AW32" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX32" t="s">
         <v>257</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>258</v>
       </c>
       <c r="AY32">
         <v>1994</v>
@@ -6260,10 +6257,10 @@
         <v>212</v>
       </c>
       <c r="AW33" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX33" t="s">
         <v>257</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>258</v>
       </c>
       <c r="AY33">
         <v>1993</v>
@@ -6415,10 +6412,10 @@
         <v>213</v>
       </c>
       <c r="AW34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY34">
         <v>1992</v>
@@ -6570,10 +6567,10 @@
         <v>214</v>
       </c>
       <c r="AW35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY35">
         <v>1991</v>
@@ -6725,10 +6722,10 @@
         <v>215</v>
       </c>
       <c r="AW36" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX36" t="s">
         <v>257</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>258</v>
       </c>
       <c r="AY36">
         <v>1990</v>
@@ -6880,10 +6877,10 @@
         <v>216</v>
       </c>
       <c r="AW37" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX37" t="s">
         <v>257</v>
-      </c>
-      <c r="AX37" t="s">
-        <v>258</v>
       </c>
       <c r="AY37">
         <v>1989</v>
@@ -7035,10 +7032,10 @@
         <v>217</v>
       </c>
       <c r="AW38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY38">
         <v>1988</v>
@@ -7190,10 +7187,10 @@
         <v>218</v>
       </c>
       <c r="AW39" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX39" t="s">
         <v>257</v>
-      </c>
-      <c r="AX39" t="s">
-        <v>258</v>
       </c>
       <c r="AY39">
         <v>1987</v>
@@ -7345,10 +7342,10 @@
         <v>219</v>
       </c>
       <c r="AW40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY40">
         <v>1986</v>
@@ -7500,10 +7497,10 @@
         <v>220</v>
       </c>
       <c r="AW41" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX41" t="s">
         <v>257</v>
-      </c>
-      <c r="AX41" t="s">
-        <v>258</v>
       </c>
       <c r="AY41">
         <v>1985</v>
@@ -7655,10 +7652,10 @@
         <v>221</v>
       </c>
       <c r="AW42" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX42" t="s">
         <v>257</v>
-      </c>
-      <c r="AX42" t="s">
-        <v>258</v>
       </c>
       <c r="AY42">
         <v>1984</v>
@@ -7810,10 +7807,10 @@
         <v>222</v>
       </c>
       <c r="AW43" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX43" t="s">
         <v>257</v>
-      </c>
-      <c r="AX43" t="s">
-        <v>258</v>
       </c>
       <c r="AY43">
         <v>1983</v>
@@ -7965,10 +7962,10 @@
         <v>223</v>
       </c>
       <c r="AW44" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX44" t="s">
         <v>257</v>
-      </c>
-      <c r="AX44" t="s">
-        <v>258</v>
       </c>
       <c r="AY44">
         <v>1982</v>
@@ -8120,10 +8117,10 @@
         <v>224</v>
       </c>
       <c r="AW45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY45">
         <v>1981</v>
@@ -8272,10 +8269,10 @@
         <v>225</v>
       </c>
       <c r="AW46" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX46" t="s">
         <v>257</v>
-      </c>
-      <c r="AX46" t="s">
-        <v>258</v>
       </c>
       <c r="AY46">
         <v>1980</v>
@@ -8418,10 +8415,10 @@
         <v>226</v>
       </c>
       <c r="AW47" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX47" t="s">
         <v>257</v>
-      </c>
-      <c r="AX47" t="s">
-        <v>258</v>
       </c>
       <c r="AY47">
         <v>1979</v>
@@ -8564,10 +8561,10 @@
         <v>227</v>
       </c>
       <c r="AW48" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX48" t="s">
         <v>257</v>
-      </c>
-      <c r="AX48" t="s">
-        <v>258</v>
       </c>
       <c r="AY48">
         <v>1978</v>
@@ -8707,10 +8704,10 @@
         <v>228</v>
       </c>
       <c r="AW49" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX49" t="s">
         <v>257</v>
-      </c>
-      <c r="AX49" t="s">
-        <v>258</v>
       </c>
       <c r="AY49">
         <v>1977</v>
@@ -8850,10 +8847,10 @@
         <v>229</v>
       </c>
       <c r="AW50" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX50" t="s">
         <v>257</v>
-      </c>
-      <c r="AX50" t="s">
-        <v>258</v>
       </c>
       <c r="AY50">
         <v>1976</v>
@@ -8993,10 +8990,10 @@
         <v>230</v>
       </c>
       <c r="AW51" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX51" t="s">
         <v>257</v>
-      </c>
-      <c r="AX51" t="s">
-        <v>258</v>
       </c>
       <c r="AY51">
         <v>1975</v>
@@ -9136,10 +9133,10 @@
         <v>231</v>
       </c>
       <c r="AW52" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX52" t="s">
         <v>257</v>
-      </c>
-      <c r="AX52" t="s">
-        <v>258</v>
       </c>
       <c r="AY52">
         <v>1974</v>
@@ -9257,12 +9254,6 @@
       <c r="AP53">
         <v>4.1</v>
       </c>
-      <c r="AQ53" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR53" t="s">
-        <v>256</v>
-      </c>
       <c r="AT53">
         <v>3.8</v>
       </c>
@@ -9273,10 +9264,10 @@
         <v>232</v>
       </c>
       <c r="AW53" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX53" t="s">
         <v>257</v>
-      </c>
-      <c r="AX53" t="s">
-        <v>258</v>
       </c>
       <c r="AY53">
         <v>1973</v>
@@ -9394,12 +9385,6 @@
       <c r="AP54">
         <v>4.6</v>
       </c>
-      <c r="AQ54" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR54" t="s">
-        <v>256</v>
-      </c>
       <c r="AT54">
         <v>2.9</v>
       </c>
@@ -9410,10 +9395,10 @@
         <v>233</v>
       </c>
       <c r="AW54" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX54" t="s">
         <v>257</v>
-      </c>
-      <c r="AX54" t="s">
-        <v>258</v>
       </c>
       <c r="AY54">
         <v>1972</v>
@@ -9531,12 +9516,6 @@
       <c r="AP55">
         <v>3.3</v>
       </c>
-      <c r="AQ55" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR55" t="s">
-        <v>256</v>
-      </c>
       <c r="AT55">
         <v>3.2</v>
       </c>
@@ -9547,10 +9526,10 @@
         <v>234</v>
       </c>
       <c r="AW55" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX55" t="s">
         <v>257</v>
-      </c>
-      <c r="AX55" t="s">
-        <v>258</v>
       </c>
       <c r="AY55">
         <v>1971</v>
@@ -9668,12 +9647,6 @@
       <c r="AP56">
         <v>2</v>
       </c>
-      <c r="AQ56" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR56" t="s">
-        <v>256</v>
-      </c>
       <c r="AT56">
         <v>3.5</v>
       </c>
@@ -9684,10 +9657,10 @@
         <v>235</v>
       </c>
       <c r="AW56" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX56" t="s">
         <v>257</v>
-      </c>
-      <c r="AX56" t="s">
-        <v>258</v>
       </c>
       <c r="AY56">
         <v>1970</v>
@@ -9805,12 +9778,6 @@
       <c r="AP57">
         <v>2.6</v>
       </c>
-      <c r="AQ57" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR57" t="s">
-        <v>256</v>
-      </c>
       <c r="AT57">
         <v>3.4</v>
       </c>
@@ -9821,10 +9788,10 @@
         <v>236</v>
       </c>
       <c r="AW57" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX57" t="s">
         <v>257</v>
-      </c>
-      <c r="AX57" t="s">
-        <v>258</v>
       </c>
       <c r="AY57">
         <v>1969</v>
@@ -9942,12 +9909,6 @@
       <c r="AP58">
         <v>8.6</v>
       </c>
-      <c r="AQ58" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR58" t="s">
-        <v>256</v>
-      </c>
       <c r="AT58">
         <v>2</v>
       </c>
@@ -9958,10 +9919,10 @@
         <v>237</v>
       </c>
       <c r="AW58" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX58" t="s">
         <v>257</v>
-      </c>
-      <c r="AX58" t="s">
-        <v>258</v>
       </c>
       <c r="AY58">
         <v>1968</v>
@@ -10079,12 +10040,6 @@
       <c r="AP59">
         <v>7.8</v>
       </c>
-      <c r="AQ59" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR59" t="s">
-        <v>256</v>
-      </c>
       <c r="AT59">
         <v>1.8</v>
       </c>
@@ -10095,10 +10050,10 @@
         <v>238</v>
       </c>
       <c r="AW59" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX59" t="s">
         <v>257</v>
-      </c>
-      <c r="AX59" t="s">
-        <v>258</v>
       </c>
       <c r="AY59">
         <v>1967</v>
@@ -10216,12 +10171,6 @@
       <c r="AP60">
         <v>5.2</v>
       </c>
-      <c r="AQ60" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR60" t="s">
-        <v>256</v>
-      </c>
       <c r="AT60">
         <v>2.2</v>
       </c>
@@ -10232,10 +10181,10 @@
         <v>239</v>
       </c>
       <c r="AW60" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX60" t="s">
         <v>257</v>
-      </c>
-      <c r="AX60" t="s">
-        <v>258</v>
       </c>
       <c r="AY60">
         <v>1966</v>
@@ -10353,12 +10302,6 @@
       <c r="AP61">
         <v>5.3</v>
       </c>
-      <c r="AQ61" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR61" t="s">
-        <v>256</v>
-      </c>
       <c r="AT61">
         <v>2.6</v>
       </c>
@@ -10369,10 +10312,10 @@
         <v>240</v>
       </c>
       <c r="AW61" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX61" t="s">
         <v>257</v>
-      </c>
-      <c r="AX61" t="s">
-        <v>258</v>
       </c>
       <c r="AY61">
         <v>1965</v>
@@ -10490,12 +10433,6 @@
       <c r="AP62">
         <v>11</v>
       </c>
-      <c r="AQ62" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR62" t="s">
-        <v>256</v>
-      </c>
       <c r="AT62">
         <v>3.5</v>
       </c>
@@ -10506,10 +10443,10 @@
         <v>241</v>
       </c>
       <c r="AW62" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX62" t="s">
         <v>257</v>
-      </c>
-      <c r="AX62" t="s">
-        <v>258</v>
       </c>
       <c r="AY62">
         <v>1964</v>
@@ -10627,12 +10564,6 @@
       <c r="AP63">
         <v>4.5</v>
       </c>
-      <c r="AQ63" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR63" t="s">
-        <v>256</v>
-      </c>
       <c r="AT63">
         <v>2.4</v>
       </c>
@@ -10643,10 +10574,10 @@
         <v>242</v>
       </c>
       <c r="AW63" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX63" t="s">
         <v>257</v>
-      </c>
-      <c r="AX63" t="s">
-        <v>258</v>
       </c>
       <c r="AY63">
         <v>1963</v>
@@ -10764,12 +10695,6 @@
       <c r="AP64">
         <v>4.5</v>
       </c>
-      <c r="AQ64" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR64" t="s">
-        <v>256</v>
-      </c>
       <c r="AT64">
         <v>2.7</v>
       </c>
@@ -10780,10 +10705,10 @@
         <v>243</v>
       </c>
       <c r="AW64" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX64" t="s">
         <v>257</v>
-      </c>
-      <c r="AX64" t="s">
-        <v>258</v>
       </c>
       <c r="AY64">
         <v>1962</v>
@@ -10901,12 +10826,6 @@
       <c r="AP65">
         <v>3.4</v>
       </c>
-      <c r="AQ65" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR65" t="s">
-        <v>256</v>
-      </c>
       <c r="AT65">
         <v>2</v>
       </c>
@@ -10917,10 +10836,10 @@
         <v>244</v>
       </c>
       <c r="AW65" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX65" t="s">
         <v>257</v>
-      </c>
-      <c r="AX65" t="s">
-        <v>258</v>
       </c>
       <c r="AY65">
         <v>1961</v>
@@ -11038,12 +10957,6 @@
       <c r="AP66">
         <v>2.3</v>
       </c>
-      <c r="AQ66" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR66" t="s">
-        <v>256</v>
-      </c>
       <c r="AT66">
         <v>2.1</v>
       </c>
@@ -11054,10 +10967,10 @@
         <v>245</v>
       </c>
       <c r="AW66" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX66" t="s">
         <v>257</v>
-      </c>
-      <c r="AX66" t="s">
-        <v>258</v>
       </c>
       <c r="AY66">
         <v>1960</v>
@@ -11175,12 +11088,6 @@
       <c r="AP67">
         <v>3.1</v>
       </c>
-      <c r="AQ67" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR67" t="s">
-        <v>256</v>
-      </c>
       <c r="AT67">
         <v>2.8</v>
       </c>
@@ -11191,10 +11098,10 @@
         <v>246</v>
       </c>
       <c r="AW67" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX67" t="s">
         <v>257</v>
-      </c>
-      <c r="AX67" t="s">
-        <v>258</v>
       </c>
       <c r="AY67">
         <v>1959</v>
@@ -11312,12 +11219,6 @@
       <c r="AP68">
         <v>2.9</v>
       </c>
-      <c r="AQ68" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR68" t="s">
-        <v>256</v>
-      </c>
       <c r="AT68">
         <v>2.6</v>
       </c>
@@ -11328,10 +11229,10 @@
         <v>247</v>
       </c>
       <c r="AW68" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX68" t="s">
         <v>257</v>
-      </c>
-      <c r="AX68" t="s">
-        <v>258</v>
       </c>
       <c r="AY68">
         <v>1958</v>
@@ -11449,12 +11350,6 @@
       <c r="AP69">
         <v>7.5</v>
       </c>
-      <c r="AQ69" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR69" t="s">
-        <v>256</v>
-      </c>
       <c r="AT69">
         <v>2.1</v>
       </c>
@@ -11465,10 +11360,10 @@
         <v>248</v>
       </c>
       <c r="AW69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AY69">
         <v>1957</v>
@@ -11586,12 +11481,6 @@
       <c r="AP70">
         <v>2.6</v>
       </c>
-      <c r="AQ70" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR70" t="s">
-        <v>256</v>
-      </c>
       <c r="AT70">
         <v>2.8</v>
       </c>
@@ -11602,10 +11491,10 @@
         <v>249</v>
       </c>
       <c r="AW70" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX70" t="s">
         <v>257</v>
-      </c>
-      <c r="AX70" t="s">
-        <v>258</v>
       </c>
       <c r="AY70">
         <v>1956</v>

--- a/nba_mvp_winners.xlsx
+++ b/nba_mvp_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="277">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -766,22 +766,79 @@
     <t>1955-56</t>
   </si>
   <si>
+    <t>Joe Wieskamp</t>
+  </si>
+  <si>
+    <t>Goran Dragić</t>
+  </si>
+  <si>
+    <t>James Ennis III</t>
+  </si>
+  <si>
+    <t>Ryan Kelly</t>
+  </si>
+  <si>
+    <t>Steve Blake</t>
+  </si>
+  <si>
+    <t>Leandro Barbosa</t>
+  </si>
+  <si>
+    <t>Derrick Favors</t>
+  </si>
+  <si>
+    <t>Steven Hunter</t>
+  </si>
+  <si>
+    <t>Tim Hardaway</t>
+  </si>
+  <si>
+    <t>Lancaster Gordon</t>
+  </si>
+  <si>
+    <t>LaSalle Thompson</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>NBA</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>NJN</t>
+  </si>
+  <si>
+    <t>TOT</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>KCK</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1350,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="O2">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="P2" t="s">
         <v>121</v>
@@ -1359,7 +1416,7 @@
         <v>1995</v>
       </c>
       <c r="R2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S2">
         <v>29</v>
@@ -1368,7 +1425,7 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V2" t="s">
         <v>157</v>
@@ -1452,10 +1509,10 @@
         <v>181</v>
       </c>
       <c r="AW2" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX2" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1505,112 +1562,109 @@
         <v>52</v>
       </c>
       <c r="O3">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="Q3">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="R3" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="S3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U3" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V3" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="W3">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="X3">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>34.6</v>
+        <v>5.6</v>
       </c>
       <c r="Z3">
-        <v>11</v>
+        <v>0.3</v>
       </c>
       <c r="AA3">
-        <v>20.1</v>
+        <v>1.6</v>
       </c>
       <c r="AB3">
-        <v>0.548</v>
+        <v>0.214</v>
       </c>
       <c r="AC3">
+        <v>0.3</v>
+      </c>
+      <c r="AD3">
+        <v>1.3</v>
+      </c>
+      <c r="AE3">
+        <v>0.25</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0.2</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0.321</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0.4</v>
+      </c>
+      <c r="AO3">
+        <v>0.4</v>
+      </c>
+      <c r="AP3">
+        <v>0.3</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0.1</v>
+      </c>
+      <c r="AT3">
+        <v>0.3</v>
+      </c>
+      <c r="AU3">
         <v>1</v>
-      </c>
-      <c r="AD3">
-        <v>3</v>
-      </c>
-      <c r="AE3">
-        <v>0.33</v>
-      </c>
-      <c r="AF3">
-        <v>10</v>
-      </c>
-      <c r="AG3">
-        <v>17.1</v>
-      </c>
-      <c r="AH3">
-        <v>0.587</v>
-      </c>
-      <c r="AI3">
-        <v>0.573</v>
-      </c>
-      <c r="AJ3">
-        <v>10</v>
-      </c>
-      <c r="AK3">
-        <v>11.7</v>
-      </c>
-      <c r="AL3">
-        <v>0.857</v>
-      </c>
-      <c r="AM3">
-        <v>1.7</v>
-      </c>
-      <c r="AN3">
-        <v>8.4</v>
-      </c>
-      <c r="AO3">
-        <v>10.2</v>
-      </c>
-      <c r="AP3">
-        <v>4.2</v>
-      </c>
-      <c r="AQ3">
-        <v>1</v>
-      </c>
-      <c r="AR3">
-        <v>1.7</v>
-      </c>
-      <c r="AS3">
-        <v>3.4</v>
-      </c>
-      <c r="AT3">
-        <v>3.1</v>
-      </c>
-      <c r="AU3">
-        <v>33.1</v>
       </c>
       <c r="AV3" t="s">
         <v>182</v>
       </c>
       <c r="AW3" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AX3" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY3">
         <v>2023</v>
@@ -1660,7 +1714,7 @@
         <v>53</v>
       </c>
       <c r="O4">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="P4" t="s">
         <v>121</v>
@@ -1669,7 +1723,7 @@
         <v>1995</v>
       </c>
       <c r="R4" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S4">
         <v>27</v>
@@ -1678,7 +1732,7 @@
         <v>7</v>
       </c>
       <c r="U4" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V4" t="s">
         <v>157</v>
@@ -1762,10 +1816,10 @@
         <v>183</v>
       </c>
       <c r="AW4" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX4" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY4">
         <v>2022</v>
@@ -1815,7 +1869,7 @@
         <v>54</v>
       </c>
       <c r="O5">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="P5" t="s">
         <v>121</v>
@@ -1824,7 +1878,7 @@
         <v>1995</v>
       </c>
       <c r="R5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S5">
         <v>26</v>
@@ -1833,7 +1887,7 @@
         <v>6</v>
       </c>
       <c r="U5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V5" t="s">
         <v>157</v>
@@ -1917,10 +1971,10 @@
         <v>184</v>
       </c>
       <c r="AW5" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX5" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY5">
         <v>2021</v>
@@ -1970,7 +2024,7 @@
         <v>55</v>
       </c>
       <c r="O6">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="P6" t="s">
         <v>123</v>
@@ -1979,7 +2033,7 @@
         <v>1994</v>
       </c>
       <c r="R6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="S6">
         <v>26</v>
@@ -1988,7 +2042,7 @@
         <v>7</v>
       </c>
       <c r="U6" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V6" t="s">
         <v>159</v>
@@ -2072,10 +2126,10 @@
         <v>185</v>
       </c>
       <c r="AW6" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX6" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY6">
         <v>2020</v>
@@ -2125,112 +2179,112 @@
         <v>56</v>
       </c>
       <c r="O7">
-        <v>1951</v>
+        <v>1973</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>251</v>
       </c>
       <c r="Q7">
-        <v>1994</v>
+        <v>1986</v>
       </c>
       <c r="R7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="S7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="U7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="W7">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="X7">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="Y7">
-        <v>32.8</v>
+        <v>27.5</v>
       </c>
       <c r="Z7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA7">
-        <v>17.3</v>
+        <v>12</v>
       </c>
       <c r="AB7">
-        <v>0.578</v>
+        <v>0.413</v>
       </c>
       <c r="AC7">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD7">
+        <v>4.6</v>
+      </c>
+      <c r="AE7">
+        <v>0.348</v>
+      </c>
+      <c r="AF7">
+        <v>3.4</v>
+      </c>
+      <c r="AG7">
+        <v>7.5</v>
+      </c>
+      <c r="AH7">
+        <v>0.454</v>
+      </c>
+      <c r="AI7">
+        <v>0.479</v>
+      </c>
+      <c r="AJ7">
+        <v>2.2</v>
+      </c>
+      <c r="AK7">
         <v>2.8</v>
       </c>
-      <c r="AE7">
-        <v>0.256</v>
-      </c>
-      <c r="AF7">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG7">
-        <v>14.5</v>
-      </c>
-      <c r="AH7">
-        <v>0.641</v>
-      </c>
-      <c r="AI7">
-        <v>0.599</v>
-      </c>
-      <c r="AJ7">
-        <v>6.9</v>
-      </c>
-      <c r="AK7">
-        <v>9.5</v>
-      </c>
       <c r="AL7">
-        <v>0.729</v>
+        <v>0.782</v>
       </c>
       <c r="AM7">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="AN7">
-        <v>10.3</v>
+        <v>2.5</v>
       </c>
       <c r="AO7">
-        <v>12.5</v>
+        <v>3.1</v>
       </c>
       <c r="AP7">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="AQ7">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS7">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="AT7">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="AU7">
-        <v>27.7</v>
+        <v>13.7</v>
       </c>
       <c r="AV7" t="s">
         <v>186</v>
       </c>
       <c r="AW7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AX7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY7">
         <v>2019</v>
@@ -2280,112 +2334,112 @@
         <v>57</v>
       </c>
       <c r="O8">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="Q8">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="R8" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="S8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U8" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V8" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="W8">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="X8">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="Y8">
-        <v>35.4</v>
+        <v>20.4</v>
       </c>
       <c r="Z8">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="AA8">
-        <v>20.1</v>
+        <v>6</v>
       </c>
       <c r="AB8">
-        <v>0.449</v>
+        <v>0.457</v>
       </c>
       <c r="AC8">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD8">
-        <v>10</v>
+        <v>2.6</v>
       </c>
       <c r="AE8">
-        <v>0.367</v>
+        <v>0.304</v>
       </c>
       <c r="AF8">
-        <v>5.4</v>
+        <v>2</v>
       </c>
       <c r="AG8">
-        <v>10.1</v>
+        <v>3.4</v>
       </c>
       <c r="AH8">
-        <v>0.531</v>
+        <v>0.57</v>
       </c>
       <c r="AI8">
-        <v>0.541</v>
+        <v>0.522</v>
       </c>
       <c r="AJ8">
-        <v>8.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="AK8">
-        <v>10.1</v>
+        <v>1.6</v>
       </c>
       <c r="AL8">
-        <v>0.858</v>
+        <v>0.767</v>
       </c>
       <c r="AM8">
+        <v>0.7</v>
+      </c>
+      <c r="AN8">
+        <v>1.7</v>
+      </c>
+      <c r="AO8">
+        <v>2.5</v>
+      </c>
+      <c r="AP8">
+        <v>0.8</v>
+      </c>
+      <c r="AQ8">
         <v>0.6</v>
       </c>
-      <c r="AN8">
-        <v>4.8</v>
-      </c>
-      <c r="AO8">
-        <v>5.4</v>
-      </c>
-      <c r="AP8">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AQ8">
-        <v>1.8</v>
-      </c>
       <c r="AR8">
+        <v>0.2</v>
+      </c>
+      <c r="AS8">
         <v>0.7</v>
       </c>
-      <c r="AS8">
-        <v>4.4</v>
-      </c>
       <c r="AT8">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AU8">
-        <v>30.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="s">
         <v>187</v>
       </c>
       <c r="AW8" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX8" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY8">
         <v>2018</v>
@@ -2435,112 +2489,112 @@
         <v>58</v>
       </c>
       <c r="O9">
-        <v>4457</v>
+        <v>4467</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="Q9">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="R9" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="S9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U9" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V9" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="W9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="X9">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>34.6</v>
+        <v>6.9</v>
       </c>
       <c r="Z9">
-        <v>10.2</v>
+        <v>0.5</v>
       </c>
       <c r="AA9">
-        <v>24</v>
+        <v>1.8</v>
       </c>
       <c r="AB9">
-        <v>0.425</v>
+        <v>0.286</v>
       </c>
       <c r="AC9">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD9">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="AE9">
-        <v>0.343</v>
+        <v>0.4</v>
       </c>
       <c r="AF9">
-        <v>7.7</v>
+        <v>0.3</v>
       </c>
       <c r="AG9">
-        <v>16.8</v>
+        <v>1.1</v>
       </c>
       <c r="AH9">
-        <v>0.459</v>
+        <v>0.222</v>
       </c>
       <c r="AI9">
-        <v>0.476</v>
+        <v>0.357</v>
       </c>
       <c r="AJ9">
-        <v>8.800000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="AK9">
-        <v>10.4</v>
+        <v>0.4</v>
       </c>
       <c r="AL9">
-        <v>0.845</v>
+        <v>0.833</v>
       </c>
       <c r="AM9">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="AN9">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="AO9">
-        <v>10.7</v>
+        <v>1.1</v>
       </c>
       <c r="AP9">
-        <v>10.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
+        <v>0.3</v>
+      </c>
+      <c r="AR9">
+        <v>0.3</v>
+      </c>
+      <c r="AS9">
+        <v>0.3</v>
+      </c>
+      <c r="AT9">
+        <v>0.3</v>
+      </c>
+      <c r="AU9">
         <v>1.6</v>
-      </c>
-      <c r="AR9">
-        <v>0.4</v>
-      </c>
-      <c r="AS9">
-        <v>5.4</v>
-      </c>
-      <c r="AT9">
-        <v>2.3</v>
-      </c>
-      <c r="AU9">
-        <v>31.6</v>
       </c>
       <c r="AV9" t="s">
         <v>188</v>
       </c>
       <c r="AW9" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AX9" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AY9">
         <v>2017</v>
@@ -2590,112 +2644,112 @@
         <v>59</v>
       </c>
       <c r="O10">
-        <v>4673</v>
+        <v>4685</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="Q10">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="R10" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="S10">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="T10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="U10" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V10" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="W10">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="X10">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="Y10">
-        <v>34.2</v>
+        <v>17</v>
       </c>
       <c r="Z10">
-        <v>10.2</v>
+        <v>1.6</v>
       </c>
       <c r="AA10">
-        <v>20.2</v>
+        <v>4.1</v>
       </c>
       <c r="AB10">
-        <v>0.504</v>
+        <v>0.388</v>
       </c>
       <c r="AC10">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="AD10">
-        <v>11.2</v>
+        <v>2.6</v>
       </c>
       <c r="AE10">
-        <v>0.454</v>
+        <v>0.344</v>
       </c>
       <c r="AF10">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="AG10">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="AH10">
-        <v>0.5659999999999999</v>
+        <v>0.461</v>
       </c>
       <c r="AI10">
-        <v>0.63</v>
+        <v>0.496</v>
       </c>
       <c r="AJ10">
-        <v>4.6</v>
+        <v>0.3</v>
       </c>
       <c r="AK10">
-        <v>5.1</v>
+        <v>0.3</v>
       </c>
       <c r="AL10">
-        <v>0.908</v>
+        <v>0.8</v>
       </c>
       <c r="AM10">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="AN10">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="AO10">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP10">
-        <v>6.7</v>
+        <v>3.4</v>
       </c>
       <c r="AQ10">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="AR10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AS10">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AU10">
-        <v>30.1</v>
+        <v>4.4</v>
       </c>
       <c r="AV10" t="s">
         <v>189</v>
       </c>
       <c r="AW10" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX10" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY10">
         <v>2016</v>
@@ -2745,112 +2799,112 @@
         <v>60</v>
       </c>
       <c r="O11">
-        <v>4673</v>
+        <v>4685</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="Q11">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="R11" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="S11">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="T11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U11" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V11" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="W11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>32.7</v>
+        <v>18.9</v>
       </c>
       <c r="Z11">
-        <v>8.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="AA11">
-        <v>16.8</v>
+        <v>4</v>
       </c>
       <c r="AB11">
-        <v>0.487</v>
+        <v>0.373</v>
       </c>
       <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>2.7</v>
+      </c>
+      <c r="AE11">
+        <v>0.352</v>
+      </c>
+      <c r="AF11">
+        <v>0.6</v>
+      </c>
+      <c r="AG11">
+        <v>1.3</v>
+      </c>
+      <c r="AH11">
+        <v>0.417</v>
+      </c>
+      <c r="AI11">
+        <v>0.491</v>
+      </c>
+      <c r="AJ11">
+        <v>0.4</v>
+      </c>
+      <c r="AK11">
+        <v>0.5</v>
+      </c>
+      <c r="AL11">
+        <v>0.707</v>
+      </c>
+      <c r="AM11">
+        <v>0.2</v>
+      </c>
+      <c r="AN11">
+        <v>1.5</v>
+      </c>
+      <c r="AO11">
+        <v>1.7</v>
+      </c>
+      <c r="AP11">
         <v>3.6</v>
       </c>
-      <c r="AD11">
-        <v>8.1</v>
-      </c>
-      <c r="AE11">
-        <v>0.443</v>
-      </c>
-      <c r="AF11">
-        <v>4.6</v>
-      </c>
-      <c r="AG11">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AH11">
-        <v>0.528</v>
-      </c>
-      <c r="AI11">
-        <v>0.594</v>
-      </c>
-      <c r="AJ11">
-        <v>3.9</v>
-      </c>
-      <c r="AK11">
-        <v>4.2</v>
-      </c>
-      <c r="AL11">
-        <v>0.914</v>
-      </c>
-      <c r="AM11">
-        <v>0.7</v>
-      </c>
-      <c r="AN11">
-        <v>3.6</v>
-      </c>
-      <c r="AO11">
+      <c r="AQ11">
+        <v>0.5</v>
+      </c>
+      <c r="AR11">
+        <v>0.1</v>
+      </c>
+      <c r="AS11">
+        <v>1.3</v>
+      </c>
+      <c r="AT11">
+        <v>1.5</v>
+      </c>
+      <c r="AU11">
         <v>4.3</v>
-      </c>
-      <c r="AP11">
-        <v>7.7</v>
-      </c>
-      <c r="AQ11">
-        <v>2</v>
-      </c>
-      <c r="AR11">
-        <v>0.2</v>
-      </c>
-      <c r="AS11">
-        <v>3.1</v>
-      </c>
-      <c r="AT11">
-        <v>2</v>
-      </c>
-      <c r="AU11">
-        <v>23.8</v>
       </c>
       <c r="AV11" t="s">
         <v>190</v>
       </c>
       <c r="AW11" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX11" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY11">
         <v>2015</v>
@@ -2900,7 +2954,7 @@
         <v>61</v>
       </c>
       <c r="O12">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="P12" t="s">
         <v>127</v>
@@ -2909,7 +2963,7 @@
         <v>1988</v>
       </c>
       <c r="R12" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="S12">
         <v>26</v>
@@ -2918,7 +2972,7 @@
         <v>7</v>
       </c>
       <c r="U12" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V12" t="s">
         <v>161</v>
@@ -3002,10 +3056,10 @@
         <v>191</v>
       </c>
       <c r="AW12" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX12" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY12">
         <v>2014</v>
@@ -3055,112 +3109,112 @@
         <v>62</v>
       </c>
       <c r="O13">
-        <v>3266</v>
+        <v>3270</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="Q13">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="R13" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="S13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T13">
         <v>10</v>
       </c>
       <c r="U13" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V13" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="W13">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="X13">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="Y13">
-        <v>37.9</v>
+        <v>12.5</v>
       </c>
       <c r="Z13">
-        <v>10.1</v>
+        <v>2</v>
       </c>
       <c r="AA13">
-        <v>17.8</v>
+        <v>4.7</v>
       </c>
       <c r="AB13">
-        <v>0.5649999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="AC13">
+        <v>0.4</v>
+      </c>
+      <c r="AD13">
+        <v>1.1</v>
+      </c>
+      <c r="AE13">
+        <v>0.383</v>
+      </c>
+      <c r="AF13">
+        <v>1.6</v>
+      </c>
+      <c r="AG13">
+        <v>3.6</v>
+      </c>
+      <c r="AH13">
+        <v>0.445</v>
+      </c>
+      <c r="AI13">
+        <v>0.477</v>
+      </c>
+      <c r="AJ13">
+        <v>0.8</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>0.756</v>
+      </c>
+      <c r="AM13">
+        <v>0.2</v>
+      </c>
+      <c r="AN13">
+        <v>0.9</v>
+      </c>
+      <c r="AO13">
+        <v>1.1</v>
+      </c>
+      <c r="AP13">
         <v>1.4</v>
       </c>
-      <c r="AD13">
-        <v>3.3</v>
-      </c>
-      <c r="AE13">
-        <v>0.406</v>
-      </c>
-      <c r="AF13">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AG13">
-        <v>14.5</v>
-      </c>
-      <c r="AH13">
-        <v>0.602</v>
-      </c>
-      <c r="AI13">
-        <v>0.603</v>
-      </c>
-      <c r="AJ13">
-        <v>5.3</v>
-      </c>
-      <c r="AK13">
-        <v>7</v>
-      </c>
-      <c r="AL13">
-        <v>0.753</v>
-      </c>
-      <c r="AM13">
-        <v>1.3</v>
-      </c>
-      <c r="AN13">
-        <v>6.8</v>
-      </c>
-      <c r="AO13">
-        <v>8</v>
-      </c>
-      <c r="AP13">
-        <v>7.3</v>
-      </c>
       <c r="AQ13">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="AR13">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="AS13">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AT13">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AU13">
-        <v>26.8</v>
+        <v>5.2</v>
       </c>
       <c r="AV13" t="s">
         <v>192</v>
       </c>
       <c r="AW13" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX13" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY13">
         <v>2013</v>
@@ -3210,112 +3264,112 @@
         <v>63</v>
       </c>
       <c r="O14">
-        <v>3266</v>
+        <v>3270</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="Q14">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="R14" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="S14">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T14">
         <v>9</v>
       </c>
       <c r="U14" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V14" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="W14">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="X14">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>37.5</v>
+        <v>19.8</v>
       </c>
       <c r="Z14">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="AA14">
-        <v>18.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.531</v>
+        <v>0.399</v>
       </c>
       <c r="AC14">
+        <v>1.1</v>
+      </c>
+      <c r="AD14">
+        <v>2.7</v>
+      </c>
+      <c r="AE14">
+        <v>0.424</v>
+      </c>
+      <c r="AF14">
+        <v>2.2</v>
+      </c>
+      <c r="AG14">
+        <v>5.6</v>
+      </c>
+      <c r="AH14">
+        <v>0.387</v>
+      </c>
+      <c r="AI14">
+        <v>0.467</v>
+      </c>
+      <c r="AJ14">
+        <v>1.1</v>
+      </c>
+      <c r="AK14">
+        <v>1.5</v>
+      </c>
+      <c r="AL14">
+        <v>0.758</v>
+      </c>
+      <c r="AM14">
+        <v>0.5</v>
+      </c>
+      <c r="AN14">
+        <v>1.7</v>
+      </c>
+      <c r="AO14">
+        <v>2.2</v>
+      </c>
+      <c r="AP14">
+        <v>1.5</v>
+      </c>
+      <c r="AQ14">
         <v>0.9</v>
       </c>
-      <c r="AD14">
-        <v>2.4</v>
-      </c>
-      <c r="AE14">
-        <v>0.362</v>
-      </c>
-      <c r="AF14">
-        <v>9.1</v>
-      </c>
-      <c r="AG14">
-        <v>16.5</v>
-      </c>
-      <c r="AH14">
-        <v>0.556</v>
-      </c>
-      <c r="AI14">
-        <v>0.554</v>
-      </c>
-      <c r="AJ14">
-        <v>6.2</v>
-      </c>
-      <c r="AK14">
-        <v>8.1</v>
-      </c>
-      <c r="AL14">
-        <v>0.771</v>
-      </c>
-      <c r="AM14">
-        <v>1.5</v>
-      </c>
-      <c r="AN14">
-        <v>6.4</v>
-      </c>
-      <c r="AO14">
-        <v>7.9</v>
-      </c>
-      <c r="AP14">
-        <v>6.2</v>
-      </c>
-      <c r="AQ14">
-        <v>1.9</v>
-      </c>
       <c r="AR14">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="AT14">
         <v>1.5</v>
       </c>
       <c r="AU14">
-        <v>27.1</v>
+        <v>8.9</v>
       </c>
       <c r="AV14" t="s">
         <v>193</v>
       </c>
       <c r="AW14" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX14" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY14">
         <v>2012</v>
@@ -3365,112 +3419,112 @@
         <v>64</v>
       </c>
       <c r="O15">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="Q15">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="R15" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="S15">
+        <v>20</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>266</v>
+      </c>
+      <c r="V15" t="s">
+        <v>271</v>
+      </c>
+      <c r="W15">
+        <v>56</v>
+      </c>
+      <c r="X15">
         <v>23</v>
       </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15" t="s">
-        <v>255</v>
-      </c>
-      <c r="V15" t="s">
-        <v>164</v>
-      </c>
-      <c r="W15">
-        <v>81</v>
-      </c>
-      <c r="X15">
-        <v>81</v>
-      </c>
       <c r="Y15">
-        <v>37.4</v>
+        <v>19.5</v>
       </c>
       <c r="Z15">
-        <v>8.800000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="AA15">
-        <v>19.7</v>
+        <v>4.9</v>
       </c>
       <c r="AB15">
-        <v>0.445</v>
+        <v>0.511</v>
       </c>
       <c r="AC15">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>0.332</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>7.2</v>
+        <v>2.5</v>
       </c>
       <c r="AG15">
-        <v>15</v>
+        <v>4.9</v>
       </c>
       <c r="AH15">
-        <v>0.481</v>
+        <v>0.511</v>
       </c>
       <c r="AI15">
-        <v>0.485</v>
+        <v>0.511</v>
       </c>
       <c r="AJ15">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="AK15">
-        <v>6.9</v>
+        <v>2.1</v>
       </c>
       <c r="AL15">
-        <v>0.858</v>
+        <v>0.612</v>
       </c>
       <c r="AM15">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="AN15">
         <v>3.1</v>
       </c>
       <c r="AO15">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="AP15">
-        <v>7.7</v>
+        <v>0.4</v>
       </c>
       <c r="AQ15">
+        <v>0.3</v>
+      </c>
+      <c r="AR15">
+        <v>0.7</v>
+      </c>
+      <c r="AS15">
         <v>1</v>
       </c>
-      <c r="AR15">
-        <v>0.6</v>
-      </c>
-      <c r="AS15">
-        <v>3.4</v>
-      </c>
       <c r="AT15">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="AU15">
-        <v>25</v>
+        <v>6.3</v>
       </c>
       <c r="AV15" t="s">
         <v>194</v>
       </c>
       <c r="AW15" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX15" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY15">
         <v>2011</v>
@@ -3520,112 +3574,112 @@
         <v>65</v>
       </c>
       <c r="O16">
-        <v>3266</v>
+        <v>3270</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="Q16">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="R16" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="S16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T16">
         <v>7</v>
       </c>
       <c r="U16" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="W16">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="X16">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="Y16">
-        <v>39</v>
+        <v>17.9</v>
       </c>
       <c r="Z16">
-        <v>10.1</v>
+        <v>3.5</v>
       </c>
       <c r="AA16">
-        <v>20.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.503</v>
+        <v>0.425</v>
       </c>
       <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>3.1</v>
+      </c>
+      <c r="AE16">
+        <v>0.324</v>
+      </c>
+      <c r="AF16">
+        <v>2.5</v>
+      </c>
+      <c r="AG16">
+        <v>5.2</v>
+      </c>
+      <c r="AH16">
+        <v>0.485</v>
+      </c>
+      <c r="AI16">
+        <v>0.485</v>
+      </c>
+      <c r="AJ16">
+        <v>1.5</v>
+      </c>
+      <c r="AK16">
         <v>1.7</v>
       </c>
-      <c r="AD16">
-        <v>5.1</v>
-      </c>
-      <c r="AE16">
-        <v>0.333</v>
-      </c>
-      <c r="AF16">
-        <v>8.4</v>
-      </c>
-      <c r="AG16">
-        <v>15</v>
-      </c>
-      <c r="AH16">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AI16">
-        <v>0.545</v>
-      </c>
-      <c r="AJ16">
-        <v>7.8</v>
-      </c>
-      <c r="AK16">
-        <v>10.2</v>
-      </c>
       <c r="AL16">
-        <v>0.767</v>
+        <v>0.877</v>
       </c>
       <c r="AM16">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="AN16">
-        <v>6.4</v>
+        <v>1.3</v>
       </c>
       <c r="AO16">
-        <v>7.3</v>
+        <v>1.6</v>
       </c>
       <c r="AP16">
-        <v>8.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
+        <v>0.3</v>
+      </c>
+      <c r="AS16">
         <v>1</v>
-      </c>
-      <c r="AS16">
-        <v>3.4</v>
       </c>
       <c r="AT16">
         <v>1.6</v>
       </c>
       <c r="AU16">
-        <v>29.7</v>
+        <v>9.5</v>
       </c>
       <c r="AV16" t="s">
         <v>195</v>
       </c>
       <c r="AW16" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX16" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY16">
         <v>2010</v>
@@ -3675,112 +3729,112 @@
         <v>66</v>
       </c>
       <c r="O17">
-        <v>3266</v>
+        <v>3270</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="Q17">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="R17" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="S17">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T17">
         <v>6</v>
       </c>
       <c r="U17" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="W17">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="X17">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Y17">
-        <v>37.7</v>
+        <v>24.4</v>
       </c>
       <c r="Z17">
-        <v>9.699999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="AA17">
-        <v>19.9</v>
+        <v>10.8</v>
       </c>
       <c r="AB17">
-        <v>0.489</v>
+        <v>0.482</v>
       </c>
       <c r="AC17">
+        <v>1.3</v>
+      </c>
+      <c r="AD17">
+        <v>3.4</v>
+      </c>
+      <c r="AE17">
+        <v>0.375</v>
+      </c>
+      <c r="AF17">
+        <v>3.9</v>
+      </c>
+      <c r="AG17">
+        <v>7.4</v>
+      </c>
+      <c r="AH17">
+        <v>0.532</v>
+      </c>
+      <c r="AI17">
+        <v>0.542</v>
+      </c>
+      <c r="AJ17">
+        <v>2.4</v>
+      </c>
+      <c r="AK17">
+        <v>2.8</v>
+      </c>
+      <c r="AL17">
+        <v>0.881</v>
+      </c>
+      <c r="AM17">
+        <v>0.5</v>
+      </c>
+      <c r="AN17">
+        <v>2.1</v>
+      </c>
+      <c r="AO17">
+        <v>2.6</v>
+      </c>
+      <c r="AP17">
+        <v>2.3</v>
+      </c>
+      <c r="AQ17">
+        <v>1.2</v>
+      </c>
+      <c r="AR17">
+        <v>0.1</v>
+      </c>
+      <c r="AS17">
+        <v>1.3</v>
+      </c>
+      <c r="AT17">
         <v>1.6</v>
       </c>
-      <c r="AD17">
-        <v>4.7</v>
-      </c>
-      <c r="AE17">
-        <v>0.344</v>
-      </c>
-      <c r="AF17">
-        <v>8.1</v>
-      </c>
-      <c r="AG17">
-        <v>15.2</v>
-      </c>
-      <c r="AH17">
-        <v>0.535</v>
-      </c>
-      <c r="AI17">
-        <v>0.53</v>
-      </c>
-      <c r="AJ17">
-        <v>7.3</v>
-      </c>
-      <c r="AK17">
-        <v>9.4</v>
-      </c>
-      <c r="AL17">
-        <v>0.78</v>
-      </c>
-      <c r="AM17">
-        <v>1.3</v>
-      </c>
-      <c r="AN17">
-        <v>6.3</v>
-      </c>
-      <c r="AO17">
-        <v>7.6</v>
-      </c>
-      <c r="AP17">
-        <v>7.2</v>
-      </c>
-      <c r="AQ17">
-        <v>1.7</v>
-      </c>
-      <c r="AR17">
-        <v>1.1</v>
-      </c>
-      <c r="AS17">
-        <v>3</v>
-      </c>
-      <c r="AT17">
-        <v>1.7</v>
-      </c>
       <c r="AU17">
-        <v>28.4</v>
+        <v>14.2</v>
       </c>
       <c r="AV17" t="s">
         <v>196</v>
       </c>
       <c r="AW17" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX17" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY17">
         <v>2009</v>
@@ -3830,7 +3884,7 @@
         <v>67</v>
       </c>
       <c r="O18">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="P18" t="s">
         <v>130</v>
@@ -3839,7 +3893,7 @@
         <v>1978</v>
       </c>
       <c r="R18" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="S18">
         <v>30</v>
@@ -3848,7 +3902,7 @@
         <v>12</v>
       </c>
       <c r="U18" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V18" t="s">
         <v>166</v>
@@ -3932,10 +3986,10 @@
         <v>197</v>
       </c>
       <c r="AW18" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX18" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY18">
         <v>2008</v>
@@ -3985,7 +4039,7 @@
         <v>68</v>
       </c>
       <c r="O19">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="P19" t="s">
         <v>131</v>
@@ -3994,7 +4048,7 @@
         <v>1978</v>
       </c>
       <c r="R19" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="S19">
         <v>29</v>
@@ -4003,7 +4057,7 @@
         <v>9</v>
       </c>
       <c r="U19" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V19" t="s">
         <v>167</v>
@@ -4087,10 +4141,10 @@
         <v>198</v>
       </c>
       <c r="AW19" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX19" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY19">
         <v>2007</v>
@@ -4140,112 +4194,112 @@
         <v>69</v>
       </c>
       <c r="O20">
-        <v>4710</v>
+        <v>4717</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>257</v>
       </c>
       <c r="Q20">
-        <v>1974</v>
+        <v>1981</v>
       </c>
       <c r="R20" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="S20">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="T20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U20" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V20" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="W20">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="X20">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="Y20">
-        <v>35.4</v>
+        <v>19</v>
       </c>
       <c r="Z20">
-        <v>6.8</v>
+        <v>2.5</v>
       </c>
       <c r="AA20">
-        <v>13.4</v>
+        <v>4.2</v>
       </c>
       <c r="AB20">
-        <v>0.512</v>
+        <v>0.601</v>
       </c>
       <c r="AC20">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>0.439</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="AG20">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="AH20">
-        <v>0.548</v>
+        <v>0.601</v>
       </c>
       <c r="AI20">
-        <v>0.583</v>
+        <v>0.601</v>
       </c>
       <c r="AJ20">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="AK20">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="AL20">
-        <v>0.921</v>
+        <v>0.514</v>
       </c>
       <c r="AM20">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="AN20">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="AO20">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AP20">
-        <v>10.5</v>
+        <v>0.2</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AR20">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="AS20">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="AT20">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AU20">
-        <v>18.8</v>
+        <v>6.1</v>
       </c>
       <c r="AV20" t="s">
         <v>199</v>
       </c>
       <c r="AW20" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AX20" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY20">
         <v>2006</v>
@@ -4295,7 +4349,7 @@
         <v>70</v>
       </c>
       <c r="O21">
-        <v>4710</v>
+        <v>4708</v>
       </c>
       <c r="P21" t="s">
         <v>132</v>
@@ -4304,7 +4358,7 @@
         <v>1974</v>
       </c>
       <c r="R21" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="S21">
         <v>31</v>
@@ -4313,7 +4367,7 @@
         <v>9</v>
       </c>
       <c r="U21" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V21" t="s">
         <v>168</v>
@@ -4397,10 +4451,10 @@
         <v>200</v>
       </c>
       <c r="AW21" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX21" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY21">
         <v>2005</v>
@@ -4450,7 +4504,7 @@
         <v>71</v>
       </c>
       <c r="O22">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="P22" t="s">
         <v>133</v>
@@ -4459,7 +4513,7 @@
         <v>1976</v>
       </c>
       <c r="R22" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="S22">
         <v>28</v>
@@ -4468,7 +4522,7 @@
         <v>9</v>
       </c>
       <c r="U22" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V22" t="s">
         <v>169</v>
@@ -4552,10 +4606,10 @@
         <v>201</v>
       </c>
       <c r="AW22" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX22" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY22">
         <v>2004</v>
@@ -4608,109 +4662,109 @@
         <v>4823</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="Q23">
-        <v>1976</v>
+        <v>1966</v>
       </c>
       <c r="R23" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="S23">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="T23">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="U23" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V23" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="W23">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="X23">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>39.3</v>
+        <v>12.7</v>
       </c>
       <c r="Z23">
-        <v>8.800000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="AA23">
-        <v>17.2</v>
+        <v>4.9</v>
       </c>
       <c r="AB23">
-        <v>0.513</v>
+        <v>0.367</v>
       </c>
       <c r="AC23">
+        <v>1.1</v>
+      </c>
+      <c r="AD23">
+        <v>3.1</v>
+      </c>
+      <c r="AE23">
+        <v>0.355</v>
+      </c>
+      <c r="AF23">
+        <v>0.7</v>
+      </c>
+      <c r="AG23">
+        <v>1.8</v>
+      </c>
+      <c r="AH23">
+        <v>0.389</v>
+      </c>
+      <c r="AI23">
+        <v>0.48</v>
+      </c>
+      <c r="AJ23">
+        <v>0.2</v>
+      </c>
+      <c r="AK23">
+        <v>0.4</v>
+      </c>
+      <c r="AL23">
+        <v>0.5</v>
+      </c>
+      <c r="AM23">
         <v>0.1</v>
       </c>
-      <c r="AD23">
-        <v>0.3</v>
-      </c>
-      <c r="AE23">
-        <v>0.273</v>
-      </c>
-      <c r="AF23">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AG23">
-        <v>16.9</v>
-      </c>
-      <c r="AH23">
-        <v>0.517</v>
-      </c>
-      <c r="AI23">
-        <v>0.515</v>
-      </c>
-      <c r="AJ23">
-        <v>5.6</v>
-      </c>
-      <c r="AK23">
-        <v>7.8</v>
-      </c>
-      <c r="AL23">
-        <v>0.71</v>
-      </c>
-      <c r="AM23">
-        <v>3.2</v>
-      </c>
       <c r="AN23">
-        <v>9.699999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AO23">
-        <v>12.9</v>
+        <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="AQ23">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AR23">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AS23">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="AT23">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="AU23">
-        <v>23.3</v>
+        <v>4.9</v>
       </c>
       <c r="AV23" t="s">
         <v>202</v>
       </c>
       <c r="AW23" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AX23" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY23">
         <v>2003</v>
@@ -4763,109 +4817,109 @@
         <v>4823</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="Q24">
-        <v>1976</v>
+        <v>1966</v>
       </c>
       <c r="R24" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="S24">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="U24" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V24" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="W24">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="X24">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="Y24">
-        <v>40.6</v>
+        <v>23.5</v>
       </c>
       <c r="Z24">
-        <v>9.300000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="AA24">
-        <v>18.3</v>
+        <v>9.1</v>
       </c>
       <c r="AB24">
-        <v>0.508</v>
+        <v>0.365</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD24">
+        <v>5.2</v>
+      </c>
+      <c r="AE24">
+        <v>0.347</v>
+      </c>
+      <c r="AF24">
+        <v>1.5</v>
+      </c>
+      <c r="AG24">
+        <v>3.9</v>
+      </c>
+      <c r="AH24">
+        <v>0.387</v>
+      </c>
+      <c r="AI24">
+        <v>0.464</v>
+      </c>
+      <c r="AJ24">
+        <v>1.1</v>
+      </c>
+      <c r="AK24">
+        <v>1.4</v>
+      </c>
+      <c r="AL24">
+        <v>0.794</v>
+      </c>
+      <c r="AM24">
+        <v>0.2</v>
+      </c>
+      <c r="AN24">
+        <v>1.6</v>
+      </c>
+      <c r="AO24">
+        <v>1.8</v>
+      </c>
+      <c r="AP24">
+        <v>4.1</v>
+      </c>
+      <c r="AQ24">
+        <v>0.8</v>
+      </c>
+      <c r="AR24">
         <v>0.1</v>
       </c>
-      <c r="AE24">
-        <v>0.1</v>
-      </c>
-      <c r="AF24">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG24">
-        <v>18.2</v>
-      </c>
-      <c r="AH24">
-        <v>0.511</v>
-      </c>
-      <c r="AI24">
-        <v>0.508</v>
-      </c>
-      <c r="AJ24">
-        <v>6.8</v>
-      </c>
-      <c r="AK24">
-        <v>8.5</v>
-      </c>
-      <c r="AL24">
-        <v>0.799</v>
-      </c>
-      <c r="AM24">
-        <v>3.3</v>
-      </c>
-      <c r="AN24">
-        <v>9.4</v>
-      </c>
-      <c r="AO24">
-        <v>12.7</v>
-      </c>
-      <c r="AP24">
-        <v>3.7</v>
-      </c>
-      <c r="AQ24">
-        <v>0.7</v>
-      </c>
-      <c r="AR24">
-        <v>2.5</v>
-      </c>
       <c r="AS24">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="AT24">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="AU24">
-        <v>25.5</v>
+        <v>9.6</v>
       </c>
       <c r="AV24" t="s">
         <v>203</v>
       </c>
       <c r="AW24" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AX24" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY24">
         <v>2002</v>
@@ -4915,7 +4969,7 @@
         <v>74</v>
       </c>
       <c r="O25">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P25" t="s">
         <v>135</v>
@@ -4924,7 +4978,7 @@
         <v>1975</v>
       </c>
       <c r="R25" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="S25">
         <v>26</v>
@@ -4933,7 +4987,7 @@
         <v>5</v>
       </c>
       <c r="U25" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V25" t="s">
         <v>158</v>
@@ -5017,10 +5071,10 @@
         <v>204</v>
       </c>
       <c r="AW25" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX25" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY25">
         <v>2001</v>
@@ -5070,7 +5124,7 @@
         <v>75</v>
       </c>
       <c r="O26">
-        <v>4582</v>
+        <v>4580</v>
       </c>
       <c r="P26" t="s">
         <v>136</v>
@@ -5079,7 +5133,7 @@
         <v>1972</v>
       </c>
       <c r="R26" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S26">
         <v>28</v>
@@ -5088,7 +5142,7 @@
         <v>8</v>
       </c>
       <c r="U26" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V26" t="s">
         <v>166</v>
@@ -5172,10 +5226,10 @@
         <v>205</v>
       </c>
       <c r="AW26" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX26" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY26">
         <v>2000</v>
@@ -5234,7 +5288,7 @@
         <v>1963</v>
       </c>
       <c r="R27" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="S27">
         <v>36</v>
@@ -5243,7 +5297,7 @@
         <v>14</v>
       </c>
       <c r="U27" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V27" t="s">
         <v>171</v>
@@ -5327,10 +5381,10 @@
         <v>206</v>
       </c>
       <c r="AW27" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX27" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY27">
         <v>1999</v>
@@ -5380,7 +5434,7 @@
         <v>77</v>
       </c>
       <c r="O28">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="P28" t="s">
         <v>138</v>
@@ -5389,7 +5443,7 @@
         <v>1963</v>
       </c>
       <c r="R28" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="S28">
         <v>35</v>
@@ -5398,7 +5452,7 @@
         <v>13</v>
       </c>
       <c r="U28" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V28" t="s">
         <v>164</v>
@@ -5482,10 +5536,10 @@
         <v>207</v>
       </c>
       <c r="AW28" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX28" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY28">
         <v>1998</v>
@@ -5544,7 +5598,7 @@
         <v>1963</v>
       </c>
       <c r="R29" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="S29">
         <v>34</v>
@@ -5553,7 +5607,7 @@
         <v>12</v>
       </c>
       <c r="U29" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V29" t="s">
         <v>171</v>
@@ -5637,10 +5691,10 @@
         <v>208</v>
       </c>
       <c r="AW29" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX29" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY29">
         <v>1997</v>
@@ -5690,7 +5744,7 @@
         <v>79</v>
       </c>
       <c r="O30">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="P30" t="s">
         <v>138</v>
@@ -5699,7 +5753,7 @@
         <v>1963</v>
       </c>
       <c r="R30" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="S30">
         <v>33</v>
@@ -5708,7 +5762,7 @@
         <v>11</v>
       </c>
       <c r="U30" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V30" t="s">
         <v>164</v>
@@ -5792,10 +5846,10 @@
         <v>209</v>
       </c>
       <c r="AW30" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX30" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY30">
         <v>1996</v>
@@ -5845,7 +5899,7 @@
         <v>80</v>
       </c>
       <c r="O31">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="P31" t="s">
         <v>139</v>
@@ -5854,7 +5908,7 @@
         <v>1965</v>
       </c>
       <c r="R31" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S31">
         <v>30</v>
@@ -5863,7 +5917,7 @@
         <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V31" t="s">
         <v>170</v>
@@ -5947,10 +6001,10 @@
         <v>210</v>
       </c>
       <c r="AW31" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX31" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY31">
         <v>1995</v>
@@ -6000,7 +6054,7 @@
         <v>81</v>
       </c>
       <c r="O32">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="P32" t="s">
         <v>140</v>
@@ -6009,7 +6063,7 @@
         <v>1962</v>
       </c>
       <c r="R32" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S32">
         <v>32</v>
@@ -6018,7 +6072,7 @@
         <v>10</v>
       </c>
       <c r="U32" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V32" t="s">
         <v>160</v>
@@ -6102,10 +6156,10 @@
         <v>211</v>
       </c>
       <c r="AW32" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX32" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY32">
         <v>1994</v>
@@ -6155,7 +6209,7 @@
         <v>82</v>
       </c>
       <c r="O33">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="P33" t="s">
         <v>141</v>
@@ -6164,7 +6218,7 @@
         <v>1963</v>
       </c>
       <c r="R33" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="S33">
         <v>30</v>
@@ -6173,7 +6227,7 @@
         <v>9</v>
       </c>
       <c r="U33" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V33" t="s">
         <v>168</v>
@@ -6257,10 +6311,10 @@
         <v>212</v>
       </c>
       <c r="AW33" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX33" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY33">
         <v>1993</v>
@@ -6310,7 +6364,7 @@
         <v>83</v>
       </c>
       <c r="O34">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="P34" t="s">
         <v>138</v>
@@ -6319,7 +6373,7 @@
         <v>1963</v>
       </c>
       <c r="R34" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="S34">
         <v>29</v>
@@ -6328,7 +6382,7 @@
         <v>8</v>
       </c>
       <c r="U34" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V34" t="s">
         <v>164</v>
@@ -6412,10 +6466,10 @@
         <v>213</v>
       </c>
       <c r="AW34" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX34" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY34">
         <v>1992</v>
@@ -6465,7 +6519,7 @@
         <v>84</v>
       </c>
       <c r="O35">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="P35" t="s">
         <v>138</v>
@@ -6474,7 +6528,7 @@
         <v>1963</v>
       </c>
       <c r="R35" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="S35">
         <v>28</v>
@@ -6483,7 +6537,7 @@
         <v>7</v>
       </c>
       <c r="U35" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V35" t="s">
         <v>164</v>
@@ -6567,10 +6621,10 @@
         <v>214</v>
       </c>
       <c r="AW35" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX35" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY35">
         <v>1991</v>
@@ -6620,7 +6674,7 @@
         <v>85</v>
       </c>
       <c r="O36">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="P36" t="s">
         <v>142</v>
@@ -6629,7 +6683,7 @@
         <v>1959</v>
       </c>
       <c r="R36" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="S36">
         <v>31</v>
@@ -6638,7 +6692,7 @@
         <v>11</v>
       </c>
       <c r="U36" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V36" t="s">
         <v>166</v>
@@ -6722,10 +6776,10 @@
         <v>215</v>
       </c>
       <c r="AW36" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX36" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY36">
         <v>1990</v>
@@ -6775,7 +6829,7 @@
         <v>86</v>
       </c>
       <c r="O37">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="P37" t="s">
         <v>142</v>
@@ -6784,7 +6838,7 @@
         <v>1959</v>
       </c>
       <c r="R37" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="S37">
         <v>30</v>
@@ -6793,7 +6847,7 @@
         <v>10</v>
       </c>
       <c r="U37" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V37" t="s">
         <v>166</v>
@@ -6877,10 +6931,10 @@
         <v>216</v>
       </c>
       <c r="AW37" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX37" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY37">
         <v>1989</v>
@@ -6930,7 +6984,7 @@
         <v>87</v>
       </c>
       <c r="O38">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="P38" t="s">
         <v>138</v>
@@ -6939,7 +6993,7 @@
         <v>1963</v>
       </c>
       <c r="R38" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="S38">
         <v>25</v>
@@ -6948,7 +7002,7 @@
         <v>4</v>
       </c>
       <c r="U38" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V38" t="s">
         <v>164</v>
@@ -7032,10 +7086,10 @@
         <v>217</v>
       </c>
       <c r="AW38" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX38" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY38">
         <v>1988</v>
@@ -7085,7 +7139,7 @@
         <v>88</v>
       </c>
       <c r="O39">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="P39" t="s">
         <v>142</v>
@@ -7094,7 +7148,7 @@
         <v>1959</v>
       </c>
       <c r="R39" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="S39">
         <v>28</v>
@@ -7103,7 +7157,7 @@
         <v>8</v>
       </c>
       <c r="U39" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V39" t="s">
         <v>166</v>
@@ -7187,10 +7241,10 @@
         <v>218</v>
       </c>
       <c r="AW39" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX39" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY39">
         <v>1987</v>
@@ -7240,112 +7294,112 @@
         <v>89</v>
       </c>
       <c r="O40">
-        <v>3215</v>
+        <v>3205</v>
       </c>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="Q40">
-        <v>1956</v>
+        <v>1962</v>
       </c>
       <c r="R40" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="S40">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="T40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U40" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V40" t="s">
-        <v>172</v>
+        <v>273</v>
       </c>
       <c r="W40">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="X40">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="Y40">
-        <v>38</v>
+        <v>11.7</v>
       </c>
       <c r="Z40">
-        <v>9.699999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="AA40">
-        <v>19.6</v>
+        <v>5.8</v>
       </c>
       <c r="AB40">
-        <v>0.496</v>
+        <v>0.377</v>
       </c>
       <c r="AC40">
+        <v>0.1</v>
+      </c>
+      <c r="AD40">
+        <v>0.5</v>
+      </c>
+      <c r="AE40">
+        <v>0.25</v>
+      </c>
+      <c r="AF40">
+        <v>2.1</v>
+      </c>
+      <c r="AG40">
+        <v>5.3</v>
+      </c>
+      <c r="AH40">
+        <v>0.388</v>
+      </c>
+      <c r="AI40">
+        <v>0.387</v>
+      </c>
+      <c r="AJ40">
+        <v>0.8</v>
+      </c>
+      <c r="AK40">
+        <v>0.9</v>
+      </c>
+      <c r="AL40">
+        <v>0.804</v>
+      </c>
+      <c r="AM40">
+        <v>0.4</v>
+      </c>
+      <c r="AN40">
+        <v>0.7</v>
+      </c>
+      <c r="AO40">
+        <v>1.1</v>
+      </c>
+      <c r="AP40">
         <v>1</v>
       </c>
-      <c r="AD40">
-        <v>2.4</v>
-      </c>
-      <c r="AE40">
-        <v>0.423</v>
-      </c>
-      <c r="AF40">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AG40">
-        <v>17.2</v>
-      </c>
-      <c r="AH40">
-        <v>0.506</v>
-      </c>
-      <c r="AI40">
-        <v>0.521</v>
-      </c>
-      <c r="AJ40">
-        <v>5.4</v>
-      </c>
-      <c r="AK40">
-        <v>6</v>
-      </c>
-      <c r="AL40">
-        <v>0.896</v>
-      </c>
-      <c r="AM40">
-        <v>2.3</v>
-      </c>
-      <c r="AN40">
-        <v>7.5</v>
-      </c>
-      <c r="AO40">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AP40">
-        <v>6.8</v>
-      </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="AR40">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AS40">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="AT40">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU40">
-        <v>25.8</v>
+        <v>5.2</v>
       </c>
       <c r="AV40" t="s">
         <v>219</v>
       </c>
       <c r="AW40" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX40" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY40">
         <v>1986</v>
@@ -7395,112 +7449,112 @@
         <v>90</v>
       </c>
       <c r="O41">
-        <v>3215</v>
+        <v>3205</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="Q41">
-        <v>1956</v>
+        <v>1962</v>
       </c>
       <c r="R41" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="S41">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="T41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U41" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V41" t="s">
-        <v>172</v>
+        <v>273</v>
       </c>
       <c r="W41">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="X41">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="Y41">
-        <v>39.5</v>
+        <v>10.8</v>
       </c>
       <c r="Z41">
-        <v>11.5</v>
+        <v>1.7</v>
       </c>
       <c r="AA41">
-        <v>22</v>
+        <v>4.6</v>
       </c>
       <c r="AB41">
-        <v>0.522</v>
+        <v>0.383</v>
       </c>
       <c r="AC41">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AD41">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="AE41">
-        <v>0.427</v>
+        <v>0.222</v>
       </c>
       <c r="AF41">
-        <v>10.8</v>
+        <v>1.7</v>
       </c>
       <c r="AG41">
-        <v>20.4</v>
+        <v>4.4</v>
       </c>
       <c r="AH41">
-        <v>0.529</v>
+        <v>0.388</v>
       </c>
       <c r="AI41">
-        <v>0.538</v>
+        <v>0.387</v>
       </c>
       <c r="AJ41">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="AK41">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="AL41">
-        <v>0.882</v>
+        <v>0.755</v>
       </c>
       <c r="AM41">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="AN41">
-        <v>8.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO41">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="AP41">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="AS41">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="AT41">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="AU41">
-        <v>28.7</v>
+        <v>4.1</v>
       </c>
       <c r="AV41" t="s">
         <v>220</v>
       </c>
       <c r="AW41" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AX41" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY41">
         <v>1985</v>
@@ -7550,112 +7604,112 @@
         <v>91</v>
       </c>
       <c r="O42">
-        <v>3215</v>
+        <v>3197</v>
       </c>
       <c r="P42" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="Q42">
-        <v>1956</v>
+        <v>1961</v>
       </c>
       <c r="R42" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="S42">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U42" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V42" t="s">
-        <v>172</v>
+        <v>274</v>
       </c>
       <c r="W42">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X42">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y42">
-        <v>38.3</v>
+        <v>23.9</v>
       </c>
       <c r="Z42">
-        <v>9.6</v>
+        <v>4.2</v>
       </c>
       <c r="AA42">
-        <v>19.5</v>
+        <v>8</v>
       </c>
       <c r="AB42">
-        <v>0.492</v>
+        <v>0.523</v>
       </c>
       <c r="AC42">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>4.2</v>
+      </c>
+      <c r="AG42">
+        <v>8</v>
+      </c>
+      <c r="AH42">
+        <v>0.523</v>
+      </c>
+      <c r="AI42">
+        <v>0.523</v>
+      </c>
+      <c r="AJ42">
+        <v>2</v>
+      </c>
+      <c r="AK42">
+        <v>2.8</v>
+      </c>
+      <c r="AL42">
+        <v>0.717</v>
+      </c>
+      <c r="AM42">
+        <v>3.3</v>
+      </c>
+      <c r="AN42">
+        <v>5.6</v>
+      </c>
+      <c r="AO42">
+        <v>8.9</v>
+      </c>
+      <c r="AP42">
+        <v>1.1</v>
+      </c>
+      <c r="AQ42">
         <v>0.9</v>
       </c>
-      <c r="AE42">
-        <v>0.247</v>
-      </c>
-      <c r="AF42">
-        <v>9.4</v>
-      </c>
-      <c r="AG42">
-        <v>18.6</v>
-      </c>
-      <c r="AH42">
-        <v>0.504</v>
-      </c>
-      <c r="AI42">
-        <v>0.497</v>
-      </c>
-      <c r="AJ42">
-        <v>4.7</v>
-      </c>
-      <c r="AK42">
-        <v>5.3</v>
-      </c>
-      <c r="AL42">
-        <v>0.888</v>
-      </c>
-      <c r="AM42">
-        <v>2.3</v>
-      </c>
-      <c r="AN42">
-        <v>7.8</v>
-      </c>
-      <c r="AO42">
-        <v>10.1</v>
-      </c>
-      <c r="AP42">
-        <v>6.6</v>
-      </c>
-      <c r="AQ42">
+      <c r="AR42">
         <v>1.8</v>
       </c>
-      <c r="AR42">
-        <v>0.9</v>
-      </c>
       <c r="AS42">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="AT42">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="AU42">
-        <v>24.2</v>
+        <v>10.3</v>
       </c>
       <c r="AV42" t="s">
         <v>221</v>
       </c>
       <c r="AW42" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AX42" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY42">
         <v>1984</v>
@@ -7705,7 +7759,7 @@
         <v>92</v>
       </c>
       <c r="O43">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="P43" t="s">
         <v>144</v>
@@ -7714,7 +7768,7 @@
         <v>1955</v>
       </c>
       <c r="R43" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S43">
         <v>28</v>
@@ -7723,7 +7777,7 @@
         <v>9</v>
       </c>
       <c r="U43" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V43" t="s">
         <v>158</v>
@@ -7807,10 +7861,10 @@
         <v>222</v>
       </c>
       <c r="AW43" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX43" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY43">
         <v>1983</v>
@@ -7860,7 +7914,7 @@
         <v>93</v>
       </c>
       <c r="O44">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="P44" t="s">
         <v>144</v>
@@ -7869,7 +7923,7 @@
         <v>1955</v>
       </c>
       <c r="R44" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S44">
         <v>27</v>
@@ -7878,7 +7932,7 @@
         <v>8</v>
       </c>
       <c r="U44" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V44" t="s">
         <v>160</v>
@@ -7962,10 +8016,10 @@
         <v>223</v>
       </c>
       <c r="AW44" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX44" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY44">
         <v>1982</v>
@@ -8024,7 +8078,7 @@
         <v>1950</v>
       </c>
       <c r="R45" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="S45">
         <v>31</v>
@@ -8033,7 +8087,7 @@
         <v>10</v>
       </c>
       <c r="U45" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V45" t="s">
         <v>158</v>
@@ -8117,10 +8171,10 @@
         <v>224</v>
       </c>
       <c r="AW45" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX45" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY45">
         <v>1981</v>
@@ -8179,7 +8233,7 @@
         <v>1947</v>
       </c>
       <c r="R46" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S46">
         <v>33</v>
@@ -8188,7 +8242,7 @@
         <v>11</v>
       </c>
       <c r="U46" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V46" t="s">
         <v>166</v>
@@ -8269,10 +8323,10 @@
         <v>225</v>
       </c>
       <c r="AW46" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX46" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY46">
         <v>1980</v>
@@ -8322,7 +8376,7 @@
         <v>96</v>
       </c>
       <c r="O47">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="P47" t="s">
         <v>144</v>
@@ -8331,7 +8385,7 @@
         <v>1955</v>
       </c>
       <c r="R47" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S47">
         <v>24</v>
@@ -8340,7 +8394,7 @@
         <v>5</v>
       </c>
       <c r="U47" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V47" t="s">
         <v>160</v>
@@ -8415,10 +8469,10 @@
         <v>226</v>
       </c>
       <c r="AW47" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX47" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY47">
         <v>1979</v>
@@ -8468,7 +8522,7 @@
         <v>97</v>
       </c>
       <c r="O48">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P48" t="s">
         <v>147</v>
@@ -8477,7 +8531,7 @@
         <v>1952</v>
       </c>
       <c r="R48" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S48">
         <v>26</v>
@@ -8486,7 +8540,7 @@
         <v>4</v>
       </c>
       <c r="U48" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V48" t="s">
         <v>173</v>
@@ -8561,10 +8615,10 @@
         <v>227</v>
       </c>
       <c r="AW48" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX48" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY48">
         <v>1978</v>
@@ -8623,7 +8677,7 @@
         <v>1947</v>
       </c>
       <c r="R49" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S49">
         <v>30</v>
@@ -8632,7 +8686,7 @@
         <v>8</v>
       </c>
       <c r="U49" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V49" t="s">
         <v>166</v>
@@ -8704,10 +8758,10 @@
         <v>228</v>
       </c>
       <c r="AW49" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX49" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY49">
         <v>1977</v>
@@ -8766,7 +8820,7 @@
         <v>1947</v>
       </c>
       <c r="R50" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S50">
         <v>29</v>
@@ -8775,7 +8829,7 @@
         <v>7</v>
       </c>
       <c r="U50" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V50" t="s">
         <v>166</v>
@@ -8847,10 +8901,10 @@
         <v>229</v>
       </c>
       <c r="AW50" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX50" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY50">
         <v>1976</v>
@@ -8900,7 +8954,7 @@
         <v>100</v>
       </c>
       <c r="O51">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P51" t="s">
         <v>148</v>
@@ -8909,7 +8963,7 @@
         <v>1951</v>
       </c>
       <c r="R51" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S51">
         <v>24</v>
@@ -8918,7 +8972,7 @@
         <v>3</v>
       </c>
       <c r="U51" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V51" t="s">
         <v>174</v>
@@ -8990,10 +9044,10 @@
         <v>230</v>
       </c>
       <c r="AW51" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX51" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY51">
         <v>1975</v>
@@ -9052,7 +9106,7 @@
         <v>1947</v>
       </c>
       <c r="R52" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S52">
         <v>27</v>
@@ -9061,7 +9115,7 @@
         <v>5</v>
       </c>
       <c r="U52" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V52" t="s">
         <v>159</v>
@@ -9133,10 +9187,10 @@
         <v>231</v>
       </c>
       <c r="AW52" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX52" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY52">
         <v>1974</v>
@@ -9195,7 +9249,7 @@
         <v>1948</v>
       </c>
       <c r="R53" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S53">
         <v>25</v>
@@ -9204,7 +9258,7 @@
         <v>3</v>
       </c>
       <c r="U53" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V53" t="s">
         <v>172</v>
@@ -9264,10 +9318,10 @@
         <v>232</v>
       </c>
       <c r="AW53" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX53" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY53">
         <v>1973</v>
@@ -9326,7 +9380,7 @@
         <v>1947</v>
       </c>
       <c r="R54" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S54">
         <v>25</v>
@@ -9335,7 +9389,7 @@
         <v>3</v>
       </c>
       <c r="U54" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V54" t="s">
         <v>159</v>
@@ -9395,10 +9449,10 @@
         <v>233</v>
       </c>
       <c r="AW54" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX54" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY54">
         <v>1972</v>
@@ -9457,7 +9511,7 @@
         <v>1947</v>
       </c>
       <c r="R55" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S55">
         <v>24</v>
@@ -9466,7 +9520,7 @@
         <v>2</v>
       </c>
       <c r="U55" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V55" t="s">
         <v>159</v>
@@ -9526,10 +9580,10 @@
         <v>234</v>
       </c>
       <c r="AW55" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX55" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY55">
         <v>1971</v>
@@ -9579,7 +9633,7 @@
         <v>105</v>
       </c>
       <c r="O56">
-        <v>5226</v>
+        <v>5224</v>
       </c>
       <c r="P56" t="s">
         <v>150</v>
@@ -9588,7 +9642,7 @@
         <v>1942</v>
       </c>
       <c r="R56" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S56">
         <v>28</v>
@@ -9597,7 +9651,7 @@
         <v>6</v>
       </c>
       <c r="U56" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V56" t="s">
         <v>175</v>
@@ -9657,10 +9711,10 @@
         <v>235</v>
       </c>
       <c r="AW56" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX56" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY56">
         <v>1970</v>
@@ -9710,7 +9764,7 @@
         <v>106</v>
       </c>
       <c r="O57">
-        <v>5169</v>
+        <v>5167</v>
       </c>
       <c r="P57" t="s">
         <v>151</v>
@@ -9719,7 +9773,7 @@
         <v>1946</v>
       </c>
       <c r="R57" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S57">
         <v>23</v>
@@ -9728,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="U57" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V57" t="s">
         <v>176</v>
@@ -9788,10 +9842,10 @@
         <v>236</v>
       </c>
       <c r="AW57" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX57" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY57">
         <v>1969</v>
@@ -9841,7 +9895,7 @@
         <v>107</v>
       </c>
       <c r="O58">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="P58" t="s">
         <v>152</v>
@@ -9850,7 +9904,7 @@
         <v>1936</v>
       </c>
       <c r="R58" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S58">
         <v>32</v>
@@ -9859,7 +9913,7 @@
         <v>9</v>
       </c>
       <c r="U58" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V58" t="s">
         <v>158</v>
@@ -9919,10 +9973,10 @@
         <v>237</v>
       </c>
       <c r="AW58" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX58" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY58">
         <v>1968</v>
@@ -9972,7 +10026,7 @@
         <v>108</v>
       </c>
       <c r="O59">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="P59" t="s">
         <v>152</v>
@@ -9981,7 +10035,7 @@
         <v>1936</v>
       </c>
       <c r="R59" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S59">
         <v>31</v>
@@ -9990,7 +10044,7 @@
         <v>8</v>
       </c>
       <c r="U59" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V59" t="s">
         <v>158</v>
@@ -10050,10 +10104,10 @@
         <v>238</v>
       </c>
       <c r="AW59" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX59" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY59">
         <v>1967</v>
@@ -10103,7 +10157,7 @@
         <v>109</v>
       </c>
       <c r="O60">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="P60" t="s">
         <v>152</v>
@@ -10112,7 +10166,7 @@
         <v>1936</v>
       </c>
       <c r="R60" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S60">
         <v>30</v>
@@ -10121,7 +10175,7 @@
         <v>7</v>
       </c>
       <c r="U60" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V60" t="s">
         <v>158</v>
@@ -10181,10 +10235,10 @@
         <v>239</v>
       </c>
       <c r="AW60" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX60" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY60">
         <v>1966</v>
@@ -10234,7 +10288,7 @@
         <v>110</v>
       </c>
       <c r="O61">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P61" t="s">
         <v>153</v>
@@ -10243,7 +10297,7 @@
         <v>1934</v>
       </c>
       <c r="R61" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S61">
         <v>31</v>
@@ -10252,7 +10306,7 @@
         <v>9</v>
       </c>
       <c r="U61" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V61" t="s">
         <v>172</v>
@@ -10312,10 +10366,10 @@
         <v>240</v>
       </c>
       <c r="AW61" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX61" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY61">
         <v>1965</v>
@@ -10365,7 +10419,7 @@
         <v>111</v>
       </c>
       <c r="O62">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="P62" t="s">
         <v>154</v>
@@ -10374,7 +10428,7 @@
         <v>1938</v>
       </c>
       <c r="R62" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="S62">
         <v>26</v>
@@ -10383,7 +10437,7 @@
         <v>4</v>
       </c>
       <c r="U62" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V62" t="s">
         <v>177</v>
@@ -10443,10 +10497,10 @@
         <v>241</v>
       </c>
       <c r="AW62" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX62" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY62">
         <v>1964</v>
@@ -10496,7 +10550,7 @@
         <v>112</v>
       </c>
       <c r="O63">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P63" t="s">
         <v>153</v>
@@ -10505,7 +10559,7 @@
         <v>1934</v>
       </c>
       <c r="R63" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S63">
         <v>29</v>
@@ -10514,7 +10568,7 @@
         <v>7</v>
       </c>
       <c r="U63" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V63" t="s">
         <v>172</v>
@@ -10574,10 +10628,10 @@
         <v>242</v>
       </c>
       <c r="AW63" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX63" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY63">
         <v>1963</v>
@@ -10627,7 +10681,7 @@
         <v>113</v>
       </c>
       <c r="O64">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P64" t="s">
         <v>153</v>
@@ -10636,7 +10690,7 @@
         <v>1934</v>
       </c>
       <c r="R64" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S64">
         <v>28</v>
@@ -10645,7 +10699,7 @@
         <v>6</v>
       </c>
       <c r="U64" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V64" t="s">
         <v>172</v>
@@ -10705,10 +10759,10 @@
         <v>243</v>
       </c>
       <c r="AW64" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX64" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY64">
         <v>1962</v>
@@ -10758,7 +10812,7 @@
         <v>114</v>
       </c>
       <c r="O65">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P65" t="s">
         <v>153</v>
@@ -10767,7 +10821,7 @@
         <v>1934</v>
       </c>
       <c r="R65" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S65">
         <v>27</v>
@@ -10776,7 +10830,7 @@
         <v>5</v>
       </c>
       <c r="U65" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V65" t="s">
         <v>172</v>
@@ -10836,10 +10890,10 @@
         <v>244</v>
       </c>
       <c r="AW65" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX65" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY65">
         <v>1961</v>
@@ -10889,7 +10943,7 @@
         <v>115</v>
       </c>
       <c r="O66">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="P66" t="s">
         <v>152</v>
@@ -10898,7 +10952,7 @@
         <v>1936</v>
       </c>
       <c r="R66" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S66">
         <v>24</v>
@@ -10907,7 +10961,7 @@
         <v>1</v>
       </c>
       <c r="U66" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V66" t="s">
         <v>178</v>
@@ -10967,10 +11021,10 @@
         <v>245</v>
       </c>
       <c r="AW66" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX66" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY66">
         <v>1960</v>
@@ -11020,7 +11074,7 @@
         <v>116</v>
       </c>
       <c r="O67">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="P67" t="s">
         <v>155</v>
@@ -11029,7 +11083,7 @@
         <v>1932</v>
       </c>
       <c r="R67" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="S67">
         <v>27</v>
@@ -11038,7 +11092,7 @@
         <v>5</v>
       </c>
       <c r="U67" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V67" t="s">
         <v>179</v>
@@ -11098,10 +11152,10 @@
         <v>246</v>
       </c>
       <c r="AW67" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX67" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY67">
         <v>1959</v>
@@ -11151,7 +11205,7 @@
         <v>117</v>
       </c>
       <c r="O68">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P68" t="s">
         <v>153</v>
@@ -11160,7 +11214,7 @@
         <v>1934</v>
       </c>
       <c r="R68" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S68">
         <v>24</v>
@@ -11169,7 +11223,7 @@
         <v>2</v>
       </c>
       <c r="U68" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V68" t="s">
         <v>172</v>
@@ -11229,10 +11283,10 @@
         <v>247</v>
       </c>
       <c r="AW68" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX68" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY68">
         <v>1958</v>
@@ -11282,7 +11336,7 @@
         <v>118</v>
       </c>
       <c r="O69">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="P69" t="s">
         <v>156</v>
@@ -11291,7 +11345,7 @@
         <v>1928</v>
       </c>
       <c r="R69" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="S69">
         <v>29</v>
@@ -11300,7 +11354,7 @@
         <v>7</v>
       </c>
       <c r="U69" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V69" t="s">
         <v>172</v>
@@ -11360,10 +11414,10 @@
         <v>248</v>
       </c>
       <c r="AW69" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AX69" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY69">
         <v>1957</v>
@@ -11413,7 +11467,7 @@
         <v>119</v>
       </c>
       <c r="O70">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="P70" t="s">
         <v>155</v>
@@ -11422,7 +11476,7 @@
         <v>1932</v>
       </c>
       <c r="R70" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="S70">
         <v>24</v>
@@ -11431,7 +11485,7 @@
         <v>2</v>
       </c>
       <c r="U70" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="V70" t="s">
         <v>179</v>
@@ -11491,10 +11545,10 @@
         <v>249</v>
       </c>
       <c r="AW70" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AX70" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AY70">
         <v>1956</v>
